--- a/Documentação/Planilhas/Conferencia_DOM.xlsx
+++ b/Documentação/Planilhas/Conferencia_DOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="65" activeTab="70"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="1582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="1587">
   <si>
     <t>DESCR</t>
   </si>
@@ -4875,12 +4875,31 @@
   <si>
     <t>Dado do WMS</t>
   </si>
+  <si>
+    <t>Sessão tfgld0510m000</t>
+  </si>
+  <si>
+    <t>sessão tcemm0130m000 [usar o CD_Filial identificado na sessão tfgld0510m000 como chave]</t>
+  </si>
+  <si>
+    <t>Fixo como 201</t>
+  </si>
+  <si>
+    <t>Selecionar a Unidade Empresarial referente ao CD_FILIAL desejado
+Ir no menu Referências e escolher "Parceiro de Negócio Interno"
+Na aba Geral, pedir o detalhamento do código do endereço
+Na aba Detalhado, seção Identificação de Imposto, pegar a informação da Entidade Fiscal 
+[na extração tem um tratamento para eliminar a "/" e o "-']</t>
+  </si>
+  <si>
+    <t>tfgld0510m000, tcemm0130m000 e tccom0502m000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4969,6 +4988,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -5026,7 +5052,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -5256,6 +5282,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5264,7 +5316,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -5523,17 +5575,17 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5544,28 +5596,28 @@
     <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5593,6 +5645,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7000,11 +7061,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14337,10 +14398,10 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1014</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="D6" s="36" t="s">
         <v>786</v>
       </c>
@@ -14462,10 +14523,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>710</v>
@@ -14473,21 +14534,21 @@
       <c r="E19" s="68" t="s">
         <v>711</v>
       </c>
-      <c r="F19" s="98" t="s">
+      <c r="F19" s="100" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="99"/>
+      <c r="F20" s="101"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:6">
@@ -14504,10 +14565,10 @@
       <c r="F23" s="48"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="98" t="s">
         <v>1016</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="98"/>
       <c r="D25" s="36" t="s">
         <v>786</v>
       </c>
@@ -14629,10 +14690,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="B38" s="101"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="46"/>
       <c r="D38" s="68" t="s">
         <v>710</v>
@@ -14640,21 +14701,21 @@
       <c r="E38" s="68" t="s">
         <v>711</v>
       </c>
-      <c r="F38" s="98" t="s">
+      <c r="F38" s="100" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="101"/>
-      <c r="B39" s="101"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="46"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="99"/>
+      <c r="F39" s="101"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:6">
@@ -14664,11 +14725,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A38:B40"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A2:B2"/>
@@ -14676,6 +14732,11 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A38:B40"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15026,11 +15087,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D42:E42"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
@@ -15038,6 +15094,11 @@
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D42:E42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17158,17 +17219,17 @@
       <c r="A19" s="104" t="s">
         <v>916</v>
       </c>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="107"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="106"/>
       <c r="I19" s="104" t="s">
         <v>917</v>
       </c>
-      <c r="J19" s="107"/>
+      <c r="J19" s="106"/>
       <c r="K19" s="104" t="s">
         <v>920</v>
       </c>
@@ -17176,32 +17237,32 @@
       <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:15" ht="11.25" customHeight="1">
-      <c r="A20" s="105"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="105"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="107"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="106"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="106"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="110"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
     </row>
@@ -17442,22 +17503,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J25"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="A19:H21"/>
     <mergeCell ref="F22:F25"/>
     <mergeCell ref="G22:G25"/>
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="E22:E25"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18517,6 +18578,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="P22:P25"/>
     <mergeCell ref="Q22:Q25"/>
     <mergeCell ref="A19:C21"/>
@@ -18533,12 +18600,6 @@
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="D22:D25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -21460,10 +21521,10 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1120</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="D6" s="36" t="s">
         <v>1116</v>
       </c>
@@ -21562,30 +21623,30 @@
       <c r="E15" s="68" t="s">
         <v>711</v>
       </c>
-      <c r="F15" s="98" t="s">
+      <c r="F15" s="100" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="16" spans="1:32">
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
-      <c r="F16" s="99"/>
+      <c r="F16" s="101"/>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:6">
@@ -21602,10 +21663,10 @@
       <c r="F23" s="48"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="98" t="s">
         <v>1121</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="98"/>
       <c r="D25" s="36" t="s">
         <v>1116</v>
       </c>
@@ -21711,30 +21772,30 @@
       <c r="E36" s="68" t="s">
         <v>711</v>
       </c>
-      <c r="F36" s="98" t="s">
+      <c r="F36" s="100" t="s">
         <v>1123</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="D37" s="68"/>
       <c r="E37" s="68"/>
-      <c r="F37" s="99"/>
+      <c r="F37" s="101"/>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="B38" s="101"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="46"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="101"/>
-      <c r="B39" s="101"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="46"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:6">
@@ -21744,6 +21805,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A38:B40"/>
@@ -21751,11 +21817,6 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A19:B21"/>
-    <mergeCell ref="D15:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21851,10 +21912,10 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1125</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="D6" s="36" t="s">
         <v>1129</v>
       </c>
@@ -21954,10 +22015,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>710</v>
@@ -21965,21 +22026,21 @@
       <c r="E19" s="68" t="s">
         <v>711</v>
       </c>
-      <c r="F19" s="98" t="s">
+      <c r="F19" s="100" t="s">
         <v>1126</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="99"/>
+      <c r="F20" s="101"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:6">
@@ -21996,10 +22057,10 @@
       <c r="F23" s="48"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="98" t="s">
         <v>1127</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="98"/>
       <c r="D25" s="36" t="s">
         <v>1129</v>
       </c>
@@ -22110,10 +22171,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="B38" s="101"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="46"/>
       <c r="D38" s="68" t="s">
         <v>710</v>
@@ -22121,21 +22182,21 @@
       <c r="E38" s="68" t="s">
         <v>711</v>
       </c>
-      <c r="F38" s="98" t="s">
+      <c r="F38" s="100" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="101"/>
-      <c r="B39" s="101"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="46"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="99"/>
+      <c r="F39" s="101"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:6">
@@ -22145,18 +22206,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A19:B21"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="A38:B40"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A19:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22232,10 +22293,10 @@
       <c r="L3" s="13"/>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1140</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="14"/>
       <c r="D6" s="36" t="s">
         <v>1137</v>
@@ -22411,10 +22472,10 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>710</v>
@@ -22422,23 +22483,23 @@
       <c r="E19" s="68" t="s">
         <v>711</v>
       </c>
-      <c r="F19" s="98" t="s">
+      <c r="F19" s="100" t="s">
         <v>1139</v>
       </c>
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="99"/>
+      <c r="F20" s="101"/>
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -22473,10 +22534,10 @@
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="98" t="s">
         <v>1141</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="14"/>
       <c r="D25" s="36" t="s">
         <v>1137</v>
@@ -22658,10 +22719,10 @@
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="B38" s="101"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="46"/>
       <c r="D38" s="68" t="s">
         <v>710</v>
@@ -22669,23 +22730,23 @@
       <c r="E38" s="68" t="s">
         <v>711</v>
       </c>
-      <c r="F38" s="98" t="s">
+      <c r="F38" s="100" t="s">
         <v>1142</v>
       </c>
       <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="101"/>
-      <c r="B39" s="101"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="46"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="99"/>
+      <c r="F39" s="101"/>
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="46"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -22789,10 +22850,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1125</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="14"/>
       <c r="D6" s="36" t="s">
         <v>1145</v>
@@ -22951,10 +23012,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>710</v>
@@ -22962,25 +23023,25 @@
       <c r="E19" s="68" t="s">
         <v>711</v>
       </c>
-      <c r="F19" s="98" t="s">
+      <c r="F19" s="100" t="s">
         <v>1126</v>
       </c>
       <c r="G19" s="13"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="99"/>
+      <c r="F20" s="101"/>
       <c r="G20" s="13"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -23019,10 +23080,10 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="98" t="s">
         <v>1144</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="14"/>
       <c r="D25" s="36" t="s">
         <v>1145</v>
@@ -23211,10 +23272,10 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="B38" s="101"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="46"/>
       <c r="D38" s="68" t="s">
         <v>710</v>
@@ -23222,25 +23283,25 @@
       <c r="E38" s="68" t="s">
         <v>711</v>
       </c>
-      <c r="F38" s="98" t="s">
+      <c r="F38" s="100" t="s">
         <v>1143</v>
       </c>
       <c r="G38" s="13"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="101"/>
-      <c r="B39" s="101"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="46"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="99"/>
+      <c r="F39" s="101"/>
       <c r="G39" s="13"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="46"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -23275,6 +23336,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A38:B40"/>
+    <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="A19:B21"/>
@@ -23282,11 +23348,6 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A38:B40"/>
-    <mergeCell ref="D38:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -23361,10 +23422,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1158</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="14"/>
       <c r="D6" s="19" t="s">
         <v>484</v>
@@ -23523,10 +23584,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>1159</v>
@@ -23541,8 +23602,8 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -23551,8 +23612,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -23653,10 +23714,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1158</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="14"/>
       <c r="D6" s="19" t="s">
         <v>1173</v>
@@ -23801,10 +23862,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>1184</v>
@@ -23816,8 +23877,8 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -23825,8 +23886,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -25198,10 +25259,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1158</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>1262</v>
@@ -25357,10 +25418,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1066</v>
@@ -25372,8 +25433,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -25381,8 +25442,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -26116,10 +26177,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1158</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>1305</v>
@@ -26279,10 +26340,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1066</v>
@@ -26294,8 +26355,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -26303,8 +26364,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -28835,10 +28896,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1158</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>1382</v>
@@ -28998,10 +29059,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1066</v>
@@ -29013,8 +29074,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -29022,8 +29083,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -29440,10 +29501,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1158</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>643</v>
@@ -29603,10 +29664,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1066</v>
@@ -29618,8 +29679,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -29627,8 +29688,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -29723,10 +29784,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1158</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>1405</v>
@@ -29886,10 +29947,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1066</v>
@@ -29901,8 +29962,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -29910,8 +29971,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -30006,10 +30067,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1158</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>1417</v>
@@ -30137,10 +30198,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>709</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1066</v>
@@ -30152,8 +30213,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -30161,8 +30222,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -31390,10 +31451,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:AA20"/>
+  <dimension ref="A2:AA32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -31401,9 +31462,11 @@
     <col min="1" max="1" width="18.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="8" width="17.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" style="1" customWidth="1"/>
@@ -31443,7 +31506,7 @@
       <c r="C2" s="3" t="s">
         <v>1550</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="H2" s="2"/>
       <c r="N2" s="1"/>
       <c r="P2" s="1"/>
       <c r="AA2" s="1"/>
@@ -31454,9 +31517,9 @@
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>1586</v>
+      </c>
+      <c r="H3" s="2"/>
       <c r="N3" s="1"/>
       <c r="P3" s="1"/>
       <c r="AA3" s="1"/>
@@ -31466,8 +31529,8 @@
       <c r="B4" s="2"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="H4" s="6"/>
       <c r="K4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="1"/>
@@ -31480,25 +31543,25 @@
         <v>1463</v>
       </c>
       <c r="B6" s="16" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>1466</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>1464</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>1465</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>1466</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>552</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -31506,25 +31569,25 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>1467</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>1467</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -31532,25 +31595,25 @@
         <v>75</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>1468</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -31558,25 +31621,25 @@
         <v>73</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>1469</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -31584,25 +31647,25 @@
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>1470</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -31610,25 +31673,25 @@
         <v>80</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>1471</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>1471</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -31636,93 +31699,175 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>1472</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>1472</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="11.25" customHeight="1">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="90" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B15" s="122"/>
+      <c r="C15" s="122"/>
+      <c r="D15" s="90" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90" t="s">
+        <v>803</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:27" ht="11.25" customHeight="1">
+      <c r="A16" s="122"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="11.25" customHeight="1">
+      <c r="A17" s="122"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+    </row>
+    <row r="18" spans="1:8" ht="11.25" customHeight="1">
+      <c r="A18" s="68" t="s">
         <v>1473</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68" t="s">
+      <c r="B18" s="68" t="s">
         <v>585</v>
       </c>
-      <c r="D15" s="121" t="s">
+      <c r="C18" s="123" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D18" s="88" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E18" s="124" t="s">
+        <v>1584</v>
+      </c>
+      <c r="F18" s="68" t="s">
+        <v>491</v>
+      </c>
+      <c r="G18" s="121" t="s">
         <v>1581</v>
       </c>
-      <c r="E15" s="68" t="s">
-        <v>1475</v>
-      </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
+      <c r="H18" s="68"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="68"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="123"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="68"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="D21" s="88"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="120" t="s">
         <v>1474</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="120"/>
+      <c r="D22" s="88"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="120"/>
+      <c r="D23" s="88"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="D24" s="88"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="D25" s="88"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="D26" s="88"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="D27" s="88"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="D28" s="88"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="D29" s="88"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="D30" s="88"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="D31" s="88"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="D32" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="14">
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="D18:D32"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A15:C17"/>
+    <mergeCell ref="D15:E17"/>
     <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D15:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Planilhas/Conferencia_DOM.xlsx
+++ b/Documentação/Planilhas/Conferencia_DOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="65" activeTab="70"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -2227,9 +2227,6 @@
 </t>
   </si>
   <si>
-    <t>Selecionar a linha apresentada com as configurações acima e escolher no menu Referências, Enum/Set Data</t>
-  </si>
-  <si>
     <t>Pegar a Informação da coluna Constant</t>
   </si>
   <si>
@@ -4893,6 +4890,9 @@
   </si>
   <si>
     <t>tfgld0510m000, tcemm0130m000 e tccom0502m000</t>
+  </si>
+  <si>
+    <t>Clicar com o botão direito do mouse sobre a linha apresentada com as configurações fornecidas e selecionar Specific ==&gt; Enum/Set Data</t>
   </si>
 </sst>
 </file>
@@ -5575,17 +5575,17 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5596,28 +5596,28 @@
     <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5641,6 +5641,12 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5648,12 +5654,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7061,11 +7061,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B73" sqref="B73"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7076,456 +7076,456 @@
   <sheetData>
     <row r="1" spans="2:3" ht="33" customHeight="1">
       <c r="B1" s="57" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="59" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="61" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C3" s="60"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="61" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C4" s="60"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="61" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C5" s="60"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="61" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C6" s="60"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="61" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C7" s="60"/>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="61" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C8" s="60"/>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="61" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C9" s="60"/>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="61" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C10" s="60"/>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="61" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C11" s="60"/>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="61" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C12" s="60"/>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="61" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C13" s="60"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="61" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C14" s="60"/>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="61" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C15" s="60"/>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="61" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C16" s="60"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="61" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C17" s="60"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="61" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="C18" s="60"/>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="61" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C19" s="60"/>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="61" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C20" s="60"/>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="61" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="C21" s="60"/>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="61" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="C22" s="60"/>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="61" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="C23" s="60"/>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="61" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C24" s="60"/>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="61" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C25" s="60"/>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="61" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C26" s="60"/>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="61" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C27" s="60"/>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="61" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C28" s="60"/>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="61" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C29" s="60"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="61" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C30" s="60"/>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="61" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C31" s="60"/>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="61" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C32" s="60"/>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="61" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C33" s="60"/>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="61" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C34" s="60"/>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="61" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C35" s="60"/>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="61" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C36" s="60"/>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="61" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C37" s="60"/>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="61" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C38" s="60"/>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="61" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="C39" s="60"/>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="61" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="C40" s="60"/>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="61" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="C41" s="60"/>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="61" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C42" s="60"/>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="61" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C43" s="60"/>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="61" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C44" s="60"/>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="61" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C45" s="60"/>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="61" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C46" s="60"/>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="61" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C47" s="60"/>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="61" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C48" s="60"/>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="61" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C49" s="60"/>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="61" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C50" s="60"/>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="61" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="C51" s="60"/>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="61" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="C52" s="60"/>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="61" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="C53" s="60"/>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="61" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="C54" s="60"/>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="61" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C55" s="60"/>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="61" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="C56" s="60"/>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="61" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="C57" s="60"/>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="61" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C58" s="60"/>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="61" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="C59" s="60"/>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="61" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="C60" s="60"/>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="61" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="C61" s="60"/>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="61" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C62" s="60"/>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="61" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="C63" s="60"/>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="61" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C64" s="60"/>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="61" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="C65" s="60"/>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="61" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C66" s="60"/>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="61" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="C67" s="60"/>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="61" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C68" s="60"/>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="61" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="C69" s="60"/>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="61" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C70" s="60"/>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="61" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C71" s="60"/>
     </row>
     <row r="72" spans="2:3">
       <c r="B72" s="59" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C72" s="60" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" s="61" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C73" s="60" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" s="62" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="C74" s="63" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
   </sheetData>
@@ -7655,7 +7655,7 @@
     </row>
     <row r="3" spans="1:33" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -7953,7 +7953,7 @@
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -8111,7 +8111,7 @@
         <v>544</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D19" s="13"/>
     </row>
@@ -8191,7 +8191,7 @@
     </row>
     <row r="3" spans="1:31" ht="21">
       <c r="A3" s="64" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -8401,10 +8401,10 @@
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="82" t="s">
+        <v>806</v>
+      </c>
+      <c r="C18" s="73" t="s">
         <v>807</v>
-      </c>
-      <c r="C18" s="73" t="s">
-        <v>808</v>
       </c>
       <c r="D18" s="74"/>
       <c r="E18" s="75"/>
@@ -8423,7 +8423,7 @@
     </row>
     <row r="21" spans="2:10" ht="11.25" customHeight="1">
       <c r="B21" s="68" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C21" s="68" t="s">
         <v>570</v>
@@ -8611,7 +8611,7 @@
     </row>
     <row r="3" spans="1:31" ht="21">
       <c r="A3" s="64" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -8740,7 +8740,7 @@
     </row>
     <row r="3" spans="1:32" ht="21">
       <c r="A3" s="64" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E2" s="2"/>
       <c r="G2" s="2"/>
@@ -8880,11 +8880,11 @@
     </row>
     <row r="3" spans="1:32" ht="21">
       <c r="A3" s="64" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E3" s="2"/>
       <c r="G3" s="2"/>
@@ -8901,95 +8901,95 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="16" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>1551</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="49" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>1553</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>1554</v>
       </c>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="49" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B8" s="49" t="s">
         <v>1555</v>
-      </c>
-      <c r="B8" s="49" t="s">
-        <v>1556</v>
       </c>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="49" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B9" s="49" t="s">
         <v>1557</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>1558</v>
       </c>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="49" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B10" s="49" t="s">
         <v>1559</v>
-      </c>
-      <c r="B10" s="49" t="s">
-        <v>1560</v>
       </c>
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="49" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B11" s="49" t="s">
         <v>1561</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>1562</v>
       </c>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="49" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="49" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B13" s="49" t="s">
         <v>1564</v>
-      </c>
-      <c r="B13" s="49" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="49" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B14" s="49" t="s">
         <v>1566</v>
-      </c>
-      <c r="B14" s="49" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="49" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B15" s="49" t="s">
         <v>1568</v>
-      </c>
-      <c r="B15" s="49" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="49" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B16" s="49" t="s">
         <v>1570</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="11.25" customHeight="1">
       <c r="A18" s="86" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="B18" s="86"/>
     </row>
@@ -8999,10 +8999,10 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="68" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B20" s="68" t="s">
         <v>1573</v>
-      </c>
-      <c r="B20" s="68" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9065,7 +9065,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="D2" s="1"/>
       <c r="F2" s="1"/>
@@ -9077,7 +9077,7 @@
     </row>
     <row r="3" spans="1:32" ht="21">
       <c r="A3" s="64" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -9582,7 +9582,7 @@
     </row>
     <row r="3" spans="1:32" ht="21">
       <c r="A3" s="64" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -9792,7 +9792,7 @@
     </row>
     <row r="3" spans="1:32" ht="21">
       <c r="A3" s="64" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -10256,15 +10256,15 @@
     </row>
     <row r="23" spans="1:29" ht="11.25" customHeight="1">
       <c r="B23" s="66" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C23" s="66"/>
       <c r="D23" s="66"/>
       <c r="E23" s="66" t="s">
+        <v>809</v>
+      </c>
+      <c r="F23" s="66" t="s">
         <v>810</v>
-      </c>
-      <c r="F23" s="66" t="s">
-        <v>811</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -10308,7 +10308,7 @@
         <v>667</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F26" s="68" t="s">
         <v>669</v>
@@ -10689,7 +10689,7 @@
     </row>
     <row r="3" spans="1:26" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -10875,7 +10875,7 @@
     </row>
     <row r="3" spans="1:31" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -11403,7 +11403,7 @@
     </row>
     <row r="3" spans="1:32" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -11811,7 +11811,7 @@
     </row>
     <row r="3" spans="1:28" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -12019,7 +12019,9 @@
   </sheetPr>
   <dimension ref="A1:AF23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -12062,7 +12064,7 @@
     </row>
     <row r="3" spans="1:32" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -12145,10 +12147,10 @@
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="D11" s="68" t="s">
+        <v>709</v>
+      </c>
+      <c r="E11" s="68" t="s">
         <v>710</v>
-      </c>
-      <c r="E11" s="68" t="s">
-        <v>711</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="1"/>
@@ -12233,7 +12235,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="85" t="s">
-        <v>709</v>
+        <v>1586</v>
       </c>
       <c r="B19" s="85"/>
       <c r="D19" s="1"/>
@@ -12322,7 +12324,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -12333,11 +12335,11 @@
     </row>
     <row r="3" spans="1:30" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -12348,30 +12350,30 @@
     </row>
     <row r="6" spans="1:30" ht="11.25" customHeight="1">
       <c r="A6" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>714</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>715</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>716</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>717</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>718</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>720</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>721</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>135</v>
@@ -12380,18 +12382,18 @@
         <v>136</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>724</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>725</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>135</v>
@@ -12400,18 +12402,18 @@
         <v>136</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>726</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>727</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>135</v>
@@ -12420,18 +12422,18 @@
         <v>136</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>728</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>729</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>135</v>
@@ -12440,18 +12442,18 @@
         <v>136</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>730</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>731</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>135</v>
@@ -12460,18 +12462,18 @@
         <v>136</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>732</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>733</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>135</v>
@@ -12480,18 +12482,18 @@
         <v>136</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>734</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>735</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>135</v>
@@ -12500,18 +12502,18 @@
         <v>136</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>736</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>737</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>135</v>
@@ -12520,18 +12522,18 @@
         <v>136</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>738</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>739</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>135</v>
@@ -12540,18 +12542,18 @@
         <v>136</v>
       </c>
       <c r="E15" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>135</v>
@@ -12560,30 +12562,30 @@
         <v>136</v>
       </c>
       <c r="E16" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
       <c r="A19" s="68" t="s">
+        <v>740</v>
+      </c>
+      <c r="B19" s="68" t="s">
         <v>741</v>
       </c>
-      <c r="B19" s="68" t="s">
+      <c r="C19" s="68" t="s">
         <v>742</v>
       </c>
-      <c r="C19" s="68" t="s">
+      <c r="D19" s="68" t="s">
         <v>743</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="E19" s="68" t="s">
         <v>744</v>
       </c>
-      <c r="E19" s="68" t="s">
+      <c r="F19" s="68" t="s">
         <v>745</v>
-      </c>
-      <c r="F19" s="68" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -12642,7 +12644,7 @@
   <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D18" sqref="D18:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -12668,7 +12670,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -12676,7 +12678,7 @@
     </row>
     <row r="3" spans="1:27" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -12698,10 +12700,10 @@
       <c r="B6" s="28"/>
       <c r="C6" s="1"/>
       <c r="D6" s="16" t="s">
+        <v>747</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>748</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -12818,14 +12820,14 @@
     </row>
     <row r="18" spans="1:5" ht="11.25" customHeight="1">
       <c r="A18" s="85" t="s">
-        <v>709</v>
+        <v>1586</v>
       </c>
       <c r="B18" s="85"/>
       <c r="D18" s="68" t="s">
+        <v>709</v>
+      </c>
+      <c r="E18" s="68" t="s">
         <v>710</v>
-      </c>
-      <c r="E18" s="68" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -12891,7 +12893,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -12902,11 +12904,11 @@
     </row>
     <row r="3" spans="1:32" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -12933,19 +12935,19 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="16" t="s">
+        <v>749</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>750</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>751</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>752</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>753</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>754</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -12959,13 +12961,13 @@
         <v>530</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>43</v>
@@ -12982,7 +12984,7 @@
         <v>198</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>199</v>
@@ -13002,16 +13004,16 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>759</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>760</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>43</v>
@@ -13025,16 +13027,16 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>762</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>763</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>43</v>
@@ -13048,16 +13050,16 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>764</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>765</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>43</v>
@@ -13071,16 +13073,16 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>767</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>768</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>43</v>
@@ -13094,16 +13096,16 @@
     </row>
     <row r="13" spans="1:32" s="10" customFormat="1">
       <c r="A13" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="6" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>770</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>1169</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>771</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>43</v>
@@ -13117,16 +13119,16 @@
     </row>
     <row r="14" spans="1:32" s="6" customFormat="1">
       <c r="A14" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="6" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>773</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>1170</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>774</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>43</v>
@@ -13155,16 +13157,16 @@
     </row>
     <row r="15" spans="1:32" s="10" customFormat="1">
       <c r="A15" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="6" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>776</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>777</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>43</v>
@@ -13178,16 +13180,16 @@
     </row>
     <row r="16" spans="1:32" s="10" customFormat="1">
       <c r="A16" s="29" t="s">
+        <v>777</v>
+      </c>
+      <c r="B16" s="30" t="s">
         <v>778</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="C16" s="29" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>779</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>1172</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>780</v>
       </c>
       <c r="E16" s="29" t="s">
         <v>43</v>
@@ -13214,16 +13216,16 @@
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="11.25" customHeight="1">
       <c r="A19" s="88" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B19" s="88" t="s">
         <v>480</v>
       </c>
       <c r="C19" s="88" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D19" s="88" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E19" s="89" t="s">
         <v>201</v>
@@ -13456,7 +13458,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -13465,11 +13467,11 @@
     </row>
     <row r="3" spans="1:30" ht="21">
       <c r="A3" s="64" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -13492,16 +13494,16 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>785</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>786</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>787</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -13520,7 +13522,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -13530,16 +13532,16 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>788</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>789</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -13548,10 +13550,10 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>790</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>791</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
@@ -13567,16 +13569,16 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>792</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>793</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -13586,16 +13588,16 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>794</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>795</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -13605,16 +13607,16 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>794</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>795</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -13624,16 +13626,16 @@
     </row>
     <row r="13" spans="1:30" s="10" customFormat="1">
       <c r="A13" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>796</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>797</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
@@ -13643,16 +13645,16 @@
     </row>
     <row r="14" spans="1:30" s="6" customFormat="1">
       <c r="A14" s="6" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>1006</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>1007</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -13678,16 +13680,16 @@
     </row>
     <row r="15" spans="1:30" s="10" customFormat="1">
       <c r="A15" s="6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>1008</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>1009</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -13697,16 +13699,16 @@
     </row>
     <row r="16" spans="1:30" s="10" customFormat="1">
       <c r="A16" s="29" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>1011</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>1012</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -13727,11 +13729,11 @@
     </row>
     <row r="18" spans="1:9" s="10" customFormat="1" ht="11.25" customHeight="1">
       <c r="A18" s="90" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B18" s="90"/>
       <c r="C18" s="91" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D18" s="92"/>
       <c r="E18" s="6"/>
@@ -13759,16 +13761,16 @@
     </row>
     <row r="21" spans="1:9" s="12" customFormat="1" ht="11.25" customHeight="1">
       <c r="A21" s="88" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C21" s="88" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D21" s="88" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -13966,17 +13968,17 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -13994,14 +13996,14 @@
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="11.25">
       <c r="A6" s="34" t="s">
+        <v>818</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>819</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>820</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="85" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E6" s="85"/>
     </row>
@@ -14010,7 +14012,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="85"/>
@@ -14026,10 +14028,10 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="11.25">
       <c r="A9" s="85" t="s">
+        <v>821</v>
+      </c>
+      <c r="B9" s="85" t="s">
         <v>822</v>
-      </c>
-      <c r="B9" s="85" t="s">
-        <v>823</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="85"/>
@@ -14317,8 +14319,8 @@
   </sheetPr>
   <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -14347,14 +14349,14 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="D2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
       <c r="A3" s="64" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -14398,15 +14400,15 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="98" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B6" s="98"/>
+      <c r="A6" s="100" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B6" s="100"/>
       <c r="D6" s="36" t="s">
+        <v>785</v>
+      </c>
+      <c r="E6" s="36" t="s">
         <v>786</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>787</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>684</v>
@@ -14523,32 +14525,32 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="99" t="s">
-        <v>709</v>
-      </c>
-      <c r="B19" s="99"/>
+      <c r="A19" s="101" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B19" s="101"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
+        <v>709</v>
+      </c>
+      <c r="E19" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="E19" s="68" t="s">
-        <v>711</v>
-      </c>
-      <c r="F19" s="100" t="s">
-        <v>1015</v>
+      <c r="F19" s="98" t="s">
+        <v>1014</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="101"/>
+      <c r="F20" s="99"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="99"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:6">
@@ -14565,15 +14567,15 @@
       <c r="F23" s="48"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="98" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B25" s="98"/>
+      <c r="A25" s="100" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B25" s="100"/>
       <c r="D25" s="36" t="s">
+        <v>785</v>
+      </c>
+      <c r="E25" s="36" t="s">
         <v>786</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>787</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>684</v>
@@ -14584,10 +14586,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -14595,10 +14597,10 @@
         <v>2</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -14609,7 +14611,7 @@
         <v>639</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -14617,10 +14619,10 @@
         <v>4</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -14631,7 +14633,7 @@
         <v>637</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -14642,7 +14644,7 @@
         <v>636</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -14653,7 +14655,7 @@
         <v>635</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -14661,10 +14663,10 @@
         <v>8</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -14672,10 +14674,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -14683,39 +14685,39 @@
         <v>11</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F35" s="23" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="99" t="s">
-        <v>709</v>
-      </c>
-      <c r="B38" s="99"/>
+      <c r="A38" s="101" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B38" s="101"/>
       <c r="C38" s="46"/>
       <c r="D38" s="68" t="s">
+        <v>709</v>
+      </c>
+      <c r="E38" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="E38" s="68" t="s">
-        <v>711</v>
-      </c>
-      <c r="F38" s="100" t="s">
-        <v>1019</v>
+      <c r="F38" s="98" t="s">
+        <v>1018</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="99"/>
-      <c r="B39" s="99"/>
+      <c r="A39" s="101"/>
+      <c r="B39" s="101"/>
       <c r="C39" s="46"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="101"/>
+      <c r="F39" s="99"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="99"/>
-      <c r="B40" s="99"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="101"/>
       <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:6">
@@ -14725,6 +14727,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A38:B40"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A2:B2"/>
@@ -14732,11 +14739,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A38:B40"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14775,17 +14777,17 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -14802,10 +14804,10 @@
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="11.25">
       <c r="A6" s="34" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>831</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="13" customFormat="1" ht="11.25">
@@ -14813,7 +14815,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="13" customFormat="1" ht="11.25">
@@ -14821,7 +14823,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="13" customFormat="1" ht="11.25">
@@ -14834,7 +14836,7 @@
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="11.25">
       <c r="A11" s="68" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B11" s="68" t="s">
         <v>480</v>
@@ -15087,6 +15089,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D42:E42"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
@@ -15094,11 +15101,6 @@
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D42:E42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15148,7 +15150,7 @@
     </row>
     <row r="3" spans="1:31" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -15962,7 +15964,7 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D16" sqref="D16:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -15993,7 +15995,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -16006,7 +16008,7 @@
     </row>
     <row r="3" spans="1:32" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -16035,10 +16037,10 @@
       </c>
       <c r="B7" s="28"/>
       <c r="D7" s="16" t="s">
+        <v>837</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>838</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>839</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="1"/>
@@ -16165,10 +16167,10 @@
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="D16" s="85" t="s">
+        <v>709</v>
+      </c>
+      <c r="E16" s="85" t="s">
         <v>710</v>
-      </c>
-      <c r="E16" s="85" t="s">
-        <v>711</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16" s="26"/>
@@ -16198,7 +16200,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="85" t="s">
-        <v>709</v>
+        <v>1586</v>
       </c>
       <c r="B19" s="85"/>
       <c r="D19" s="1"/>
@@ -16283,17 +16285,17 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -16310,10 +16312,10 @@
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="11.25">
       <c r="A6" s="34" t="s">
+        <v>839</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>840</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="13" customFormat="1" ht="11.25">
@@ -16321,7 +16323,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="13" customFormat="1" ht="11.25">
@@ -16329,7 +16331,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="13" customFormat="1" ht="11.25">
@@ -16337,7 +16339,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="11.25">
@@ -16345,7 +16347,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G10" s="2"/>
       <c r="I10" s="2"/>
@@ -16356,7 +16358,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G11" s="2"/>
       <c r="I11" s="2"/>
@@ -16367,7 +16369,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G12" s="2"/>
       <c r="I12" s="2"/>
@@ -16378,7 +16380,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G13" s="2"/>
       <c r="I13" s="2"/>
@@ -16389,7 +16391,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G14" s="2"/>
       <c r="I14" s="2"/>
@@ -16400,7 +16402,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G15" s="2"/>
       <c r="I15" s="2"/>
@@ -16411,7 +16413,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G16" s="2"/>
       <c r="I16" s="2"/>
@@ -16426,10 +16428,10 @@
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1">
       <c r="A18" s="102" t="s">
+        <v>850</v>
+      </c>
+      <c r="B18" s="102" t="s">
         <v>851</v>
-      </c>
-      <c r="B18" s="102" t="s">
-        <v>852</v>
       </c>
       <c r="C18" s="2"/>
       <c r="J18" s="2"/>
@@ -16708,17 +16710,17 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
       <c r="A3" s="64" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -16764,28 +16766,28 @@
         <v>487</v>
       </c>
       <c r="C6" s="16" t="s">
+        <v>852</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>853</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="E6" s="16" t="s">
         <v>854</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>855</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>856</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>295</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>296</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>495</v>
@@ -16800,7 +16802,7 @@
         <v>300</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>301</v>
@@ -16815,13 +16817,13 @@
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>1</v>
@@ -16839,7 +16841,7 @@
         <v>304</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>305</v>
@@ -16854,13 +16856,13 @@
         <v>4</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>1</v>
@@ -16878,7 +16880,7 @@
         <v>309</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>310</v>
@@ -16893,13 +16895,13 @@
         <v>4</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>1</v>
@@ -16917,13 +16919,13 @@
         <v>426</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>868</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>869</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>870</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>297</v>
@@ -16932,13 +16934,13 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>1</v>
@@ -16956,13 +16958,13 @@
         <v>430</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>873</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>874</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>875</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>297</v>
@@ -16971,13 +16973,13 @@
         <v>11</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>1</v>
@@ -16992,16 +16994,16 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>879</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>880</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>881</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>297</v>
@@ -17010,13 +17012,13 @@
         <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>1</v>
@@ -17034,13 +17036,13 @@
         <v>435</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>885</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>886</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>297</v>
@@ -17049,13 +17051,13 @@
         <v>4</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>1</v>
@@ -17070,16 +17072,16 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>890</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>891</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>892</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>297</v>
@@ -17088,13 +17090,13 @@
         <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>1</v>
@@ -17109,16 +17111,16 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>896</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>897</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>898</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>297</v>
@@ -17127,13 +17129,13 @@
         <v>4</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>1</v>
@@ -17148,16 +17150,16 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>902</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>903</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>904</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>307</v>
@@ -17166,13 +17168,13 @@
         <v>4</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>1</v>
@@ -17217,88 +17219,88 @@
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="A19" s="104" t="s">
+        <v>915</v>
+      </c>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="104" t="s">
         <v>916</v>
       </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="104" t="s">
-        <v>917</v>
-      </c>
-      <c r="J19" s="106"/>
+      <c r="J19" s="107"/>
       <c r="K19" s="104" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:15" ht="11.25" customHeight="1">
-      <c r="A20" s="107"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="107"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="107"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="105"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="110"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="110"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="109"/>
+      <c r="K21" s="106"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:15" ht="11.25" customHeight="1">
       <c r="A22" s="68" t="s">
+        <v>907</v>
+      </c>
+      <c r="B22" s="68" t="s">
+        <v>993</v>
+      </c>
+      <c r="C22" s="68" t="s">
         <v>908</v>
       </c>
-      <c r="B22" s="68" t="s">
-        <v>994</v>
-      </c>
-      <c r="C22" s="68" t="s">
+      <c r="D22" s="68" t="s">
         <v>909</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="E22" s="68" t="s">
         <v>910</v>
       </c>
-      <c r="E22" s="68" t="s">
+      <c r="F22" s="68" t="s">
         <v>911</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="G22" s="68" t="s">
         <v>912</v>
       </c>
-      <c r="G22" s="68" t="s">
+      <c r="H22" s="68" t="s">
         <v>913</v>
       </c>
-      <c r="H22" s="68" t="s">
-        <v>914</v>
-      </c>
       <c r="I22" s="68" t="s">
+        <v>917</v>
+      </c>
+      <c r="J22" s="68" t="s">
         <v>918</v>
       </c>
-      <c r="J22" s="68" t="s">
-        <v>919</v>
-      </c>
       <c r="K22" s="68" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="L22" s="13"/>
       <c r="M22" s="13"/>
@@ -17503,22 +17505,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C22:C25"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="A19:H21"/>
     <mergeCell ref="F22:F25"/>
     <mergeCell ref="G22:G25"/>
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="E22:E25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -17570,17 +17572,17 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:31" s="1" customFormat="1" ht="21">
       <c r="A3" s="64" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -17608,40 +17610,40 @@
         <v>487</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>921</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>922</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="F6" s="16" t="s">
         <v>923</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>924</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="16" t="s">
+        <v>713</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>925</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>714</v>
-      </c>
-      <c r="I6" s="16" t="s">
+      <c r="J6" s="16" t="s">
         <v>926</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="K6" s="16" t="s">
         <v>927</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="L6" s="16" t="s">
         <v>928</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="M6" s="16" t="s">
         <v>929</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="N6" s="16" t="s">
         <v>930</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>931</v>
       </c>
       <c r="O6" s="16" t="s">
         <v>295</v>
@@ -17650,7 +17652,7 @@
         <v>296</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="R6" s="2"/>
       <c r="T6" s="2"/>
@@ -17661,7 +17663,7 @@
         <v>300</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C7" s="29" t="s">
         <v>2</v>
@@ -17670,16 +17672,16 @@
         <v>300</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>933</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>934</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>316</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="I7" s="29" t="s">
         <v>317</v>
@@ -17688,7 +17690,7 @@
         <v>348</v>
       </c>
       <c r="K7" s="29" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L7" s="29" t="s">
         <v>43</v>
@@ -17703,7 +17705,7 @@
         <v>328</v>
       </c>
       <c r="P7" s="29" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="Q7" s="10" t="s">
         <v>298</v>
@@ -17717,7 +17719,7 @@
         <v>304</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C8" s="29" t="s">
         <v>2</v>
@@ -17741,7 +17743,7 @@
         <v>322</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="K8" s="29" t="s">
         <v>308</v>
@@ -17762,7 +17764,7 @@
         <v>330</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="R8" s="2"/>
       <c r="T8" s="2"/>
@@ -17773,7 +17775,7 @@
         <v>309</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>2</v>
@@ -17829,7 +17831,7 @@
         <v>426</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>2</v>
@@ -17838,25 +17840,25 @@
         <v>426</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>939</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>940</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>941</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="29" t="s">
         <v>942</v>
-      </c>
-      <c r="I10" s="29" t="s">
-        <v>943</v>
       </c>
       <c r="J10" s="29" t="s">
         <v>348</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L10" s="29" t="s">
         <v>43</v>
@@ -17868,10 +17870,10 @@
         <v>303</v>
       </c>
       <c r="O10" s="29" t="s">
+        <v>944</v>
+      </c>
+      <c r="P10" s="29" t="s">
         <v>945</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>946</v>
       </c>
       <c r="Q10" s="10" t="s">
         <v>298</v>
@@ -17885,7 +17887,7 @@
         <v>426</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>2</v>
@@ -17894,43 +17896,43 @@
         <v>430</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>948</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>949</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>369</v>
       </c>
       <c r="H11" s="6" t="s">
+        <v>949</v>
+      </c>
+      <c r="I11" s="29" t="s">
         <v>950</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="J11" s="29" t="s">
+        <v>1162</v>
+      </c>
+      <c r="K11" s="29" t="s">
         <v>951</v>
       </c>
-      <c r="J11" s="29" t="s">
-        <v>1163</v>
-      </c>
-      <c r="K11" s="29" t="s">
+      <c r="L11" s="29" t="s">
         <v>952</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>953</v>
       </c>
       <c r="M11" s="29" t="s">
         <v>43</v>
       </c>
       <c r="N11" s="29" t="s">
+        <v>953</v>
+      </c>
+      <c r="O11" s="29" t="s">
         <v>954</v>
       </c>
-      <c r="O11" s="29" t="s">
+      <c r="P11" s="29" t="s">
         <v>955</v>
       </c>
-      <c r="P11" s="29" t="s">
+      <c r="Q11" s="10" t="s">
         <v>956</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>957</v>
       </c>
       <c r="R11" s="2"/>
       <c r="T11" s="2"/>
@@ -17938,10 +17940,10 @@
     </row>
     <row r="12" spans="1:31" s="1" customFormat="1">
       <c r="A12" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>878</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>879</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>2</v>
@@ -17950,25 +17952,25 @@
         <v>435</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>958</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="G12" s="6" t="s">
         <v>959</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>960</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="29" t="s">
         <v>961</v>
-      </c>
-      <c r="I12" s="29" t="s">
-        <v>962</v>
       </c>
       <c r="J12" s="29" t="s">
         <v>348</v>
       </c>
       <c r="K12" s="29" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L12" s="29" t="s">
         <v>43</v>
@@ -17977,13 +17979,13 @@
         <v>43</v>
       </c>
       <c r="N12" s="29" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O12" s="29" t="s">
+        <v>963</v>
+      </c>
+      <c r="P12" s="29" t="s">
         <v>964</v>
-      </c>
-      <c r="P12" s="29" t="s">
-        <v>965</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>298</v>
@@ -17997,34 +17999,34 @@
         <v>435</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>967</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>968</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>321</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J13" s="29" t="s">
         <v>43</v>
       </c>
       <c r="K13" s="29" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="L13" s="29" t="s">
         <v>43</v>
@@ -18033,13 +18035,13 @@
         <v>43</v>
       </c>
       <c r="N13" s="29" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O13" s="29" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="P13" s="29" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>298</v>
@@ -18050,37 +18052,37 @@
     </row>
     <row r="14" spans="1:31" s="1" customFormat="1">
       <c r="A14" s="6" t="s">
+        <v>888</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>889</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>890</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>972</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="G14" s="6" t="s">
         <v>973</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>974</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>321</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J14" s="29" t="s">
         <v>43</v>
       </c>
       <c r="K14" s="29" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L14" s="29" t="s">
         <v>43</v>
@@ -18089,13 +18091,13 @@
         <v>43</v>
       </c>
       <c r="N14" s="29" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O14" s="29" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="P14" s="29" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>298</v>
@@ -18106,37 +18108,37 @@
     </row>
     <row r="15" spans="1:31" s="1" customFormat="1">
       <c r="A15" s="6" t="s">
+        <v>894</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>895</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>896</v>
       </c>
       <c r="C15" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>978</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="G15" s="6" t="s">
         <v>979</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>980</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="29" t="s">
         <v>981</v>
-      </c>
-      <c r="I15" s="29" t="s">
-        <v>982</v>
       </c>
       <c r="J15" s="29" t="s">
         <v>43</v>
       </c>
       <c r="K15" s="29" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="L15" s="29" t="s">
         <v>43</v>
@@ -18145,13 +18147,13 @@
         <v>43</v>
       </c>
       <c r="N15" s="29" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O15" s="29" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="P15" s="29" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="Q15" s="10" t="s">
         <v>298</v>
@@ -18162,37 +18164,37 @@
     </row>
     <row r="16" spans="1:31" s="1" customFormat="1">
       <c r="A16" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>901</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>902</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>985</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>986</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="G16" s="6" t="s">
         <v>987</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
         <v>988</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="I16" s="29" t="s">
         <v>989</v>
-      </c>
-      <c r="I16" s="29" t="s">
-        <v>990</v>
       </c>
       <c r="J16" s="29" t="s">
         <v>43</v>
       </c>
       <c r="K16" s="29" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="L16" s="29" t="s">
         <v>43</v>
@@ -18201,13 +18203,13 @@
         <v>43</v>
       </c>
       <c r="N16" s="29" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="O16" s="29" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="P16" s="29" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>298</v>
@@ -18239,15 +18241,15 @@
     </row>
     <row r="19" spans="1:37" s="1" customFormat="1" ht="11.25" customHeight="1">
       <c r="A19" s="90" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B19" s="90"/>
       <c r="C19" s="90"/>
       <c r="D19" s="90" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E19" s="90" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F19" s="90"/>
       <c r="G19" s="90"/>
@@ -18307,55 +18309,55 @@
     </row>
     <row r="22" spans="1:37" ht="11.25" customHeight="1">
       <c r="A22" s="68" t="s">
+        <v>992</v>
+      </c>
+      <c r="B22" s="68" t="s">
         <v>993</v>
       </c>
-      <c r="B22" s="68" t="s">
-        <v>994</v>
-      </c>
       <c r="C22" s="68" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D22" s="68" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="E22" s="68" t="s">
+        <v>999</v>
+      </c>
+      <c r="F22" s="68" t="s">
         <v>1000</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="G22" s="68" t="s">
         <v>1001</v>
       </c>
-      <c r="G22" s="68" t="s">
+      <c r="H22" s="68" t="s">
         <v>1002</v>
       </c>
-      <c r="H22" s="68" t="s">
-        <v>1003</v>
-      </c>
       <c r="I22" s="68" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J22" s="68" t="s">
+        <v>1163</v>
+      </c>
+      <c r="K22" s="68" t="s">
         <v>1020</v>
       </c>
-      <c r="J22" s="68" t="s">
-        <v>1164</v>
-      </c>
-      <c r="K22" s="68" t="s">
+      <c r="L22" s="68" t="s">
         <v>1021</v>
       </c>
-      <c r="L22" s="68" t="s">
+      <c r="M22" s="68" t="s">
         <v>1022</v>
-      </c>
-      <c r="M22" s="68" t="s">
-        <v>1023</v>
       </c>
       <c r="N22" s="68" t="s">
         <v>312</v>
       </c>
       <c r="O22" s="68" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P22" s="68" t="s">
         <v>1024</v>
       </c>
-      <c r="P22" s="68" t="s">
+      <c r="Q22" s="68" t="s">
         <v>1025</v>
-      </c>
-      <c r="Q22" s="68" t="s">
-        <v>1026</v>
       </c>
       <c r="R22" s="1"/>
     </row>
@@ -18440,7 +18442,7 @@
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
       <c r="C27" s="42" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="D27" s="44"/>
       <c r="E27" s="44"/>
@@ -18578,12 +18580,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="P22:P25"/>
     <mergeCell ref="Q22:Q25"/>
     <mergeCell ref="A19:C21"/>
@@ -18600,6 +18596,12 @@
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="D22:D25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18614,7 +18616,7 @@
   <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D14" sqref="D14:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -18651,7 +18653,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -18659,7 +18661,7 @@
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -18775,10 +18777,10 @@
     </row>
     <row r="14" spans="1:33" ht="11.25" customHeight="1">
       <c r="D14" s="68" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E14" s="68" t="s">
         <v>1029</v>
-      </c>
-      <c r="E14" s="68" t="s">
-        <v>1030</v>
       </c>
       <c r="F14" s="13"/>
     </row>
@@ -18796,7 +18798,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="85" t="s">
-        <v>709</v>
+        <v>1586</v>
       </c>
       <c r="B17" s="85"/>
       <c r="D17" s="13"/>
@@ -18889,7 +18891,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -18897,11 +18899,11 @@
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -18924,10 +18926,10 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="16" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
@@ -18969,10 +18971,10 @@
     </row>
     <row r="12" spans="1:32" ht="11.25" customHeight="1">
       <c r="A12" s="68" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B12" s="68" t="s">
         <v>1034</v>
-      </c>
-      <c r="B12" s="68" t="s">
-        <v>1035</v>
       </c>
       <c r="E12" s="13"/>
     </row>
@@ -19036,7 +19038,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -19047,7 +19049,7 @@
     </row>
     <row r="3" spans="1:33" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -19079,15 +19081,15 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="16" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>1036</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="6" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>43</v>
@@ -19114,7 +19116,7 @@
         <v>212</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -19122,7 +19124,7 @@
         <v>213</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -19167,7 +19169,7 @@
     </row>
     <row r="19" spans="1:2" ht="11.25" customHeight="1">
       <c r="A19" s="68" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B19" s="68" t="s">
         <v>480</v>
@@ -19233,7 +19235,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -19244,7 +19246,7 @@
     </row>
     <row r="3" spans="1:33" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3"/>
@@ -19274,13 +19276,13 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="16" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>1044</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>1045</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -19288,7 +19290,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>161</v>
@@ -19299,10 +19301,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>1048</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -19310,7 +19312,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>102</v>
@@ -19318,7 +19320,7 @@
     </row>
     <row r="12" spans="1:33" s="2" customFormat="1" ht="11.25" customHeight="1">
       <c r="A12" s="67" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B12" s="113"/>
       <c r="C12" s="113"/>
@@ -19398,7 +19400,7 @@
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="114" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B16" s="115"/>
       <c r="C16" s="115"/>
@@ -19443,7 +19445,7 @@
   <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D18" sqref="D18:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -19490,7 +19492,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -19520,7 +19522,7 @@
     </row>
     <row r="3" spans="1:32" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -19573,10 +19575,10 @@
       </c>
       <c r="B6" s="28"/>
       <c r="D6" s="16" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -19591,7 +19593,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -19606,7 +19608,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -19622,7 +19624,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -19638,7 +19640,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -19654,7 +19656,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -19670,7 +19672,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
@@ -19686,7 +19688,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="49" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -19702,7 +19704,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="49" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
@@ -19718,7 +19720,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -19734,7 +19736,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="49" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -19755,14 +19757,14 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="85" t="s">
-        <v>709</v>
+        <v>1586</v>
       </c>
       <c r="B18" s="85"/>
       <c r="D18" s="68" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E18" s="68" t="s">
         <v>1066</v>
-      </c>
-      <c r="E18" s="68" t="s">
-        <v>1067</v>
       </c>
       <c r="AE18" s="1"/>
     </row>
@@ -19841,7 +19843,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -19852,11 +19854,11 @@
     </row>
     <row r="3" spans="1:33" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -19884,10 +19886,10 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="16" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>1069</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -19908,10 +19910,10 @@
     </row>
     <row r="11" spans="1:33" s="2" customFormat="1" ht="11.25" customHeight="1">
       <c r="A11" s="68" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B11" s="68" t="s">
         <v>1072</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>1073</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -20143,7 +20145,7 @@
     </row>
     <row r="3" spans="1:33" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -20437,18 +20439,18 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:28" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -20466,10 +20468,10 @@
     </row>
     <row r="7" spans="1:28" ht="11.25" customHeight="1">
       <c r="A7" s="16" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>1074</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>1075</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -20513,7 +20515,7 @@
         <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -20546,7 +20548,7 @@
         <v>504</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -20557,7 +20559,7 @@
         <v>502</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -20568,7 +20570,7 @@
         <v>500</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -20576,10 +20578,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>1080</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>1081</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -20592,10 +20594,10 @@
     </row>
     <row r="19" spans="1:5" ht="11.25" customHeight="1">
       <c r="A19" s="68" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B19" s="68" t="s">
         <v>1084</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>1085</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -20630,7 +20632,7 @@
   <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D13" sqref="D13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -20677,7 +20679,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -20707,7 +20709,7 @@
     </row>
     <row r="3" spans="1:32" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -20760,10 +20762,10 @@
       </c>
       <c r="B6" s="28"/>
       <c r="D6" s="16" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>1087</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>1088</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -20793,7 +20795,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="49" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
@@ -20809,7 +20811,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -20825,7 +20827,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -20841,7 +20843,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="49" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -20864,10 +20866,10 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="D13" s="68" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E13" s="68" t="s">
         <v>1066</v>
-      </c>
-      <c r="E13" s="68" t="s">
-        <v>1067</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -20922,7 +20924,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="85" t="s">
-        <v>709</v>
+        <v>1586</v>
       </c>
       <c r="B18" s="85"/>
       <c r="F18" s="37"/>
@@ -20967,7 +20969,7 @@
   <dimension ref="A1:AI22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D13" sqref="D13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -20998,7 +21000,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -21008,7 +21010,7 @@
     </row>
     <row r="3" spans="1:35" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -21027,10 +21029,10 @@
       </c>
       <c r="B6" s="28"/>
       <c r="D6" s="16" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>1094</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>1095</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -21098,7 +21100,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -21132,7 +21134,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -21166,7 +21168,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -21229,10 +21231,10 @@
     </row>
     <row r="13" spans="1:35">
       <c r="D13" s="68" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E13" s="68" t="s">
         <v>1066</v>
-      </c>
-      <c r="E13" s="68" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -21245,7 +21247,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="85" t="s">
-        <v>709</v>
+        <v>1586</v>
       </c>
       <c r="B18" s="85"/>
     </row>
@@ -21318,7 +21320,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -21328,11 +21330,11 @@
     </row>
     <row r="3" spans="1:32" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -21343,31 +21345,31 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="16" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>1101</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="2" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>588</v>
@@ -21375,7 +21377,7 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>36</v>
@@ -21383,34 +21385,34 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>1107</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>1109</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>1111</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1112</v>
       </c>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="68" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B15" s="68" t="s">
         <v>1113</v>
-      </c>
-      <c r="B15" s="68" t="s">
-        <v>1114</v>
       </c>
     </row>
     <row r="16" spans="1:32">
@@ -21440,8 +21442,8 @@
   </sheetPr>
   <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -21470,14 +21472,14 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="D2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -21521,15 +21523,15 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="98" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B6" s="98"/>
+      <c r="A6" s="100" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B6" s="100"/>
       <c r="D6" s="36" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E6" s="36" t="s">
         <v>1116</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>1117</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>684</v>
@@ -21543,7 +21545,7 @@
         <v>153</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -21554,7 +21556,7 @@
         <v>154</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -21565,7 +21567,7 @@
         <v>155</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -21576,7 +21578,7 @@
         <v>156</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -21587,7 +21589,7 @@
         <v>157</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -21598,7 +21600,7 @@
         <v>158</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -21609,7 +21611,7 @@
         <v>160</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -21618,35 +21620,35 @@
     </row>
     <row r="15" spans="1:32">
       <c r="D15" s="68" t="s">
+        <v>709</v>
+      </c>
+      <c r="E15" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="E15" s="68" t="s">
-        <v>711</v>
-      </c>
-      <c r="F15" s="100" t="s">
-        <v>1122</v>
+      <c r="F15" s="98" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="16" spans="1:32">
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
-      <c r="F16" s="101"/>
+      <c r="F16" s="99"/>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="99" t="s">
-        <v>709</v>
-      </c>
-      <c r="B19" s="99"/>
+      <c r="A19" s="101" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B19" s="101"/>
       <c r="C19" s="46"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="46"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="99"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:6">
@@ -21663,15 +21665,15 @@
       <c r="F23" s="48"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="98" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B25" s="98"/>
+      <c r="A25" s="100" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B25" s="100"/>
       <c r="D25" s="36" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E25" s="36" t="s">
         <v>1116</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>1117</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>684</v>
@@ -21685,7 +21687,7 @@
         <v>161</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -21696,7 +21698,7 @@
         <v>205</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -21707,7 +21709,7 @@
         <v>98</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -21718,7 +21720,7 @@
         <v>206</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -21729,7 +21731,7 @@
         <v>160</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -21740,7 +21742,7 @@
         <v>28</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -21751,7 +21753,7 @@
         <v>207</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -21762,40 +21764,40 @@
         <v>208</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="D36" s="68" t="s">
+        <v>709</v>
+      </c>
+      <c r="E36" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="E36" s="68" t="s">
-        <v>711</v>
-      </c>
-      <c r="F36" s="100" t="s">
-        <v>1123</v>
+      <c r="F36" s="98" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="D37" s="68"/>
       <c r="E37" s="68"/>
-      <c r="F37" s="101"/>
+      <c r="F37" s="99"/>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="99" t="s">
-        <v>709</v>
-      </c>
-      <c r="B38" s="99"/>
+      <c r="A38" s="101" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B38" s="101"/>
       <c r="C38" s="46"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="99"/>
-      <c r="B39" s="99"/>
+      <c r="A39" s="101"/>
+      <c r="B39" s="101"/>
       <c r="C39" s="46"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="99"/>
-      <c r="B40" s="99"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="101"/>
       <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:6">
@@ -21805,11 +21807,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A19:B21"/>
-    <mergeCell ref="D15:D16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A38:B40"/>
@@ -21817,6 +21814,11 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="D15:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21831,8 +21833,8 @@
   </sheetPr>
   <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -21861,14 +21863,14 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="D2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -21912,15 +21914,15 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="98" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B6" s="98"/>
+      <c r="A6" s="100" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B6" s="100"/>
       <c r="D6" s="36" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E6" s="36" t="s">
         <v>1129</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>1130</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>684</v>
@@ -21953,7 +21955,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>690</v>
@@ -21964,7 +21966,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>690</v>
@@ -21997,7 +21999,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F13" s="23" t="s">
         <v>690</v>
@@ -22008,39 +22010,39 @@
         <v>8</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="99" t="s">
-        <v>709</v>
-      </c>
-      <c r="B19" s="99"/>
+      <c r="A19" s="101" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B19" s="101"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
+        <v>709</v>
+      </c>
+      <c r="E19" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="E19" s="68" t="s">
-        <v>711</v>
-      </c>
-      <c r="F19" s="100" t="s">
-        <v>1126</v>
+      <c r="F19" s="98" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="101"/>
+      <c r="F20" s="99"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="99"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:6">
@@ -22057,15 +22059,15 @@
       <c r="F23" s="48"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="98" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B25" s="98"/>
+      <c r="A25" s="100" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B25" s="100"/>
       <c r="D25" s="36" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E25" s="36" t="s">
         <v>1129</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>1130</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>684</v>
@@ -22079,7 +22081,7 @@
         <v>161</v>
       </c>
       <c r="F26" s="23" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -22090,7 +22092,7 @@
         <v>175</v>
       </c>
       <c r="F27" s="23" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -22101,7 +22103,7 @@
         <v>155</v>
       </c>
       <c r="F28" s="23" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -22112,7 +22114,7 @@
         <v>176</v>
       </c>
       <c r="F29" s="23" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -22123,7 +22125,7 @@
         <v>177</v>
       </c>
       <c r="F30" s="23" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -22134,7 +22136,7 @@
         <v>164</v>
       </c>
       <c r="F31" s="23" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -22145,7 +22147,7 @@
         <v>28</v>
       </c>
       <c r="F32" s="23" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -22156,7 +22158,7 @@
         <v>178</v>
       </c>
       <c r="F33" s="23" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -22167,36 +22169,36 @@
         <v>179</v>
       </c>
       <c r="F34" s="23" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="99" t="s">
-        <v>709</v>
-      </c>
-      <c r="B38" s="99"/>
+      <c r="A38" s="101" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B38" s="101"/>
       <c r="C38" s="46"/>
       <c r="D38" s="68" t="s">
+        <v>709</v>
+      </c>
+      <c r="E38" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="E38" s="68" t="s">
-        <v>711</v>
-      </c>
-      <c r="F38" s="100" t="s">
-        <v>1128</v>
+      <c r="F38" s="98" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="99"/>
-      <c r="B39" s="99"/>
+      <c r="A39" s="101"/>
+      <c r="B39" s="101"/>
       <c r="C39" s="46"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="101"/>
+      <c r="F39" s="99"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="99"/>
-      <c r="B40" s="99"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="101"/>
       <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:6">
@@ -22206,18 +22208,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A38:B40"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="A19:B21"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A38:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22232,8 +22234,8 @@
   </sheetPr>
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -22265,7 +22267,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -22277,7 +22279,7 @@
     </row>
     <row r="3" spans="1:33" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -22293,16 +22295,16 @@
       <c r="L3" s="13"/>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" s="98" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B6" s="98"/>
+      <c r="A6" s="100" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B6" s="100"/>
       <c r="C6" s="14"/>
       <c r="D6" s="36" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E6" s="36" t="s">
         <v>1137</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>1138</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>684</v>
@@ -22472,34 +22474,34 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="99" t="s">
-        <v>709</v>
-      </c>
-      <c r="B19" s="99"/>
+      <c r="A19" s="101" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B19" s="101"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
+        <v>709</v>
+      </c>
+      <c r="E19" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="E19" s="68" t="s">
-        <v>711</v>
-      </c>
-      <c r="F19" s="100" t="s">
-        <v>1139</v>
+      <c r="F19" s="98" t="s">
+        <v>1138</v>
       </c>
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="101"/>
+      <c r="F20" s="99"/>
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="99"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="46"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -22534,16 +22536,16 @@
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="98" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B25" s="98"/>
+      <c r="A25" s="100" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B25" s="100"/>
       <c r="C25" s="14"/>
       <c r="D25" s="36" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E25" s="36" t="s">
         <v>1137</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>1138</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>684</v>
@@ -22719,34 +22721,34 @@
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="99" t="s">
-        <v>709</v>
-      </c>
-      <c r="B38" s="99"/>
+      <c r="A38" s="101" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B38" s="101"/>
       <c r="C38" s="46"/>
       <c r="D38" s="68" t="s">
+        <v>709</v>
+      </c>
+      <c r="E38" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="E38" s="68" t="s">
-        <v>711</v>
-      </c>
-      <c r="F38" s="100" t="s">
-        <v>1142</v>
+      <c r="F38" s="98" t="s">
+        <v>1141</v>
       </c>
       <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="99"/>
-      <c r="B39" s="99"/>
+      <c r="A39" s="101"/>
+      <c r="B39" s="101"/>
       <c r="C39" s="46"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="101"/>
+      <c r="F39" s="99"/>
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="99"/>
-      <c r="B40" s="99"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="101"/>
       <c r="C40" s="46"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -22790,9 +22792,7 @@
   </sheetPr>
   <dimension ref="A2:L46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -22817,7 +22817,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -22828,7 +22828,7 @@
     </row>
     <row r="3" spans="1:12" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -22850,16 +22850,16 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="98" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B6" s="98"/>
+      <c r="A6" s="100" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B6" s="100"/>
       <c r="C6" s="14"/>
       <c r="D6" s="36" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E6" s="36" t="s">
         <v>1145</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>1146</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>684</v>
@@ -23012,36 +23012,36 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="99" t="s">
-        <v>709</v>
-      </c>
-      <c r="B19" s="99"/>
+      <c r="A19" s="101" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B19" s="101"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
+        <v>709</v>
+      </c>
+      <c r="E19" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="E19" s="68" t="s">
-        <v>711</v>
-      </c>
-      <c r="F19" s="100" t="s">
-        <v>1126</v>
+      <c r="F19" s="98" t="s">
+        <v>1125</v>
       </c>
       <c r="G19" s="13"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="101"/>
+      <c r="F20" s="99"/>
       <c r="G20" s="13"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="99"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="46"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -23080,16 +23080,16 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="98" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B25" s="98"/>
+      <c r="A25" s="100" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B25" s="100"/>
       <c r="C25" s="14"/>
       <c r="D25" s="36" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E25" s="36" t="s">
         <v>1145</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>1146</v>
       </c>
       <c r="F25" s="19" t="s">
         <v>684</v>
@@ -23137,7 +23137,7 @@
         <v>3</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F28" s="23" t="s">
         <v>687</v>
@@ -23169,7 +23169,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F30" s="23" t="s">
         <v>687</v>
@@ -23217,7 +23217,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F33" s="23" t="s">
         <v>687</v>
@@ -23233,7 +23233,7 @@
         <v>9</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F34" s="23" t="s">
         <v>687</v>
@@ -23272,36 +23272,36 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="99" t="s">
-        <v>709</v>
-      </c>
-      <c r="B38" s="99"/>
+      <c r="A38" s="101" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B38" s="101"/>
       <c r="C38" s="46"/>
       <c r="D38" s="68" t="s">
+        <v>709</v>
+      </c>
+      <c r="E38" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="E38" s="68" t="s">
-        <v>711</v>
-      </c>
-      <c r="F38" s="100" t="s">
-        <v>1143</v>
+      <c r="F38" s="98" t="s">
+        <v>1142</v>
       </c>
       <c r="G38" s="13"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="99"/>
-      <c r="B39" s="99"/>
+      <c r="A39" s="101"/>
+      <c r="B39" s="101"/>
       <c r="C39" s="46"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="101"/>
+      <c r="F39" s="99"/>
       <c r="G39" s="13"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="99"/>
-      <c r="B40" s="99"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="101"/>
       <c r="C40" s="46"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -23336,11 +23336,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A38:B40"/>
-    <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="A19:B21"/>
@@ -23348,6 +23343,11 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A38:B40"/>
+    <mergeCell ref="D38:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -23363,7 +23363,7 @@
   <dimension ref="A2:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E19" sqref="E19:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -23389,7 +23389,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -23400,7 +23400,7 @@
     </row>
     <row r="3" spans="1:12" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -23422,19 +23422,19 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="98" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B6" s="98"/>
+      <c r="A6" s="100" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B6" s="100"/>
       <c r="C6" s="14"/>
       <c r="D6" s="19" t="s">
         <v>484</v>
       </c>
       <c r="E6" s="19" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>1152</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>1153</v>
       </c>
       <c r="G6" s="13"/>
       <c r="L6" s="2"/>
@@ -23466,7 +23466,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G8" s="13"/>
       <c r="L8" s="2"/>
@@ -23482,7 +23482,7 @@
         <v>2</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G9" s="13"/>
       <c r="L9" s="2"/>
@@ -23498,7 +23498,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G10" s="13"/>
       <c r="L10" s="2"/>
@@ -23584,26 +23584,26 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A19" s="99" t="s">
-        <v>709</v>
-      </c>
-      <c r="B19" s="99"/>
+      <c r="A19" s="101" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B19" s="101"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E19" s="68" t="s">
         <v>1159</v>
       </c>
-      <c r="E19" s="68" t="s">
+      <c r="F19" s="68" t="s">
         <v>1160</v>
-      </c>
-      <c r="F19" s="68" t="s">
-        <v>1161</v>
       </c>
       <c r="G19" s="13"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -23612,8 +23612,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="99"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="46"/>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -23655,7 +23655,7 @@
   <dimension ref="A2:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D19" sqref="D19:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -23681,7 +23681,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -23692,7 +23692,7 @@
     </row>
     <row r="3" spans="1:12" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -23714,16 +23714,16 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="98" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B6" s="98"/>
+      <c r="A6" s="100" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B6" s="100"/>
       <c r="C6" s="14"/>
       <c r="D6" s="19" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>1173</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>1174</v>
       </c>
       <c r="F6" s="13"/>
     </row>
@@ -23735,7 +23735,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="F7" s="13"/>
     </row>
@@ -23747,7 +23747,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="F8" s="13"/>
     </row>
@@ -23759,7 +23759,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="F9" s="13"/>
     </row>
@@ -23771,7 +23771,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="F10" s="13"/>
     </row>
@@ -23783,7 +23783,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="F11" s="13"/>
     </row>
@@ -23795,7 +23795,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="F12" s="13"/>
     </row>
@@ -23807,7 +23807,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F13" s="13"/>
     </row>
@@ -23819,7 +23819,7 @@
         <v>20</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F14" s="13"/>
     </row>
@@ -23862,23 +23862,23 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A19" s="99" t="s">
-        <v>709</v>
-      </c>
-      <c r="B19" s="99"/>
+      <c r="A19" s="101" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B19" s="101"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E19" s="68" t="s">
         <v>1184</v>
-      </c>
-      <c r="E19" s="68" t="s">
-        <v>1185</v>
       </c>
       <c r="G19" s="13"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -23886,8 +23886,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="99"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="46"/>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -23961,7 +23961,7 @@
     </row>
     <row r="3" spans="1:33" ht="21">
       <c r="A3" s="64" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -24229,12 +24229,12 @@
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1">
       <c r="A19" s="66" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
       <c r="D19" s="65" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E19" s="65"/>
       <c r="F19" s="65"/>
@@ -24346,7 +24346,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="1"/>
@@ -24357,11 +24357,11 @@
     </row>
     <row r="3" spans="1:30" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="13"/>
@@ -24375,10 +24375,10 @@
     </row>
     <row r="6" spans="1:30" ht="11.25" customHeight="1">
       <c r="A6" s="16" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>1196</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1197</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -24391,7 +24391,7 @@
         <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="C7" s="24"/>
       <c r="F7" s="1"/>
@@ -24405,7 +24405,7 @@
         <v>31</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C8" s="24"/>
       <c r="F8" s="1"/>
@@ -24419,7 +24419,7 @@
         <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="C9" s="24"/>
       <c r="F9" s="1"/>
@@ -24433,7 +24433,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="C10" s="24"/>
       <c r="F10" s="1"/>
@@ -24461,7 +24461,7 @@
         <v>199</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="C12" s="24"/>
       <c r="F12" s="1"/>
@@ -24472,10 +24472,10 @@
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="C13" s="24"/>
       <c r="F13" s="1"/>
@@ -24489,7 +24489,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="C14" s="24"/>
       <c r="F14" s="1"/>
@@ -24500,10 +24500,10 @@
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>1200</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1201</v>
       </c>
       <c r="C15" s="24"/>
       <c r="F15" s="1"/>
@@ -24514,10 +24514,10 @@
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="C16" s="24"/>
       <c r="F16" s="1"/>
@@ -24528,10 +24528,10 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="85" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B18" s="85" t="s">
         <v>1203</v>
-      </c>
-      <c r="B18" s="85" t="s">
-        <v>1204</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -24617,7 +24617,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="1"/>
@@ -24630,11 +24630,11 @@
     </row>
     <row r="3" spans="1:32" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="13"/>
@@ -24648,10 +24648,10 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="16" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>1208</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>1209</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -24668,10 +24668,10 @@
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="6" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -24688,10 +24688,10 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>1210</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>1211</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -24708,18 +24708,18 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="6" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>1212</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="10" spans="1:32" s="2" customFormat="1">
       <c r="A10" s="6" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>1214</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>1215</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -24744,58 +24744,58 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="6" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>1216</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="6" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>1219</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>1220</v>
       </c>
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="6" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>1221</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="6" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>1223</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>1224</v>
       </c>
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>1225</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="22.5">
       <c r="A19" s="38" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B19" s="38" t="s">
         <v>1228</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>1229</v>
       </c>
     </row>
   </sheetData>
@@ -24870,7 +24870,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
@@ -24883,11 +24883,11 @@
     </row>
     <row r="3" spans="1:31" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
@@ -24926,16 +24926,16 @@
     </row>
     <row r="6" spans="1:31" ht="11.25" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B6" s="25" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>1244</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>1243</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>1245</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -24956,7 +24956,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -24977,7 +24977,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -24998,7 +24998,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -25010,7 +25010,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="29" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>29</v>
@@ -25019,7 +25019,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -25031,16 +25031,16 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="29" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B11" s="29" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>1247</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>1248</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -25052,7 +25052,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="29" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>1</v>
@@ -25061,7 +25061,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -25082,7 +25082,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -25094,7 +25094,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="29" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B14" s="29" t="s">
         <v>1</v>
@@ -25103,7 +25103,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -25115,7 +25115,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="29" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B15" s="29" t="s">
         <v>1</v>
@@ -25124,7 +25124,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -25136,7 +25136,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="29" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B16" s="29" t="s">
         <v>1</v>
@@ -25145,7 +25145,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -25157,16 +25157,16 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="68" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B18" s="68" t="s">
         <v>1250</v>
       </c>
-      <c r="B18" s="68" t="s">
+      <c r="C18" s="68" t="s">
         <v>1251</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="D18" s="68" t="s">
         <v>1252</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -25203,7 +25203,7 @@
   <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D19" sqref="D19:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -25228,7 +25228,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -25238,7 +25238,7 @@
     </row>
     <row r="3" spans="1:11" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -25259,16 +25259,16 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="98" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B6" s="98"/>
+      <c r="A6" s="100" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B6" s="100"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>1262</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>1263</v>
       </c>
       <c r="F6" s="13"/>
       <c r="K6" s="2"/>
@@ -25281,7 +25281,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="F7" s="13"/>
       <c r="K7" s="2"/>
@@ -25294,7 +25294,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="F8" s="13"/>
       <c r="K8" s="2"/>
@@ -25307,7 +25307,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="F9" s="13"/>
       <c r="K9" s="2"/>
@@ -25320,7 +25320,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="F10" s="13"/>
       <c r="K10" s="2"/>
@@ -25333,7 +25333,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F11" s="13"/>
       <c r="K11" s="2"/>
@@ -25346,7 +25346,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="F12" s="13"/>
       <c r="K12" s="2"/>
@@ -25359,7 +25359,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="F13" s="13"/>
       <c r="K13" s="2"/>
@@ -25372,7 +25372,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="F14" s="13"/>
       <c r="K14" s="2"/>
@@ -25385,7 +25385,7 @@
         <v>19</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="F15" s="13"/>
       <c r="K15" s="2"/>
@@ -25418,23 +25418,23 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="99" t="s">
-        <v>709</v>
-      </c>
-      <c r="B19" s="99"/>
+      <c r="A19" s="101" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B19" s="101"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F19" s="13"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -25442,8 +25442,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="99"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -25535,7 +25535,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="D2" s="2"/>
       <c r="G2" s="1"/>
@@ -25548,11 +25548,11 @@
     </row>
     <row r="3" spans="1:33" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="D3" s="2"/>
       <c r="G3" s="1"/>
@@ -25601,10 +25601,10 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="25" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -25623,10 +25623,10 @@
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="29" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>1269</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>1270</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -25645,10 +25645,10 @@
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="29" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -25667,10 +25667,10 @@
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="29" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>1272</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>1273</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -25679,10 +25679,10 @@
     </row>
     <row r="10" spans="1:33" s="2" customFormat="1">
       <c r="A10" s="29" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -25711,34 +25711,34 @@
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="6" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="12" spans="1:33">
       <c r="A12" s="39" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B12" s="39" t="s">
         <v>1276</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="13" spans="1:33">
       <c r="A13" s="6" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="14" spans="1:33" s="2" customFormat="1">
       <c r="A14" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>1277</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>1278</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -25767,26 +25767,26 @@
     </row>
     <row r="15" spans="1:33">
       <c r="A15" s="6" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>1279</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>1280</v>
       </c>
     </row>
     <row r="16" spans="1:33">
       <c r="A16" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>1281</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>1282</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="68" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B19" s="68" t="s">
         <v>1284</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -25848,7 +25848,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -25860,11 +25860,11 @@
     </row>
     <row r="3" spans="1:32" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -25876,16 +25876,16 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="16" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>1287</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>1288</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>1289</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>1290</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -26030,16 +26030,16 @@
     </row>
     <row r="18" spans="1:4" ht="11.25" customHeight="1">
       <c r="A18" s="68" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="B18" s="68" t="s">
         <v>480</v>
       </c>
       <c r="C18" s="68" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D18" s="68" t="s">
         <v>1293</v>
-      </c>
-      <c r="D18" s="68" t="s">
-        <v>1294</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -26121,7 +26121,7 @@
   <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D19" sqref="D19:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -26146,7 +26146,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -26156,7 +26156,7 @@
     </row>
     <row r="3" spans="1:11" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -26177,16 +26177,16 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="98" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B6" s="98"/>
+      <c r="A6" s="100" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B6" s="100"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>1305</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>1306</v>
       </c>
       <c r="F6" s="13"/>
       <c r="K6" s="2"/>
@@ -26199,7 +26199,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="F7" s="13"/>
       <c r="K7" s="2"/>
@@ -26212,7 +26212,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="F8" s="13"/>
       <c r="K8" s="2"/>
@@ -26225,7 +26225,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="F9" s="13"/>
       <c r="K9" s="2"/>
@@ -26251,7 +26251,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="F11" s="13"/>
       <c r="K11" s="2"/>
@@ -26264,7 +26264,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="F12" s="13"/>
       <c r="K12" s="2"/>
@@ -26277,7 +26277,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="F13" s="13"/>
       <c r="K13" s="2"/>
@@ -26290,7 +26290,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="F14" s="13"/>
       <c r="K14" s="2"/>
@@ -26303,7 +26303,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="F15" s="13"/>
       <c r="K15" s="2"/>
@@ -26316,7 +26316,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="F16" s="13"/>
       <c r="K16" s="2"/>
@@ -26340,23 +26340,23 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="99" t="s">
-        <v>709</v>
-      </c>
-      <c r="B19" s="99"/>
+      <c r="A19" s="101" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B19" s="101"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F19" s="13"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -26364,8 +26364,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="99"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -26459,7 +26459,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="1"/>
@@ -26473,11 +26473,11 @@
     </row>
     <row r="3" spans="1:32" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="1"/>
@@ -26501,13 +26501,13 @@
     </row>
     <row r="6" spans="1:32" ht="11.25" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E6" s="52"/>
       <c r="F6" s="1"/>
@@ -26526,7 +26526,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D7" s="8"/>
       <c r="F7" s="1"/>
@@ -26545,7 +26545,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="D8" s="8"/>
       <c r="F8" s="1"/>
@@ -26564,7 +26564,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D9" s="8"/>
       <c r="F9" s="1"/>
@@ -26577,13 +26577,13 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D10" s="8"/>
       <c r="F10" s="1"/>
@@ -26596,13 +26596,13 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="2" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D11" s="8"/>
       <c r="F11" s="1"/>
@@ -26615,13 +26615,13 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="2" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D12" s="8"/>
       <c r="F12" s="1"/>
@@ -26634,13 +26634,13 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="2" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D13" s="8"/>
       <c r="F13" s="1"/>
@@ -26659,7 +26659,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D14" s="8"/>
       <c r="F14" s="1"/>
@@ -26672,13 +26672,13 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D15" s="8"/>
       <c r="F15" s="1"/>
@@ -26691,13 +26691,13 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D16" s="8"/>
       <c r="F16" s="1"/>
@@ -26710,13 +26710,13 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="68" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -26781,7 +26781,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -26793,11 +26793,11 @@
     </row>
     <row r="3" spans="1:32" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -27035,10 +27035,10 @@
     </row>
     <row r="15" spans="1:32" ht="11.25" customHeight="1">
       <c r="A15" s="68" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B15" s="68" t="s">
         <v>1317</v>
-      </c>
-      <c r="B15" s="68" t="s">
-        <v>1318</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -27150,7 +27150,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="1"/>
@@ -27163,11 +27163,11 @@
     </row>
     <row r="3" spans="1:32" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="1"/>
@@ -27208,19 +27208,19 @@
     </row>
     <row r="6" spans="1:32" ht="11.25" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D6" s="25" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>1322</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>1323</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -27244,7 +27244,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -27268,7 +27268,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -27292,7 +27292,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -27304,7 +27304,7 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="6" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>29</v>
@@ -27316,7 +27316,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -27328,19 +27328,19 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="6" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E11" s="39" t="s">
         <v>1247</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>1247</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E11" s="39" t="s">
-        <v>1248</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -27352,7 +27352,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="6" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>1</v>
@@ -27364,7 +27364,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="39" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -27388,7 +27388,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="39" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -27400,7 +27400,7 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="6" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>1</v>
@@ -27412,7 +27412,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="39" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -27424,7 +27424,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="6" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>1</v>
@@ -27436,7 +27436,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -27448,7 +27448,7 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="6" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>1</v>
@@ -27460,7 +27460,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -27481,19 +27481,19 @@
     </row>
     <row r="18" spans="1:32">
       <c r="A18" s="68" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="C18" s="68" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D18" s="68" t="s">
         <v>1325</v>
       </c>
-      <c r="D18" s="68" t="s">
-        <v>1326</v>
-      </c>
       <c r="E18" s="68" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -27581,7 +27581,7 @@
     </row>
     <row r="3" spans="1:33" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -27731,7 +27731,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="D2" s="2"/>
       <c r="G2" s="1"/>
@@ -27744,11 +27744,11 @@
     </row>
     <row r="3" spans="1:33" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="D3" s="2"/>
       <c r="G3" s="1"/>
@@ -27795,14 +27795,14 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="25" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>1328</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>1329</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="85" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="E6" s="85"/>
       <c r="F6" s="7"/>
@@ -27821,7 +27821,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="D7" s="85"/>
       <c r="E7" s="85"/>
@@ -27838,7 +27838,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D8" s="85"/>
       <c r="E8" s="85"/>
@@ -27872,7 +27872,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D10" s="85"/>
       <c r="E10" s="85"/>
@@ -27886,10 +27886,10 @@
     </row>
     <row r="11" spans="1:33" s="10" customFormat="1">
       <c r="A11" s="6" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="D11" s="85"/>
       <c r="E11" s="85"/>
@@ -27921,10 +27921,10 @@
     </row>
     <row r="14" spans="1:33" s="6" customFormat="1" ht="11.25" customHeight="1">
       <c r="A14" s="68" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="10"/>
@@ -28238,7 +28238,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="D2" s="2"/>
       <c r="N2" s="1"/>
@@ -28247,11 +28247,11 @@
     </row>
     <row r="3" spans="1:27" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="D3" s="2"/>
       <c r="N3" s="1"/>
@@ -28288,10 +28288,10 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="25" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>1348</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>1349</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="54"/>
@@ -28306,10 +28306,10 @@
     </row>
     <row r="7" spans="1:27" s="10" customFormat="1">
       <c r="A7" s="6" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
@@ -28321,10 +28321,10 @@
     </row>
     <row r="8" spans="1:27" s="10" customFormat="1">
       <c r="A8" s="6" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="54"/>
@@ -28336,10 +28336,10 @@
     </row>
     <row r="9" spans="1:27" s="10" customFormat="1">
       <c r="A9" s="6" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -28351,10 +28351,10 @@
     </row>
     <row r="10" spans="1:27" s="10" customFormat="1">
       <c r="A10" s="6" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -28366,10 +28366,10 @@
     </row>
     <row r="11" spans="1:27" s="10" customFormat="1">
       <c r="A11" s="6" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -28381,10 +28381,10 @@
     </row>
     <row r="12" spans="1:27" s="10" customFormat="1">
       <c r="A12" s="6" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
@@ -28396,10 +28396,10 @@
     </row>
     <row r="13" spans="1:27" s="10" customFormat="1">
       <c r="A13" s="6" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -28411,10 +28411,10 @@
     </row>
     <row r="14" spans="1:27" s="10" customFormat="1">
       <c r="A14" s="6" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>1351</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>1352</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="54"/>
@@ -28426,10 +28426,10 @@
     </row>
     <row r="15" spans="1:27" s="10" customFormat="1">
       <c r="A15" s="6" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="N15" s="6"/>
       <c r="P15" s="6"/>
@@ -28437,10 +28437,10 @@
     </row>
     <row r="16" spans="1:27" s="10" customFormat="1">
       <c r="A16" s="6" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="N16" s="6"/>
       <c r="P16" s="6"/>
@@ -28460,10 +28460,10 @@
     </row>
     <row r="19" spans="1:27" s="10" customFormat="1">
       <c r="A19" s="85" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B19" s="85" t="s">
         <v>1354</v>
-      </c>
-      <c r="B19" s="85" t="s">
-        <v>1355</v>
       </c>
       <c r="N19" s="6"/>
       <c r="P19" s="6"/>
@@ -28564,7 +28564,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D2" s="2"/>
       <c r="N2" s="1"/>
@@ -28573,11 +28573,11 @@
     </row>
     <row r="3" spans="1:27" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="D3" s="2"/>
       <c r="N3" s="1"/>
@@ -28614,10 +28614,10 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="25" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="54"/>
@@ -28632,10 +28632,10 @@
     </row>
     <row r="7" spans="1:27" s="10" customFormat="1">
       <c r="A7" s="6" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>1358</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>1359</v>
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
@@ -28647,10 +28647,10 @@
     </row>
     <row r="8" spans="1:27" s="10" customFormat="1">
       <c r="A8" s="6" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>1360</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>1361</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="54"/>
@@ -28662,10 +28662,10 @@
     </row>
     <row r="9" spans="1:27" s="10" customFormat="1">
       <c r="A9" s="6" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>1362</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>1363</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -28677,10 +28677,10 @@
     </row>
     <row r="10" spans="1:27" s="10" customFormat="1">
       <c r="A10" s="6" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>1364</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>1365</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -28692,10 +28692,10 @@
     </row>
     <row r="11" spans="1:27" s="10" customFormat="1">
       <c r="A11" s="6" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>1366</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>1367</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -28707,10 +28707,10 @@
     </row>
     <row r="12" spans="1:27" s="10" customFormat="1">
       <c r="A12" s="6" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>1368</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>1369</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
@@ -28722,10 +28722,10 @@
     </row>
     <row r="13" spans="1:27" s="10" customFormat="1">
       <c r="A13" s="6" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>1370</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>1371</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -28737,10 +28737,10 @@
     </row>
     <row r="14" spans="1:27" s="10" customFormat="1">
       <c r="A14" s="6" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>1372</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>1373</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="54"/>
@@ -28752,10 +28752,10 @@
     </row>
     <row r="15" spans="1:27" s="10" customFormat="1">
       <c r="A15" s="6" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>1374</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>1375</v>
       </c>
       <c r="N15" s="6"/>
       <c r="P15" s="6"/>
@@ -28763,10 +28763,10 @@
     </row>
     <row r="16" spans="1:27" s="10" customFormat="1">
       <c r="A16" s="6" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>1376</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>1377</v>
       </c>
       <c r="N16" s="6"/>
       <c r="P16" s="6"/>
@@ -28786,10 +28786,10 @@
     </row>
     <row r="19" spans="1:27" s="10" customFormat="1">
       <c r="A19" s="85" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B19" s="85" t="s">
         <v>1379</v>
-      </c>
-      <c r="B19" s="85" t="s">
-        <v>1380</v>
       </c>
       <c r="N19" s="6"/>
       <c r="P19" s="6"/>
@@ -28840,7 +28840,7 @@
   <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D19" sqref="D19:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -28865,7 +28865,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -28875,7 +28875,7 @@
     </row>
     <row r="3" spans="1:11" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -28896,16 +28896,16 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="98" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B6" s="98"/>
+      <c r="A6" s="100" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B6" s="100"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>1382</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>1383</v>
       </c>
       <c r="F6" s="13"/>
       <c r="K6" s="2"/>
@@ -28931,7 +28931,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F8" s="13"/>
       <c r="K8" s="2"/>
@@ -29009,7 +29009,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="F14" s="13"/>
       <c r="K14" s="2"/>
@@ -29022,7 +29022,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F15" s="13"/>
       <c r="K15" s="2"/>
@@ -29035,7 +29035,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F16" s="13"/>
       <c r="K16" s="2"/>
@@ -29059,23 +29059,23 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="99" t="s">
-        <v>709</v>
-      </c>
-      <c r="B19" s="99"/>
+      <c r="A19" s="101" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B19" s="101"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F19" s="13"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -29083,8 +29083,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="99"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -29171,7 +29171,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="D2" s="2"/>
       <c r="N2" s="1"/>
@@ -29180,11 +29180,11 @@
     </row>
     <row r="3" spans="1:27" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D3" s="2"/>
       <c r="N3" s="1"/>
@@ -29221,10 +29221,10 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="25" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>1389</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>1390</v>
       </c>
       <c r="C6" s="53"/>
       <c r="D6" s="54"/>
@@ -29242,7 +29242,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
@@ -29257,7 +29257,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="54"/>
@@ -29272,7 +29272,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -29287,7 +29287,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -29302,7 +29302,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -29317,7 +29317,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
@@ -29332,7 +29332,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -29347,7 +29347,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="54"/>
@@ -29362,7 +29362,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="N15" s="6"/>
       <c r="P15" s="6"/>
@@ -29373,7 +29373,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="N16" s="6"/>
       <c r="P16" s="6"/>
@@ -29393,10 +29393,10 @@
     </row>
     <row r="19" spans="1:27" s="10" customFormat="1">
       <c r="A19" s="85" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B19" s="85" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="N19" s="6"/>
       <c r="P19" s="6"/>
@@ -29446,7 +29446,9 @@
   </sheetPr>
   <dimension ref="A2:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -29470,7 +29472,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -29480,7 +29482,7 @@
     </row>
     <row r="3" spans="1:11" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -29501,10 +29503,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="98" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B6" s="98"/>
+      <c r="A6" s="100" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B6" s="100"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>643</v>
@@ -29664,23 +29666,23 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="99" t="s">
-        <v>709</v>
-      </c>
-      <c r="B19" s="99"/>
+      <c r="A19" s="101" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B19" s="101"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F19" s="13"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -29688,8 +29690,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="99"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -29728,7 +29730,7 @@
   <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D19" sqref="D19:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -29753,7 +29755,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -29763,7 +29765,7 @@
     </row>
     <row r="3" spans="1:11" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -29784,16 +29786,16 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="98" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B6" s="98"/>
+      <c r="A6" s="100" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B6" s="100"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>1405</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>1406</v>
       </c>
       <c r="F6" s="13"/>
       <c r="K6" s="2"/>
@@ -29806,7 +29808,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F7" s="13"/>
       <c r="K7" s="2"/>
@@ -29819,7 +29821,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="F8" s="13"/>
       <c r="K8" s="2"/>
@@ -29832,7 +29834,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="F9" s="13"/>
       <c r="K9" s="2"/>
@@ -29845,7 +29847,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="F10" s="13"/>
       <c r="K10" s="2"/>
@@ -29858,7 +29860,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="F11" s="13"/>
       <c r="K11" s="2"/>
@@ -29871,7 +29873,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="F12" s="13"/>
       <c r="K12" s="2"/>
@@ -29884,7 +29886,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="F13" s="13"/>
       <c r="K13" s="2"/>
@@ -29897,7 +29899,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="F14" s="13"/>
       <c r="K14" s="2"/>
@@ -29910,7 +29912,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="F15" s="13"/>
       <c r="K15" s="2"/>
@@ -29947,23 +29949,23 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="99" t="s">
-        <v>709</v>
-      </c>
-      <c r="B19" s="99"/>
+      <c r="A19" s="101" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B19" s="101"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F19" s="13"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -29971,8 +29973,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="99"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -30011,7 +30013,7 @@
   <dimension ref="A2:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D19" sqref="D19:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -30036,7 +30038,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -30046,7 +30048,7 @@
     </row>
     <row r="3" spans="1:11" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -30067,16 +30069,16 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="98" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B6" s="98"/>
+      <c r="A6" s="100" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B6" s="100"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>1417</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>1418</v>
       </c>
       <c r="F6" s="13"/>
       <c r="K6" s="2"/>
@@ -30089,7 +30091,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="F7" s="13"/>
       <c r="K7" s="2"/>
@@ -30102,7 +30104,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="F8" s="13"/>
       <c r="K8" s="2"/>
@@ -30198,23 +30200,23 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="99" t="s">
-        <v>709</v>
-      </c>
-      <c r="B19" s="99"/>
+      <c r="A19" s="101" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B19" s="101"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E19" s="68" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="F19" s="13"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="99"/>
-      <c r="B20" s="99"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -30222,8 +30224,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="99"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -30312,7 +30314,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="D2" s="2"/>
       <c r="N2" s="1"/>
@@ -30321,11 +30323,11 @@
     </row>
     <row r="3" spans="1:27" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D3" s="2"/>
       <c r="N3" s="1"/>
@@ -30365,13 +30367,13 @@
         <v>684</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="C6" s="55" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D6" s="55" t="s">
         <v>1422</v>
-      </c>
-      <c r="D6" s="55" t="s">
-        <v>1423</v>
       </c>
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
@@ -30390,10 +30392,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="56" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D7" s="56" t="s">
         <v>1424</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>1425</v>
       </c>
       <c r="E7" s="54"/>
       <c r="F7" s="54"/>
@@ -30409,10 +30411,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="56" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D8" s="56" t="s">
         <v>1426</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>1427</v>
       </c>
       <c r="E8" s="54"/>
       <c r="F8" s="54"/>
@@ -30428,10 +30430,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="56" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D9" s="56" t="s">
         <v>1428</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>1429</v>
       </c>
       <c r="E9" s="54"/>
       <c r="F9" s="54"/>
@@ -30447,10 +30449,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="56" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D10" s="56" t="s">
         <v>1430</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>1431</v>
       </c>
       <c r="E10" s="54"/>
       <c r="F10" s="54"/>
@@ -30466,10 +30468,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="56" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D11" s="56" t="s">
         <v>1432</v>
-      </c>
-      <c r="D11" s="56" t="s">
-        <v>1433</v>
       </c>
       <c r="E11" s="54"/>
       <c r="F11" s="54"/>
@@ -30485,10 +30487,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="56" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D12" s="56" t="s">
         <v>1434</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>1435</v>
       </c>
       <c r="E12" s="54"/>
       <c r="F12" s="54"/>
@@ -30504,10 +30506,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="56" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D13" s="56" t="s">
         <v>1436</v>
-      </c>
-      <c r="D13" s="56" t="s">
-        <v>1437</v>
       </c>
       <c r="E13" s="54"/>
       <c r="F13" s="54"/>
@@ -30523,10 +30525,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="56" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D14" s="56" t="s">
         <v>1438</v>
-      </c>
-      <c r="D14" s="56" t="s">
-        <v>1439</v>
       </c>
       <c r="E14" s="54"/>
       <c r="F14" s="54"/>
@@ -30542,10 +30544,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="29" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>1440</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>1441</v>
       </c>
       <c r="N15" s="6"/>
       <c r="P15" s="6"/>
@@ -30559,10 +30561,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="29" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>1442</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>1443</v>
       </c>
       <c r="N16" s="6"/>
       <c r="P16" s="6"/>
@@ -30582,16 +30584,16 @@
     </row>
     <row r="19" spans="1:27" s="10" customFormat="1" ht="11.25" customHeight="1">
       <c r="A19" s="68" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="C19" s="68" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D19" s="68" t="s">
         <v>1444</v>
-      </c>
-      <c r="D19" s="68" t="s">
-        <v>1445</v>
       </c>
       <c r="N19" s="6"/>
       <c r="P19" s="6"/>
@@ -30636,7 +30638,7 @@
     </row>
     <row r="25" spans="1:27" ht="123.75">
       <c r="B25" s="18" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
   </sheetData>
@@ -30712,7 +30714,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="D2" s="2"/>
       <c r="N2" s="1"/>
@@ -30721,7 +30723,7 @@
     </row>
     <row r="3" spans="1:27" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -30839,7 +30841,7 @@
     </row>
     <row r="12" spans="1:27" s="10" customFormat="1" ht="11.25" customHeight="1">
       <c r="A12" s="68" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="B12" s="68" t="s">
         <v>480</v>
@@ -30940,7 +30942,7 @@
     </row>
     <row r="3" spans="1:30" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -31179,7 +31181,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D2" s="2"/>
       <c r="N2" s="1"/>
@@ -31188,11 +31190,11 @@
     </row>
     <row r="3" spans="1:27" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="D3" s="2"/>
       <c r="N3" s="1"/>
@@ -31215,16 +31217,16 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="16" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>1452</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="C6" s="16" t="s">
         <v>1453</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="16" t="s">
         <v>1454</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>1455</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>296</v>
@@ -31238,13 +31240,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -31261,7 +31263,7 @@
         <v>286</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -31278,7 +31280,7 @@
         <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -31295,7 +31297,7 @@
         <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -31312,7 +31314,7 @@
         <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -31329,7 +31331,7 @@
         <v>286</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="13" spans="1:27">
@@ -31346,7 +31348,7 @@
         <v>83</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="14" spans="1:27">
@@ -31363,7 +31365,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="15" spans="1:27">
@@ -31380,7 +31382,7 @@
         <v>286</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="16" spans="1:27">
@@ -31397,15 +31399,15 @@
         <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="11.25" customHeight="1">
       <c r="A19" s="68" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B19" s="68" t="s">
         <v>1460</v>
-      </c>
-      <c r="B19" s="68" t="s">
-        <v>1461</v>
       </c>
       <c r="C19" s="68" t="s">
         <v>480</v>
@@ -31453,7 +31455,7 @@
   </sheetPr>
   <dimension ref="A2:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -31504,7 +31506,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="H2" s="2"/>
       <c r="N2" s="1"/>
@@ -31513,11 +31515,11 @@
     </row>
     <row r="3" spans="1:27" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="H3" s="2"/>
       <c r="N3" s="1"/>
@@ -31540,10 +31542,10 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="16" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>552</v>
@@ -31558,10 +31560,10 @@
         <v>485</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -31584,7 +31586,7 @@
         <v>488</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>43</v>
@@ -31610,7 +31612,7 @@
         <v>488</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>43</v>
@@ -31636,7 +31638,7 @@
         <v>488</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>43</v>
@@ -31662,7 +31664,7 @@
         <v>488</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>43</v>
@@ -31688,7 +31690,7 @@
         <v>488</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>43</v>
@@ -31714,7 +31716,7 @@
         <v>488</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>43</v>
@@ -31736,24 +31738,24 @@
     </row>
     <row r="15" spans="1:27" ht="11.25" customHeight="1">
       <c r="A15" s="90" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="90" t="s">
         <v>1582</v>
-      </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="90" t="s">
-        <v>1583</v>
       </c>
       <c r="E15" s="90"/>
       <c r="F15" s="90" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="11.25" customHeight="1">
-      <c r="A16" s="122"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
       <c r="D16" s="90"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
@@ -31761,68 +31763,68 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A17" s="122"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="124"/>
       <c r="D17" s="90"/>
       <c r="E17" s="90"/>
       <c r="F17" s="90"/>
     </row>
     <row r="18" spans="1:8" ht="11.25" customHeight="1">
       <c r="A18" s="68" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="B18" s="68" t="s">
         <v>585</v>
       </c>
-      <c r="C18" s="123" t="s">
-        <v>1475</v>
+      <c r="C18" s="120" t="s">
+        <v>1474</v>
       </c>
       <c r="D18" s="88" t="s">
-        <v>1585</v>
-      </c>
-      <c r="E18" s="124" t="s">
         <v>1584</v>
+      </c>
+      <c r="E18" s="121" t="s">
+        <v>1583</v>
       </c>
       <c r="F18" s="68" t="s">
         <v>491</v>
       </c>
-      <c r="G18" s="121" t="s">
-        <v>1581</v>
+      <c r="G18" s="123" t="s">
+        <v>1580</v>
       </c>
       <c r="H18" s="68"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="68"/>
       <c r="B19" s="68"/>
-      <c r="C19" s="123"/>
+      <c r="C19" s="120"/>
       <c r="D19" s="88"/>
-      <c r="E19" s="124"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="68"/>
-      <c r="G19" s="121"/>
+      <c r="G19" s="123"/>
       <c r="H19" s="68"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="68"/>
       <c r="B20" s="68"/>
-      <c r="C20" s="123"/>
+      <c r="C20" s="120"/>
       <c r="D20" s="88"/>
-      <c r="E20" s="124"/>
+      <c r="E20" s="121"/>
       <c r="F20" s="68"/>
-      <c r="G20" s="121"/>
+      <c r="G20" s="123"/>
       <c r="H20" s="68"/>
     </row>
     <row r="21" spans="1:8">
       <c r="D21" s="88"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="120" t="s">
-        <v>1474</v>
+      <c r="A22" s="122" t="s">
+        <v>1473</v>
       </c>
       <c r="D22" s="88"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="120"/>
+      <c r="A23" s="122"/>
       <c r="D23" s="88"/>
     </row>
     <row r="24" spans="1:8">
@@ -31854,12 +31856,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="D18:D32"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A18:A20"/>
@@ -31868,6 +31864,12 @@
     <mergeCell ref="A15:C17"/>
     <mergeCell ref="D15:E17"/>
     <mergeCell ref="F15:F17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="D18:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -31913,7 +31915,7 @@
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="21">
       <c r="A3" s="64" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -32141,7 +32143,7 @@
     </row>
     <row r="3" spans="1:33" ht="21">
       <c r="A3" s="64" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="3" t="s">
@@ -32193,12 +32195,12 @@
     </row>
     <row r="10" spans="1:33" ht="11.25" customHeight="1">
       <c r="A10" s="73" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B10" s="74"/>
       <c r="C10" s="75"/>
       <c r="D10" s="70" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="11.25" customHeight="1">
@@ -32224,7 +32226,7 @@
         <v>492</v>
       </c>
       <c r="D13" s="68" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="14" spans="1:33">

--- a/Documentação/Planilhas/Conferencia_DOM.xlsx
+++ b/Documentação/Planilhas/Conferencia_DOM.xlsx
@@ -33,58 +33,59 @@
     <sheet name="stg_dom_natureza_lancamento" sheetId="12" r:id="rId24"/>
     <sheet name="stg_dom_natureza_operacao" sheetId="27" r:id="rId25"/>
     <sheet name="stg_dom_natureza_tipo_operacao" sheetId="55" r:id="rId26"/>
-    <sheet name="stg_dom_nfr_motivo_devolucao" sheetId="56" r:id="rId27"/>
-    <sheet name="stg_dom_nfr_tipo_operacao" sheetId="57" r:id="rId28"/>
-    <sheet name="stg_dom_nfv_cancelamento" sheetId="58" r:id="rId29"/>
-    <sheet name="stg_dom_nfv_status_sefaz" sheetId="59" r:id="rId30"/>
-    <sheet name="stg_dom_orc_tipo" sheetId="60" r:id="rId31"/>
-    <sheet name="stg_dom_parceiro_cadastro" sheetId="39" r:id="rId32"/>
-    <sheet name="stg_dom_parceiro_endereco" sheetId="40" r:id="rId33"/>
-    <sheet name="stg_dom_parceiro_tipo_cadastro" sheetId="42" r:id="rId34"/>
-    <sheet name="stg_dom_parceiro_tipo_cliente" sheetId="43" r:id="rId35"/>
-    <sheet name="stg_dom_pec_documento_fiscal" sheetId="32" r:id="rId36"/>
-    <sheet name="stg_dom_pec_status_item" sheetId="62" r:id="rId37"/>
-    <sheet name="stg_dom_pec_tipo_cadastro" sheetId="63" r:id="rId38"/>
-    <sheet name="stg_dom_pec_tipo_frete" sheetId="64" r:id="rId39"/>
-    <sheet name="stg_dom_pec_tipo_ordem_compra" sheetId="4" r:id="rId40"/>
-    <sheet name="stg_dom_pev_origem" sheetId="65" r:id="rId41"/>
-    <sheet name="stg_dom_pev_status_pagamento" sheetId="24" r:id="rId42"/>
-    <sheet name="stg_dom_pev_tipo_pedido" sheetId="66" r:id="rId43"/>
-    <sheet name="stg_dom_situacao_nf" sheetId="67" r:id="rId44"/>
-    <sheet name="stg_dom_situacao_pagamento" sheetId="68" r:id="rId45"/>
-    <sheet name="stg_dom_situacao_pedido" sheetId="13" r:id="rId46"/>
-    <sheet name="stg_dom_situacao_titulo" sheetId="18" r:id="rId47"/>
-    <sheet name="stg_dom_sku_categoria" sheetId="69" r:id="rId48"/>
-    <sheet name="stg_dom_sku_controle" sheetId="70" r:id="rId49"/>
-    <sheet name="stg_dom_sku_departamento" sheetId="71" r:id="rId50"/>
-    <sheet name="stg_dom_sku_ean" sheetId="72" r:id="rId51"/>
-    <sheet name="stg_dom_sku_familia" sheetId="73" r:id="rId52"/>
-    <sheet name="stg_dom_sku_genero" sheetId="75" r:id="rId53"/>
-    <sheet name="stg_dom_sku_kit" sheetId="76" r:id="rId54"/>
-    <sheet name="stg_dom_sku_nproduto" sheetId="15" r:id="rId55"/>
-    <sheet name="stg_dom_sku_procedencia" sheetId="78" r:id="rId56"/>
-    <sheet name="stg_dom_sku_setor" sheetId="79" r:id="rId57"/>
-    <sheet name="stg_dom_sku_situacao" sheetId="25" r:id="rId58"/>
-    <sheet name="stg_dom_sku_subfamilia" sheetId="80" r:id="rId59"/>
-    <sheet name="stg_dom_sku_tipo_servico" sheetId="81" r:id="rId60"/>
-    <sheet name="stg_dom_sku_unidade_medida" sheetId="82" r:id="rId61"/>
-    <sheet name="stg_dom_status" sheetId="83" r:id="rId62"/>
-    <sheet name="stg_dom_tipo_documento" sheetId="84" r:id="rId63"/>
-    <sheet name="stg_dom_tipo_entrega" sheetId="85" r:id="rId64"/>
-    <sheet name="stg_dom_tipo_nota_fiscal" sheetId="86" r:id="rId65"/>
-    <sheet name="stg_dom_tipo_transacao" sheetId="87" r:id="rId66"/>
-    <sheet name="stg_dom_tipo_transporte" sheetId="88" r:id="rId67"/>
-    <sheet name="stg_dom_transacao" sheetId="89" r:id="rId68"/>
-    <sheet name="stg_dom_trk_cod_sist_fonte" sheetId="90" r:id="rId69"/>
-    <sheet name="stg_dom_unidade_negocio" sheetId="91" r:id="rId70"/>
-    <sheet name="stg_dom_wms_planta" sheetId="92" r:id="rId71"/>
+    <sheet name="stg_dom_nfe_status_rascunho" sheetId="95" r:id="rId27"/>
+    <sheet name="stg_dom_nfr_motivo_devolucao" sheetId="56" r:id="rId28"/>
+    <sheet name="stg_dom_nfr_tipo_operacao" sheetId="57" r:id="rId29"/>
+    <sheet name="stg_dom_nfv_cancelamento" sheetId="58" r:id="rId30"/>
+    <sheet name="stg_dom_nfv_status_sefaz" sheetId="59" r:id="rId31"/>
+    <sheet name="stg_dom_orc_tipo" sheetId="60" r:id="rId32"/>
+    <sheet name="stg_dom_parceiro_cadastro" sheetId="39" r:id="rId33"/>
+    <sheet name="stg_dom_parceiro_endereco" sheetId="40" r:id="rId34"/>
+    <sheet name="stg_dom_parceiro_tipo_cadastro" sheetId="42" r:id="rId35"/>
+    <sheet name="stg_dom_parceiro_tipo_cliente" sheetId="43" r:id="rId36"/>
+    <sheet name="stg_dom_pec_documento_fiscal" sheetId="32" r:id="rId37"/>
+    <sheet name="stg_dom_pec_status_item" sheetId="62" r:id="rId38"/>
+    <sheet name="stg_dom_pec_tipo_cadastro" sheetId="63" r:id="rId39"/>
+    <sheet name="stg_dom_pec_tipo_frete" sheetId="64" r:id="rId40"/>
+    <sheet name="stg_dom_pec_tipo_ordem_compra" sheetId="4" r:id="rId41"/>
+    <sheet name="stg_dom_pev_origem" sheetId="65" r:id="rId42"/>
+    <sheet name="stg_dom_pev_status_pagamento" sheetId="24" r:id="rId43"/>
+    <sheet name="stg_dom_pev_tipo_pedido" sheetId="66" r:id="rId44"/>
+    <sheet name="stg_dom_situacao_nf" sheetId="67" r:id="rId45"/>
+    <sheet name="stg_dom_situacao_pagamento" sheetId="68" r:id="rId46"/>
+    <sheet name="stg_dom_situacao_pedido" sheetId="13" r:id="rId47"/>
+    <sheet name="stg_dom_situacao_titulo" sheetId="18" r:id="rId48"/>
+    <sheet name="stg_dom_sku_categoria" sheetId="69" r:id="rId49"/>
+    <sheet name="stg_dom_sku_controle" sheetId="70" r:id="rId50"/>
+    <sheet name="stg_dom_sku_departamento" sheetId="71" r:id="rId51"/>
+    <sheet name="stg_dom_sku_ean" sheetId="72" r:id="rId52"/>
+    <sheet name="stg_dom_sku_familia" sheetId="73" r:id="rId53"/>
+    <sheet name="stg_dom_sku_genero" sheetId="75" r:id="rId54"/>
+    <sheet name="stg_dom_sku_kit" sheetId="76" r:id="rId55"/>
+    <sheet name="stg_dom_sku_nproduto" sheetId="15" r:id="rId56"/>
+    <sheet name="stg_dom_sku_procedencia" sheetId="78" r:id="rId57"/>
+    <sheet name="stg_dom_sku_setor" sheetId="79" r:id="rId58"/>
+    <sheet name="stg_dom_sku_situacao" sheetId="25" r:id="rId59"/>
+    <sheet name="stg_dom_sku_subfamilia" sheetId="80" r:id="rId60"/>
+    <sheet name="stg_dom_sku_tipo_servico" sheetId="81" r:id="rId61"/>
+    <sheet name="stg_dom_sku_unidade_medida" sheetId="82" r:id="rId62"/>
+    <sheet name="stg_dom_status" sheetId="83" r:id="rId63"/>
+    <sheet name="stg_dom_tipo_documento" sheetId="84" r:id="rId64"/>
+    <sheet name="stg_dom_tipo_entrega" sheetId="85" r:id="rId65"/>
+    <sheet name="stg_dom_tipo_nota_fiscal" sheetId="86" r:id="rId66"/>
+    <sheet name="stg_dom_tipo_transacao" sheetId="87" r:id="rId67"/>
+    <sheet name="stg_dom_tipo_transporte" sheetId="88" r:id="rId68"/>
+    <sheet name="stg_dom_transacao" sheetId="89" r:id="rId69"/>
+    <sheet name="stg_dom_trk_cod_sist_fonte" sheetId="90" r:id="rId70"/>
+    <sheet name="stg_dom_unidade_negocio" sheetId="91" r:id="rId71"/>
+    <sheet name="stg_dom_wms_planta" sheetId="92" r:id="rId72"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2895" uniqueCount="1587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="1595">
   <si>
     <t>DESCR</t>
   </si>
@@ -4893,6 +4894,30 @@
   </si>
   <si>
     <t>Clicar com o botão direito do mouse sobre a linha apresentada com as configurações fornecidas e selecionar Specific ==&gt; Enum/Set Data</t>
+  </si>
+  <si>
+    <t>stg_dom_nfe_status_rascunho</t>
+  </si>
+  <si>
+    <t>dbo.stg_dom_nfe_status_rascunho</t>
+  </si>
+  <si>
+    <t>CD_SITUACAO_RASCUNHO</t>
+  </si>
+  <si>
+    <t>DS_SITUACAO_RASCUNHO</t>
+  </si>
+  <si>
+    <t>Não aplicá</t>
+  </si>
+  <si>
+    <t>NF com err</t>
+  </si>
+  <si>
+    <t>A agendar</t>
+  </si>
+  <si>
+    <t>Agendado</t>
   </si>
 </sst>
 </file>
@@ -5575,17 +5600,17 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5596,28 +5621,28 @@
     <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5641,6 +5666,9 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5651,9 +5679,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5720,6 +5745,91 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15362" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="504825" y="1276350"/>
+          <a:ext cx="1762125" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15364" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="390525" y="3971925"/>
+          <a:ext cx="1790700" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5804,7 +5914,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5889,7 +5999,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5974,7 +6084,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6019,7 +6129,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6064,7 +6174,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6109,7 +6219,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6154,7 +6264,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6199,7 +6309,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6232,51 +6342,6 @@
         <a:xfrm>
           <a:off x="428625" y="1343025"/>
           <a:ext cx="1685925" cy="1200150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4098" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="552450" y="1362075"/>
-          <a:ext cx="1733550" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6339,6 +6404,51 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4098" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="552450" y="1362075"/>
+          <a:ext cx="1733550" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
@@ -6380,6 +6490,51 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1647825</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="714375" y="1219200"/>
+          <a:ext cx="1762125" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6464,7 +6619,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6509,7 +6664,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6554,7 +6709,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6599,7 +6754,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6644,7 +6799,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6677,91 +6832,6 @@
         <a:xfrm>
           <a:off x="352425" y="1247775"/>
           <a:ext cx="1762125" cy="1247775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1219200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15362" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="504825" y="1276350"/>
-          <a:ext cx="1762125" cy="1190625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15364" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="390525" y="3971925"/>
-          <a:ext cx="1790700" cy="1219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7059,13 +7129,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C74"/>
+  <dimension ref="B1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7242,289 +7312,295 @@
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="61" t="s">
-        <v>817</v>
+        <v>1587</v>
       </c>
       <c r="C28" s="60"/>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="61" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="C29" s="60"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="61" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C30" s="60"/>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="61" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="C31" s="60"/>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="61" t="s">
-        <v>848</v>
+        <v>836</v>
       </c>
       <c r="C32" s="60"/>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="61" t="s">
-        <v>906</v>
+        <v>848</v>
       </c>
       <c r="C33" s="60"/>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="61" t="s">
-        <v>920</v>
+        <v>906</v>
       </c>
       <c r="C34" s="60"/>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="61" t="s">
-        <v>1027</v>
+        <v>920</v>
       </c>
       <c r="C35" s="60"/>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="61" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C36" s="60"/>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="61" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="C37" s="60"/>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="61" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C38" s="60"/>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="61" t="s">
-        <v>1063</v>
+        <v>1042</v>
       </c>
       <c r="C39" s="60"/>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="61" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C40" s="60"/>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="61" t="s">
-        <v>1081</v>
+        <v>1067</v>
       </c>
       <c r="C41" s="60"/>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="61" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C42" s="60"/>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="61" t="s">
-        <v>1092</v>
+        <v>1085</v>
       </c>
       <c r="C43" s="60"/>
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="61" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
       <c r="C44" s="60"/>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="61" t="s">
-        <v>1114</v>
+        <v>1098</v>
       </c>
       <c r="C45" s="60"/>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="61" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="C46" s="60"/>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="61" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="C47" s="60"/>
     </row>
     <row r="48" spans="2:3">
       <c r="B48" s="61" t="s">
-        <v>1150</v>
+        <v>1135</v>
       </c>
       <c r="C48" s="60"/>
     </row>
     <row r="49" spans="2:3">
       <c r="B49" s="61" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="C49" s="60"/>
     </row>
     <row r="50" spans="2:3">
       <c r="B50" s="61" t="s">
-        <v>1182</v>
+        <v>1156</v>
       </c>
       <c r="C50" s="60"/>
     </row>
     <row r="51" spans="2:3">
       <c r="B51" s="61" t="s">
-        <v>1194</v>
+        <v>1182</v>
       </c>
       <c r="C51" s="60"/>
     </row>
     <row r="52" spans="2:3">
       <c r="B52" s="61" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
       <c r="C52" s="60"/>
     </row>
     <row r="53" spans="2:3">
       <c r="B53" s="61" t="s">
-        <v>1266</v>
+        <v>1206</v>
       </c>
       <c r="C53" s="60"/>
     </row>
     <row r="54" spans="2:3">
       <c r="B54" s="61" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="C54" s="60"/>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="61" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C55" s="60"/>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="61" t="s">
-        <v>1285</v>
+        <v>1265</v>
       </c>
       <c r="C56" s="60"/>
     </row>
     <row r="57" spans="2:3">
       <c r="B57" s="61" t="s">
-        <v>1303</v>
+        <v>1285</v>
       </c>
       <c r="C57" s="60"/>
     </row>
     <row r="58" spans="2:3">
       <c r="B58" s="61" t="s">
-        <v>1312</v>
+        <v>1303</v>
       </c>
       <c r="C58" s="60"/>
     </row>
     <row r="59" spans="2:3">
       <c r="B59" s="61" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="C59" s="60"/>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="61" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="C60" s="60"/>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="61" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="C61" s="60"/>
     </row>
     <row r="62" spans="2:3">
       <c r="B62" s="61" t="s">
-        <v>1346</v>
+        <v>1326</v>
       </c>
       <c r="C62" s="60"/>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="61" t="s">
-        <v>1355</v>
+        <v>1346</v>
       </c>
       <c r="C63" s="60"/>
     </row>
     <row r="64" spans="2:3">
       <c r="B64" s="61" t="s">
-        <v>1380</v>
+        <v>1355</v>
       </c>
       <c r="C64" s="60"/>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="61" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="C65" s="60"/>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" s="61" t="s">
-        <v>1402</v>
+        <v>1387</v>
       </c>
       <c r="C66" s="60"/>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" s="61" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="C67" s="60"/>
     </row>
     <row r="68" spans="2:3">
       <c r="B68" s="61" t="s">
-        <v>1415</v>
+        <v>1403</v>
       </c>
       <c r="C68" s="60"/>
     </row>
     <row r="69" spans="2:3">
       <c r="B69" s="61" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="C69" s="60"/>
     </row>
     <row r="70" spans="2:3">
       <c r="B70" s="61" t="s">
-        <v>1449</v>
+        <v>1420</v>
       </c>
       <c r="C70" s="60"/>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="61" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C71" s="60"/>
+    </row>
+    <row r="72" spans="2:3">
+      <c r="B72" s="61" t="s">
         <v>1450</v>
       </c>
-      <c r="C71" s="60"/>
-    </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="59" t="s">
+      <c r="C72" s="60"/>
+    </row>
+    <row r="73" spans="2:3">
+      <c r="B73" s="59" t="s">
         <v>1498</v>
       </c>
-      <c r="C72" s="60" t="s">
+      <c r="C73" s="60" t="s">
         <v>1575</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="61" t="s">
+    <row r="74" spans="2:3">
+      <c r="B74" s="61" t="s">
         <v>1461</v>
       </c>
-      <c r="C73" s="60" t="s">
+      <c r="C74" s="60" t="s">
         <v>1578</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
-      <c r="B74" s="62" t="s">
+    <row r="75" spans="2:3">
+      <c r="B75" s="62" t="s">
         <v>1499</v>
       </c>
-      <c r="C74" s="63" t="s">
+      <c r="C75" s="63" t="s">
         <v>1575</v>
       </c>
     </row>
@@ -7555,51 +7631,52 @@
     <hyperlink ref="B25" location="stg_dom_natureza_lancamento!A1" display="stg_dom_natureza_lancamento"/>
     <hyperlink ref="B26" location="stg_dom_natureza_operacao!A1" display="stg_dom_natureza_operacao"/>
     <hyperlink ref="B27" location="stg_dom_natureza_tipo_operacao!A1" display="stg_dom_natureza_tipo_operacao"/>
-    <hyperlink ref="B28" location="stg_dom_nfr_motivo_devolucao!A1" display="stg_dom_nfr_motivo_devolucao"/>
-    <hyperlink ref="B29" location="stg_dom_nfr_tipo_operacao!A1" display="stg_dom_nfr_tipo_operacao"/>
-    <hyperlink ref="B30" location="stg_dom_nfv_cancelamento!A1" display="stg_dom_nfv_cancelamento"/>
-    <hyperlink ref="B31" location="stg_dom_nfv_status_sefaz!A1" display="stg_dom_nfv_status_sefaz"/>
-    <hyperlink ref="B32" location="stg_dom_orc_tipo!A1" display="stg_dom_orc_tipo"/>
-    <hyperlink ref="B33" location="stg_dom_parceiro_cadastro!A1" display="stg_dom_parceiro_cadastro"/>
-    <hyperlink ref="B34" location="stg_dom_parceiro_endereco!A1" display="stg_dom_parceiro_endereco"/>
-    <hyperlink ref="B35" location="stg_dom_parceiro_tipo_cadastro!A1" display="stg_dom_parceiro_tipo_cadastro"/>
-    <hyperlink ref="B36" location="stg_dom_parceiro_tipo_cliente!A1" display="stg_dom_parceiro_tipo_cliente"/>
-    <hyperlink ref="B37" location="stg_dom_pec_documento_fiscal!A1" display="stg_dom_pec_documento_fiscal"/>
-    <hyperlink ref="B38" location="stg_dom_pec_status_item!A1" display="stg_dom_pec_status_item"/>
-    <hyperlink ref="B39" location="stg_dom_parceiro_tipo_cadastro!A1" display="stg_dom_pec_tipo_cadastro"/>
-    <hyperlink ref="B40" location="stg_dom_pec_tipo_frete!A1" display="stg_dom_pec_tipo_frete"/>
-    <hyperlink ref="B41" location="stg_dom_pec_tipo_ordem_compra!A1" display="stg_dom_pec_tipo_ordem_compra"/>
-    <hyperlink ref="B42" location="stg_dom_pev_origem!A1" display="stg_dom_pev_origem"/>
-    <hyperlink ref="B43" location="stg_dom_pev_status_pagamento!A1" display="stg_dom_pev_status_pagamento"/>
-    <hyperlink ref="B44" location="stg_dom_pev_tipo_pedido!A1" display="stg_dom_pev_tipo_pedido"/>
-    <hyperlink ref="B45" location="stg_dom_situacao_nf!A1" display="stg_dom_situacao_nf"/>
-    <hyperlink ref="B46" location="stg_dom_situacao_pagamento!A1" display="stg_dom_situacao_pagamento"/>
-    <hyperlink ref="B47" location="stg_dom_situacao_pedido!A1" display="stg_dom_situacao_pedido"/>
-    <hyperlink ref="B48" location="stg_dom_situacao_titulo!A1" display="stg_dom_situacao_titulo"/>
-    <hyperlink ref="B49" location="stg_dom_sku_categoria!A1" display="stg_dom_sku_categoria"/>
-    <hyperlink ref="B50" location="stg_dom_sku_controle!A1" display="stg_dom_sku_controle"/>
-    <hyperlink ref="B51" location="stg_dom_sku_departamento!A1" display="stg_dom_sku_departamento"/>
-    <hyperlink ref="B52" location="stg_dom_sku_ean!A1" display="stg_dom_sku_ean"/>
-    <hyperlink ref="B53" location="stg_dom_sku_familia!A1" display="stg_dom_sku_familia"/>
-    <hyperlink ref="B54" location="stg_dom_sku_genero!A1" display="stg_dom_sku_genero"/>
-    <hyperlink ref="B55" location="stg_dom_sku_kit!A1" display="stg_dom_sku_kit"/>
-    <hyperlink ref="B56" location="stg_dom_sku_nproduto!A1" display="stg_dom_sku_nproduto"/>
-    <hyperlink ref="B57" location="stg_dom_sku_procedencia!A1" display="stg_dom_sku_procedencia"/>
-    <hyperlink ref="B58" location="stg_dom_sku_setor!A1" display="stg_dom_sku_setor"/>
-    <hyperlink ref="B59" location="stg_dom_sku_situacao!A1" display="stg_dom_sku_situacao"/>
-    <hyperlink ref="B60" location="stg_dom_sku_subfamilia!A1" display="stg_dom_sku_subfamilia"/>
-    <hyperlink ref="B61" location="stg_dom_sku_tipo_servico!A1" display="stg_dom_sku_tipo_servico"/>
-    <hyperlink ref="B62" location="stg_dom_sku_unidade_medida!A1" display="stg_dom_sku_unidade_medida"/>
-    <hyperlink ref="B63" location="stg_dom_status!A1" display="stg_dom_status"/>
-    <hyperlink ref="B64" location="stg_dom_tipo_documento!A1" display="stg_dom_tipo_documento"/>
-    <hyperlink ref="B65" location="stg_dom_tipo_entrega!A1" display="stg_dom_tipo_entrega"/>
-    <hyperlink ref="B66" location="stg_dom_tipo_nota_fiscal!A1" display="stg_dom_tipo_nota_fiscal"/>
-    <hyperlink ref="B67" location="stg_dom_tipo_transacao!A1" display="stg_dom_tipo_transacao"/>
-    <hyperlink ref="B68" location="stg_dom_tipo_transporte!A1" display="stg_dom_tipo_transporte"/>
-    <hyperlink ref="B69" location="stg_dom_transacao!A1" display="stg_dom_transacao"/>
-    <hyperlink ref="B70" location="stg_dom_trk_cod_sist_fonte!A1" display="stg_dom_trk_codigo_sistema_fonte"/>
-    <hyperlink ref="B71" location="stg_dom_unidade_negocio!A1" display="stg_dom_unidade_negocio"/>
-    <hyperlink ref="B73" location="stg_dom_wms_planta!A1" display="stg_dom_wms_planta"/>
+    <hyperlink ref="B29" location="stg_dom_nfr_motivo_devolucao!A1" display="stg_dom_nfr_motivo_devolucao"/>
+    <hyperlink ref="B30" location="stg_dom_nfr_tipo_operacao!A1" display="stg_dom_nfr_tipo_operacao"/>
+    <hyperlink ref="B31" location="stg_dom_nfv_cancelamento!A1" display="stg_dom_nfv_cancelamento"/>
+    <hyperlink ref="B32" location="stg_dom_nfv_status_sefaz!A1" display="stg_dom_nfv_status_sefaz"/>
+    <hyperlink ref="B33" location="stg_dom_orc_tipo!A1" display="stg_dom_orc_tipo"/>
+    <hyperlink ref="B34" location="stg_dom_parceiro_cadastro!A1" display="stg_dom_parceiro_cadastro"/>
+    <hyperlink ref="B35" location="stg_dom_parceiro_endereco!A1" display="stg_dom_parceiro_endereco"/>
+    <hyperlink ref="B36" location="stg_dom_parceiro_tipo_cadastro!A1" display="stg_dom_parceiro_tipo_cadastro"/>
+    <hyperlink ref="B37" location="stg_dom_parceiro_tipo_cliente!A1" display="stg_dom_parceiro_tipo_cliente"/>
+    <hyperlink ref="B38" location="stg_dom_pec_documento_fiscal!A1" display="stg_dom_pec_documento_fiscal"/>
+    <hyperlink ref="B39" location="stg_dom_pec_status_item!A1" display="stg_dom_pec_status_item"/>
+    <hyperlink ref="B40" location="stg_dom_parceiro_tipo_cadastro!A1" display="stg_dom_pec_tipo_cadastro"/>
+    <hyperlink ref="B41" location="stg_dom_pec_tipo_frete!A1" display="stg_dom_pec_tipo_frete"/>
+    <hyperlink ref="B42" location="stg_dom_pec_tipo_ordem_compra!A1" display="stg_dom_pec_tipo_ordem_compra"/>
+    <hyperlink ref="B43" location="stg_dom_pev_origem!A1" display="stg_dom_pev_origem"/>
+    <hyperlink ref="B44" location="stg_dom_pev_status_pagamento!A1" display="stg_dom_pev_status_pagamento"/>
+    <hyperlink ref="B45" location="stg_dom_pev_tipo_pedido!A1" display="stg_dom_pev_tipo_pedido"/>
+    <hyperlink ref="B46" location="stg_dom_situacao_nf!A1" display="stg_dom_situacao_nf"/>
+    <hyperlink ref="B47" location="stg_dom_situacao_pagamento!A1" display="stg_dom_situacao_pagamento"/>
+    <hyperlink ref="B48" location="stg_dom_situacao_pedido!A1" display="stg_dom_situacao_pedido"/>
+    <hyperlink ref="B49" location="stg_dom_situacao_titulo!A1" display="stg_dom_situacao_titulo"/>
+    <hyperlink ref="B50" location="stg_dom_sku_categoria!A1" display="stg_dom_sku_categoria"/>
+    <hyperlink ref="B51" location="stg_dom_sku_controle!A1" display="stg_dom_sku_controle"/>
+    <hyperlink ref="B52" location="stg_dom_sku_departamento!A1" display="stg_dom_sku_departamento"/>
+    <hyperlink ref="B53" location="stg_dom_sku_ean!A1" display="stg_dom_sku_ean"/>
+    <hyperlink ref="B54" location="stg_dom_sku_familia!A1" display="stg_dom_sku_familia"/>
+    <hyperlink ref="B55" location="stg_dom_sku_genero!A1" display="stg_dom_sku_genero"/>
+    <hyperlink ref="B56" location="stg_dom_sku_kit!A1" display="stg_dom_sku_kit"/>
+    <hyperlink ref="B57" location="stg_dom_sku_nproduto!A1" display="stg_dom_sku_nproduto"/>
+    <hyperlink ref="B58" location="stg_dom_sku_procedencia!A1" display="stg_dom_sku_procedencia"/>
+    <hyperlink ref="B59" location="stg_dom_sku_setor!A1" display="stg_dom_sku_setor"/>
+    <hyperlink ref="B60" location="stg_dom_sku_situacao!A1" display="stg_dom_sku_situacao"/>
+    <hyperlink ref="B61" location="stg_dom_sku_subfamilia!A1" display="stg_dom_sku_subfamilia"/>
+    <hyperlink ref="B62" location="stg_dom_sku_tipo_servico!A1" display="stg_dom_sku_tipo_servico"/>
+    <hyperlink ref="B63" location="stg_dom_sku_unidade_medida!A1" display="stg_dom_sku_unidade_medida"/>
+    <hyperlink ref="B64" location="stg_dom_status!A1" display="stg_dom_status"/>
+    <hyperlink ref="B65" location="stg_dom_tipo_documento!A1" display="stg_dom_tipo_documento"/>
+    <hyperlink ref="B66" location="stg_dom_tipo_entrega!A1" display="stg_dom_tipo_entrega"/>
+    <hyperlink ref="B67" location="stg_dom_tipo_nota_fiscal!A1" display="stg_dom_tipo_nota_fiscal"/>
+    <hyperlink ref="B68" location="stg_dom_tipo_transacao!A1" display="stg_dom_tipo_transacao"/>
+    <hyperlink ref="B69" location="stg_dom_tipo_transporte!A1" display="stg_dom_tipo_transporte"/>
+    <hyperlink ref="B70" location="stg_dom_transacao!A1" display="stg_dom_transacao"/>
+    <hyperlink ref="B71" location="stg_dom_trk_cod_sist_fonte!A1" display="stg_dom_trk_codigo_sistema_fonte"/>
+    <hyperlink ref="B72" location="stg_dom_unidade_negocio!A1" display="stg_dom_unidade_negocio"/>
+    <hyperlink ref="B74" location="stg_dom_wms_planta!A1" display="stg_dom_wms_planta"/>
+    <hyperlink ref="B28" location="stg_dom_nfe_status_rascunho!A1" display="stg_dom_nfe_status_rascunho"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -13428,9 +13505,7 @@
   </sheetPr>
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -13938,6 +14013,200 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:AA25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="N1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" ht="21">
+      <c r="A2" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" ht="21">
+      <c r="A3" s="64" t="s">
+        <v>799</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="5" spans="1:27" ht="11.25" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="28" t="s">
+        <v>708</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="16" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="1"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="1"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="1"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="1"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="B16" s="6"/>
+      <c r="C16" s="1"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" ht="11.25" customHeight="1">
+      <c r="A18" s="85" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B18" s="85"/>
+      <c r="D18" s="68" t="s">
+        <v>709</v>
+      </c>
+      <c r="E18" s="68" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="E25" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A18:B20"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -14312,7 +14581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -14400,10 +14669,10 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1013</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="D6" s="36" t="s">
         <v>785</v>
       </c>
@@ -14525,10 +14794,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>1586</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>709</v>
@@ -14536,21 +14805,21 @@
       <c r="E19" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F19" s="98" t="s">
+      <c r="F19" s="100" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="99"/>
+      <c r="F20" s="101"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:6">
@@ -14567,10 +14836,10 @@
       <c r="F23" s="48"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="98" t="s">
         <v>1015</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="98"/>
       <c r="D25" s="36" t="s">
         <v>785</v>
       </c>
@@ -14692,10 +14961,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="99" t="s">
         <v>1586</v>
       </c>
-      <c r="B38" s="101"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="46"/>
       <c r="D38" s="68" t="s">
         <v>709</v>
@@ -14703,21 +14972,21 @@
       <c r="E38" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F38" s="98" t="s">
+      <c r="F38" s="100" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="101"/>
-      <c r="B39" s="101"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="46"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="99"/>
+      <c r="F39" s="101"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:6">
@@ -14727,11 +14996,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A38:B40"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A2:B2"/>
@@ -14739,370 +15003,15 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A38:B40"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:W49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="11.25">
-      <c r="C1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="W1" s="2"/>
-    </row>
-    <row r="2" spans="1:23" s="1" customFormat="1" ht="21">
-      <c r="A2" s="64" t="s">
-        <v>381</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="3" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="21">
-      <c r="A3" s="64" t="s">
-        <v>799</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="11.25">
-      <c r="C4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="11.25">
-      <c r="G5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="T5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" s="13" customFormat="1" ht="11.25">
-      <c r="A6" s="34" t="s">
-        <v>830</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" s="13" customFormat="1" ht="11.25">
-      <c r="A7" s="33">
-        <v>1</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="13" customFormat="1" ht="11.25">
-      <c r="A8" s="33">
-        <v>2</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" s="13" customFormat="1" ht="11.25">
-      <c r="A9" s="33"/>
-    </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="11.25">
-      <c r="G10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="T10" s="2"/>
-    </row>
-    <row r="11" spans="1:23" s="1" customFormat="1" ht="11.25">
-      <c r="A11" s="68" t="s">
-        <v>835</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>480</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="T11" s="2"/>
-    </row>
-    <row r="12" spans="1:23" s="1" customFormat="1" ht="11.25">
-      <c r="A12" s="68"/>
-      <c r="B12" s="68"/>
-      <c r="G12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="T12" s="2"/>
-    </row>
-    <row r="13" spans="1:23" s="1" customFormat="1" ht="11.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="68"/>
-      <c r="G13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="T13" s="2"/>
-    </row>
-    <row r="14" spans="1:23" s="1" customFormat="1" ht="11.25">
-      <c r="G14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="G15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="T15" s="2"/>
-    </row>
-    <row r="16" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="G16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="T16" s="2"/>
-    </row>
-    <row r="17" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="G17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="T17" s="2"/>
-    </row>
-    <row r="18" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="W18" s="2"/>
-    </row>
-    <row r="19" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="W19" s="2"/>
-    </row>
-    <row r="20" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="W20" s="2"/>
-    </row>
-    <row r="21" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="W21" s="2"/>
-    </row>
-    <row r="22" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="W22" s="2"/>
-    </row>
-    <row r="23" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="W23" s="2"/>
-    </row>
-    <row r="24" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="W24" s="2"/>
-    </row>
-    <row r="25" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="W25" s="2"/>
-    </row>
-    <row r="26" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="W26" s="2"/>
-    </row>
-    <row r="27" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="W27" s="2"/>
-    </row>
-    <row r="28" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="W28" s="2"/>
-    </row>
-    <row r="29" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="W29" s="2"/>
-    </row>
-    <row r="30" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="W30" s="2"/>
-    </row>
-    <row r="31" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="W31" s="2"/>
-    </row>
-    <row r="32" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="W32" s="2"/>
-    </row>
-    <row r="33" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="W33" s="2"/>
-    </row>
-    <row r="34" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="W34" s="2"/>
-    </row>
-    <row r="35" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="W35" s="2"/>
-    </row>
-    <row r="36" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="W36" s="2"/>
-    </row>
-    <row r="37" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="W37" s="2"/>
-    </row>
-    <row r="38" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="W38" s="2"/>
-    </row>
-    <row r="39" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="W39" s="2"/>
-    </row>
-    <row r="40" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="W40" s="2"/>
-    </row>
-    <row r="41" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="C41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="3:23" s="1" customFormat="1" ht="11.25">
-      <c r="C42" s="6"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="J42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="3:23" s="1" customFormat="1" ht="11.25">
-      <c r="C43" s="6"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="J43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="W43" s="2"/>
-    </row>
-    <row r="44" spans="3:23" s="1" customFormat="1" ht="11.25">
-      <c r="C44" s="6"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="J44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="W44" s="2"/>
-    </row>
-    <row r="45" spans="3:23" s="1" customFormat="1" ht="11.25">
-      <c r="C45" s="6"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="J45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="W45" s="2"/>
-    </row>
-    <row r="46" spans="3:23" s="1" customFormat="1" ht="11.25">
-      <c r="C46" s="6"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97"/>
-      <c r="J46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="W46" s="2"/>
-    </row>
-    <row r="47" spans="3:23" s="1" customFormat="1" ht="11.25">
-      <c r="C47" s="6"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="J47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="W47" s="2"/>
-    </row>
-    <row r="48" spans="3:23" s="1" customFormat="1" ht="11.25">
-      <c r="C48" s="6"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-      <c r="J48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="W48" s="2"/>
-    </row>
-    <row r="49" spans="3:23" s="1" customFormat="1" ht="11.25">
-      <c r="C49" s="6"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="J49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="W49" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -15961,6 +15870,366 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
+  <dimension ref="A1:W49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="11.25">
+      <c r="C1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" s="1" customFormat="1" ht="21">
+      <c r="A2" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="21">
+      <c r="A3" s="64" t="s">
+        <v>799</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="11.25">
+      <c r="C4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="W4" s="2"/>
+    </row>
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="11.25">
+      <c r="G5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:23" s="13" customFormat="1" ht="11.25">
+      <c r="A6" s="34" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="13" customFormat="1" ht="11.25">
+      <c r="A7" s="33">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="13" customFormat="1" ht="11.25">
+      <c r="A8" s="33">
+        <v>2</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="13" customFormat="1" ht="11.25">
+      <c r="A9" s="33"/>
+    </row>
+    <row r="10" spans="1:23" s="1" customFormat="1" ht="11.25">
+      <c r="G10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" s="1" customFormat="1" ht="11.25">
+      <c r="A11" s="68" t="s">
+        <v>835</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>480</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" s="1" customFormat="1" ht="11.25">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="G12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" s="1" customFormat="1" ht="11.25">
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="G13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" s="1" customFormat="1" ht="11.25">
+      <c r="G14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="G15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="G16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="G17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="W22" s="2"/>
+    </row>
+    <row r="23" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="W25" s="2"/>
+    </row>
+    <row r="26" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="W27" s="2"/>
+    </row>
+    <row r="28" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="W28" s="2"/>
+    </row>
+    <row r="29" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="W29" s="2"/>
+    </row>
+    <row r="30" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="W31" s="2"/>
+    </row>
+    <row r="32" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="W32" s="2"/>
+    </row>
+    <row r="33" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="W33" s="2"/>
+    </row>
+    <row r="34" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="W34" s="2"/>
+    </row>
+    <row r="35" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="W35" s="2"/>
+    </row>
+    <row r="36" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="W36" s="2"/>
+    </row>
+    <row r="37" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="W37" s="2"/>
+    </row>
+    <row r="38" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="W38" s="2"/>
+    </row>
+    <row r="39" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="W39" s="2"/>
+    </row>
+    <row r="40" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="W40" s="2"/>
+    </row>
+    <row r="41" spans="3:23" s="1" customFormat="1" ht="11.25" customHeight="1">
+      <c r="C41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="W41" s="2"/>
+    </row>
+    <row r="42" spans="3:23" s="1" customFormat="1" ht="11.25">
+      <c r="C42" s="6"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="J42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="W42" s="2"/>
+    </row>
+    <row r="43" spans="3:23" s="1" customFormat="1" ht="11.25">
+      <c r="C43" s="6"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="J43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="W43" s="2"/>
+    </row>
+    <row r="44" spans="3:23" s="1" customFormat="1" ht="11.25">
+      <c r="C44" s="6"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="J44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="W44" s="2"/>
+    </row>
+    <row r="45" spans="3:23" s="1" customFormat="1" ht="11.25">
+      <c r="C45" s="6"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="J45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="W45" s="2"/>
+    </row>
+    <row r="46" spans="3:23" s="1" customFormat="1" ht="11.25">
+      <c r="C46" s="6"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
+      <c r="J46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="W46" s="2"/>
+    </row>
+    <row r="47" spans="3:23" s="1" customFormat="1" ht="11.25">
+      <c r="C47" s="6"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="J47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="W47" s="2"/>
+    </row>
+    <row r="48" spans="3:23" s="1" customFormat="1" ht="11.25">
+      <c r="C48" s="6"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
+      <c r="J48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="W48" s="2"/>
+    </row>
+    <row r="49" spans="3:23" s="1" customFormat="1" ht="11.25">
+      <c r="C49" s="6"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="97"/>
+      <c r="J49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="W49" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D42:E42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16253,7 +16522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -16663,7 +16932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -17221,17 +17490,17 @@
       <c r="A19" s="104" t="s">
         <v>915</v>
       </c>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="107"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="106"/>
       <c r="I19" s="104" t="s">
         <v>916</v>
       </c>
-      <c r="J19" s="107"/>
+      <c r="J19" s="106"/>
       <c r="K19" s="104" t="s">
         <v>919</v>
       </c>
@@ -17239,32 +17508,32 @@
       <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:15" ht="11.25" customHeight="1">
-      <c r="A20" s="105"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="105"/>
+      <c r="A20" s="107"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="107"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="106"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="106"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="110"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
     </row>
@@ -17505,29 +17774,29 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J25"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="A19:H21"/>
     <mergeCell ref="F22:F25"/>
     <mergeCell ref="G22:G25"/>
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="E22:E25"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -18580,6 +18849,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="P22:P25"/>
     <mergeCell ref="Q22:Q25"/>
     <mergeCell ref="A19:C21"/>
@@ -18596,19 +18871,13 @@
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="D22:D25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -18847,7 +19116,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -18998,7 +19267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -19195,7 +19464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -19437,7 +19706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -19803,7 +20072,308 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:AG26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
+    <col min="2" max="6" width="26.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="T1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="AG1" s="2"/>
+    </row>
+    <row r="2" spans="1:33" ht="21">
+      <c r="A2" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="AG2" s="2"/>
+    </row>
+    <row r="3" spans="1:33" ht="21">
+      <c r="A3" s="64" t="s">
+        <v>799</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="11.25" customHeight="1">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75">
+      <c r="A26" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -20103,308 +20673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:AG26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
-    <col min="2" max="6" width="26.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33">
-      <c r="T1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="AG1" s="2"/>
-    </row>
-    <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="64" t="s">
-        <v>381</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="T2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="AG2" s="2"/>
-    </row>
-    <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="64" t="s">
-        <v>799</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="3" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" ht="11.25" customHeight="1">
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:33">
-      <c r="A6" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:33">
-      <c r="A7" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:33">
-      <c r="A8" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:33">
-      <c r="A9" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="A10" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:33">
-      <c r="A11" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:33">
-      <c r="A12" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="A13" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="A14" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="A15" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:33">
-      <c r="A16" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75">
-      <c r="A26" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>410</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -20624,7 +20893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -20961,7 +21230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -21281,7 +21550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -21435,7 +21704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -21523,10 +21792,10 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1119</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="D6" s="36" t="s">
         <v>1115</v>
       </c>
@@ -21625,30 +21894,30 @@
       <c r="E15" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F15" s="98" t="s">
+      <c r="F15" s="100" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="16" spans="1:32">
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
-      <c r="F16" s="99"/>
+      <c r="F16" s="101"/>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>1586</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:6">
@@ -21665,10 +21934,10 @@
       <c r="F23" s="48"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="98" t="s">
         <v>1120</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="98"/>
       <c r="D25" s="36" t="s">
         <v>1115</v>
       </c>
@@ -21774,30 +22043,30 @@
       <c r="E36" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F36" s="98" t="s">
+      <c r="F36" s="100" t="s">
         <v>1122</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="D37" s="68"/>
       <c r="E37" s="68"/>
-      <c r="F37" s="99"/>
+      <c r="F37" s="101"/>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="99" t="s">
         <v>1586</v>
       </c>
-      <c r="B38" s="101"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="46"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="101"/>
-      <c r="B39" s="101"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="46"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:6">
@@ -21807,6 +22076,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A38:B40"/>
@@ -21814,11 +22088,6 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A19:B21"/>
-    <mergeCell ref="D15:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21826,7 +22095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -21914,10 +22183,10 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1124</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="D6" s="36" t="s">
         <v>1128</v>
       </c>
@@ -22017,10 +22286,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>1586</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>709</v>
@@ -22028,21 +22297,21 @@
       <c r="E19" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F19" s="98" t="s">
+      <c r="F19" s="100" t="s">
         <v>1125</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="99"/>
+      <c r="F20" s="101"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:6">
@@ -22059,10 +22328,10 @@
       <c r="F23" s="48"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="98" t="s">
         <v>1126</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="98"/>
       <c r="D25" s="36" t="s">
         <v>1128</v>
       </c>
@@ -22173,10 +22442,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="99" t="s">
         <v>1586</v>
       </c>
-      <c r="B38" s="101"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="46"/>
       <c r="D38" s="68" t="s">
         <v>709</v>
@@ -22184,21 +22453,21 @@
       <c r="E38" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F38" s="98" t="s">
+      <c r="F38" s="100" t="s">
         <v>1127</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="101"/>
-      <c r="B39" s="101"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="46"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="99"/>
+      <c r="F39" s="101"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:6">
@@ -22208,18 +22477,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A19:B21"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="A38:B40"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A19:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22227,7 +22496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -22295,10 +22564,10 @@
       <c r="L3" s="13"/>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1139</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="14"/>
       <c r="D6" s="36" t="s">
         <v>1136</v>
@@ -22474,10 +22743,10 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>1586</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>709</v>
@@ -22485,23 +22754,23 @@
       <c r="E19" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F19" s="98" t="s">
+      <c r="F19" s="100" t="s">
         <v>1138</v>
       </c>
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="99"/>
+      <c r="F20" s="101"/>
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -22536,10 +22805,10 @@
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="98" t="s">
         <v>1140</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="14"/>
       <c r="D25" s="36" t="s">
         <v>1136</v>
@@ -22721,10 +22990,10 @@
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="99" t="s">
         <v>1586</v>
       </c>
-      <c r="B38" s="101"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="46"/>
       <c r="D38" s="68" t="s">
         <v>709</v>
@@ -22732,23 +23001,23 @@
       <c r="E38" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F38" s="98" t="s">
+      <c r="F38" s="100" t="s">
         <v>1141</v>
       </c>
       <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="101"/>
-      <c r="B39" s="101"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="46"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="99"/>
+      <c r="F39" s="101"/>
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="46"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -22785,7 +23054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -22850,10 +23119,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1124</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="14"/>
       <c r="D6" s="36" t="s">
         <v>1144</v>
@@ -23012,10 +23281,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>1586</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>709</v>
@@ -23023,25 +23292,25 @@
       <c r="E19" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F19" s="98" t="s">
+      <c r="F19" s="100" t="s">
         <v>1125</v>
       </c>
       <c r="G19" s="13"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="99"/>
+      <c r="F20" s="101"/>
       <c r="G20" s="13"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -23080,10 +23349,10 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="98" t="s">
         <v>1143</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="14"/>
       <c r="D25" s="36" t="s">
         <v>1144</v>
@@ -23272,10 +23541,10 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="99" t="s">
         <v>1586</v>
       </c>
-      <c r="B38" s="101"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="46"/>
       <c r="D38" s="68" t="s">
         <v>709</v>
@@ -23283,25 +23552,25 @@
       <c r="E38" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F38" s="98" t="s">
+      <c r="F38" s="100" t="s">
         <v>1142</v>
       </c>
       <c r="G38" s="13"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="101"/>
-      <c r="B39" s="101"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="46"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="99"/>
+      <c r="F39" s="101"/>
       <c r="G39" s="13"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="46"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -23336,6 +23605,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A38:B40"/>
+    <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="A19:B21"/>
@@ -23343,11 +23617,6 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A38:B40"/>
-    <mergeCell ref="D38:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -23355,7 +23624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -23422,10 +23691,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1157</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="14"/>
       <c r="D6" s="19" t="s">
         <v>484</v>
@@ -23584,10 +23853,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>1586</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>1158</v>
@@ -23602,8 +23871,8 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -23612,8 +23881,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -23640,278 +23909,6 @@
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="E19:E21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A2:L22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="21.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:12" ht="21">
-      <c r="A2" s="64" t="s">
-        <v>381</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="3" t="s">
-        <v>1527</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="21">
-      <c r="A3" s="64" t="s">
-        <v>799</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="100" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="19" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>1173</v>
-      </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14">
-        <v>2</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>1175</v>
-      </c>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14">
-        <v>3</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14">
-        <v>4</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>1177</v>
-      </c>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14">
-        <v>5</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14">
-        <v>6</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>1179</v>
-      </c>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14">
-        <v>10</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14">
-        <v>20</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>1181</v>
-      </c>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
-        <v>1586</v>
-      </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="68" t="s">
-        <v>1183</v>
-      </c>
-      <c r="E19" s="68" t="s">
-        <v>1184</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="G20" s="13"/>
-      <c r="L20" s="2"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="G21" s="13"/>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="L22" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A19:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -24286,6 +24283,278 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A2:L22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" ht="21">
+      <c r="A2" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" ht="21">
+      <c r="A3" s="64" t="s">
+        <v>799</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="98" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B6" s="98"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="19" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14">
+        <v>2</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14">
+        <v>3</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14">
+        <v>4</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14">
+        <v>5</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14">
+        <v>6</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14">
+        <v>20</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" ht="11.25" customHeight="1">
+      <c r="A19" s="99" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B19" s="99"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="68" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="G20" s="13"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="G21" s="13"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="L22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -24554,7 +24823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -24808,7 +25077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -25195,7 +25464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -25259,10 +25528,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1157</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>1261</v>
@@ -25418,10 +25687,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>1586</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1065</v>
@@ -25433,8 +25702,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -25442,8 +25711,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -25474,7 +25743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -25809,7 +26078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -26113,7 +26382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -26177,10 +26446,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1157</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>1304</v>
@@ -26340,10 +26609,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>1586</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1065</v>
@@ -26355,8 +26624,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -26364,8 +26633,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -26396,7 +26665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -26742,7 +27011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -27087,7 +27356,137 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:AG17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="26.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="T1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="AG1" s="2"/>
+    </row>
+    <row r="2" spans="1:33" ht="21">
+      <c r="A2" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="AG2" s="2"/>
+    </row>
+    <row r="3" spans="1:33" ht="21">
+      <c r="A3" s="64" t="s">
+        <v>799</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="68" t="s">
+        <v>462</v>
+      </c>
+      <c r="B13" s="68"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A13:B17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -27539,137 +27938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:AG17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="26.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33">
-      <c r="T1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="AG1" s="2"/>
-    </row>
-    <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="64" t="s">
-        <v>381</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="T2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="AG2" s="2"/>
-    </row>
-    <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="64" t="s">
-        <v>799</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
-      <c r="A6" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="A13" s="68" t="s">
-        <v>462</v>
-      </c>
-      <c r="B13" s="68"/>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-    </row>
-    <row r="16" spans="1:33">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A13:B17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -28180,7 +28449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -28506,7 +28775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -28832,7 +29101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -28896,10 +29165,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1157</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>1381</v>
@@ -29059,10 +29328,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>1586</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1065</v>
@@ -29074,8 +29343,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -29083,8 +29352,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -29115,7 +29384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -29439,289 +29708,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A2:K22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="21.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="64" t="s">
-        <v>381</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="3" t="s">
-        <v>1543</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="64" t="s">
-        <v>799</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="100" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="16" t="s">
-        <v>643</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>644</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
-        <v>1586</v>
-      </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="116" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E19" s="68" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="13"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="13"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="K22" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A19:B21"/>
-    <mergeCell ref="D19:D21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
@@ -29755,7 +29741,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -29786,16 +29772,16 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1157</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
-        <v>1404</v>
+        <v>643</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>1405</v>
+        <v>644</v>
       </c>
       <c r="F6" s="13"/>
       <c r="K6" s="2"/>
@@ -29808,7 +29794,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1406</v>
+        <v>165</v>
       </c>
       <c r="F7" s="13"/>
       <c r="K7" s="2"/>
@@ -29821,7 +29807,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1407</v>
+        <v>166</v>
       </c>
       <c r="F8" s="13"/>
       <c r="K8" s="2"/>
@@ -29834,7 +29820,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>1408</v>
+        <v>167</v>
       </c>
       <c r="F9" s="13"/>
       <c r="K9" s="2"/>
@@ -29847,7 +29833,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>1409</v>
+        <v>168</v>
       </c>
       <c r="F10" s="13"/>
       <c r="K10" s="2"/>
@@ -29860,7 +29846,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>1410</v>
+        <v>169</v>
       </c>
       <c r="F11" s="13"/>
       <c r="K11" s="2"/>
@@ -29873,7 +29859,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>1411</v>
+        <v>170</v>
       </c>
       <c r="F12" s="13"/>
       <c r="K12" s="2"/>
@@ -29886,7 +29872,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>1412</v>
+        <v>171</v>
       </c>
       <c r="F13" s="13"/>
       <c r="K13" s="2"/>
@@ -29899,7 +29885,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>1413</v>
+        <v>172</v>
       </c>
       <c r="F14" s="13"/>
       <c r="K14" s="2"/>
@@ -29912,7 +29898,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>1414</v>
+        <v>173</v>
       </c>
       <c r="F15" s="13"/>
       <c r="K15" s="2"/>
@@ -29925,7 +29911,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="F16" s="13"/>
       <c r="K16" s="2"/>
@@ -29949,10 +29935,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>1586</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1065</v>
@@ -29964,8 +29950,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -29973,8 +29959,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -30038,7 +30024,7 @@
       </c>
       <c r="B2" s="64"/>
       <c r="C2" s="3" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -30069,16 +30055,16 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="98" t="s">
         <v>1157</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
-        <v>1416</v>
+        <v>1404</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>1417</v>
+        <v>1405</v>
       </c>
       <c r="F6" s="13"/>
       <c r="K6" s="2"/>
@@ -30091,7 +30077,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>1418</v>
+        <v>1406</v>
       </c>
       <c r="F7" s="13"/>
       <c r="K7" s="2"/>
@@ -30104,7 +30090,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>1419</v>
+        <v>1407</v>
       </c>
       <c r="F8" s="13"/>
       <c r="K8" s="2"/>
@@ -30113,8 +30099,12 @@
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1408</v>
+      </c>
       <c r="F9" s="13"/>
       <c r="K9" s="2"/>
     </row>
@@ -30122,8 +30112,12 @@
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>1409</v>
+      </c>
       <c r="F10" s="13"/>
       <c r="K10" s="2"/>
     </row>
@@ -30131,8 +30125,12 @@
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>1410</v>
+      </c>
       <c r="F11" s="13"/>
       <c r="K11" s="2"/>
     </row>
@@ -30140,8 +30138,12 @@
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>1411</v>
+      </c>
       <c r="F12" s="13"/>
       <c r="K12" s="2"/>
     </row>
@@ -30149,8 +30151,12 @@
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>1412</v>
+      </c>
       <c r="F13" s="13"/>
       <c r="K13" s="2"/>
     </row>
@@ -30158,8 +30164,12 @@
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>1413</v>
+      </c>
       <c r="F14" s="13"/>
       <c r="K14" s="2"/>
     </row>
@@ -30167,8 +30177,12 @@
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>1414</v>
+      </c>
       <c r="F15" s="13"/>
       <c r="K15" s="2"/>
     </row>
@@ -30176,8 +30190,12 @@
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="F16" s="13"/>
       <c r="K16" s="2"/>
     </row>
@@ -30200,10 +30218,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="99" t="s">
         <v>1586</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1065</v>
@@ -30215,8 +30233,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -30224,8 +30242,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -30257,6 +30275,257 @@
 </file>
 
 <file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A2:K22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="21">
+      <c r="A2" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="21">
+      <c r="A3" s="64" t="s">
+        <v>799</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="98" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B6" s="98"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="16" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="13"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="13"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="13"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="13"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="13"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="13"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="13"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="13"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" ht="11.25" customHeight="1">
+      <c r="A19" s="99" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B19" s="99"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="116" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E19" s="68" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="13"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="13"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="K22" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="D19:D21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -30656,7 +30925,231 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:AD28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="Q1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="AD1" s="2"/>
+    </row>
+    <row r="2" spans="1:30" ht="21">
+      <c r="A2" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="B2" s="64"/>
+      <c r="C2" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="AD2" s="2"/>
+    </row>
+    <row r="3" spans="1:30" ht="21">
+      <c r="A3" s="64" t="s">
+        <v>799</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="5" spans="1:30" ht="11.25" customHeight="1"/>
+    <row r="6" spans="1:30" ht="11.25" customHeight="1">
+      <c r="A6" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="68" t="s">
+        <v>466</v>
+      </c>
+      <c r="B24" s="68"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A24:B28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -30899,231 +31392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:AD28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30">
-      <c r="Q1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="AD1" s="2"/>
-    </row>
-    <row r="2" spans="1:30" ht="21">
-      <c r="A2" s="64" t="s">
-        <v>381</v>
-      </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="AD2" s="2"/>
-    </row>
-    <row r="3" spans="1:30" ht="21">
-      <c r="A3" s="64" t="s">
-        <v>799</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="5" spans="1:30" ht="11.25" customHeight="1"/>
-    <row r="6" spans="1:30" ht="11.25" customHeight="1">
-      <c r="A6" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
-      <c r="A8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="68" t="s">
-        <v>466</v>
-      </c>
-      <c r="B24" s="68"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="68"/>
-      <c r="B25" s="68"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="68"/>
-      <c r="B26" s="68"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="68"/>
-      <c r="B27" s="68"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="68"/>
-      <c r="B28" s="68"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A24:B28"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -31448,7 +31717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -31740,8 +32009,8 @@
       <c r="A15" s="90" t="s">
         <v>1581</v>
       </c>
-      <c r="B15" s="124"/>
-      <c r="C15" s="124"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="90" t="s">
         <v>1582</v>
       </c>
@@ -31753,9 +32022,9 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="11.25" customHeight="1">
-      <c r="A16" s="124"/>
-      <c r="B16" s="124"/>
-      <c r="C16" s="124"/>
+      <c r="A16" s="120"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="90"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
@@ -31763,9 +32032,9 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A17" s="124"/>
-      <c r="B17" s="124"/>
-      <c r="C17" s="124"/>
+      <c r="A17" s="120"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="90"/>
       <c r="E17" s="90"/>
       <c r="F17" s="90"/>
@@ -31777,19 +32046,19 @@
       <c r="B18" s="68" t="s">
         <v>585</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="121" t="s">
         <v>1474</v>
       </c>
       <c r="D18" s="88" t="s">
         <v>1584</v>
       </c>
-      <c r="E18" s="121" t="s">
+      <c r="E18" s="122" t="s">
         <v>1583</v>
       </c>
       <c r="F18" s="68" t="s">
         <v>491</v>
       </c>
-      <c r="G18" s="123" t="s">
+      <c r="G18" s="124" t="s">
         <v>1580</v>
       </c>
       <c r="H18" s="68"/>
@@ -31797,34 +32066,34 @@
     <row r="19" spans="1:8">
       <c r="A19" s="68"/>
       <c r="B19" s="68"/>
-      <c r="C19" s="120"/>
+      <c r="C19" s="121"/>
       <c r="D19" s="88"/>
-      <c r="E19" s="121"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="68"/>
-      <c r="G19" s="123"/>
+      <c r="G19" s="124"/>
       <c r="H19" s="68"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="68"/>
       <c r="B20" s="68"/>
-      <c r="C20" s="120"/>
+      <c r="C20" s="121"/>
       <c r="D20" s="88"/>
-      <c r="E20" s="121"/>
+      <c r="E20" s="122"/>
       <c r="F20" s="68"/>
-      <c r="G20" s="123"/>
+      <c r="G20" s="124"/>
       <c r="H20" s="68"/>
     </row>
     <row r="21" spans="1:8">
       <c r="D21" s="88"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="122" t="s">
+      <c r="A22" s="123" t="s">
         <v>1473</v>
       </c>
       <c r="D22" s="88"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="122"/>
+      <c r="A23" s="123"/>
       <c r="D23" s="88"/>
     </row>
     <row r="24" spans="1:8">
@@ -31856,6 +32125,9 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="D18:D32"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A18:A20"/>
@@ -31867,9 +32139,6 @@
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="D18:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Planilhas/Conferencia_DOM.xlsx
+++ b/Documentação/Planilhas/Conferencia_DOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2916" uniqueCount="1595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="1609">
   <si>
     <t>DESCR</t>
   </si>
@@ -4918,6 +4918,48 @@
   </si>
   <si>
     <t>stg_dom_tipo_operacao</t>
+  </si>
+  <si>
+    <t>CD_BANDEIRA_SITE</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna Cód. Bandeira Site</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Clube Extra</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>BNDES</t>
+  </si>
+  <si>
+    <t>51</t>
   </si>
 </sst>
 </file>
@@ -5600,18 +5642,6 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5652,6 +5682,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7131,11 +7173,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14946,9 +14988,11 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AE97"/>
+  <dimension ref="A1:AE99"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -15010,6 +15054,9 @@
       <c r="B6" s="16" t="s">
         <v>230</v>
       </c>
+      <c r="C6" s="16" t="s">
+        <v>1595</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -15021,7 +15068,9 @@
       <c r="B7" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -15034,6 +15083,9 @@
       <c r="B8" s="4" t="s">
         <v>232</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -15045,6 +15097,9 @@
       <c r="B9" s="4" t="s">
         <v>233</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -15056,6 +15111,9 @@
       <c r="B10" s="4" t="s">
         <v>234</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -15067,6 +15125,9 @@
       <c r="B11" s="4" t="s">
         <v>235</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -15078,6 +15139,9 @@
       <c r="B12" s="4" t="s">
         <v>236</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -15089,6 +15153,9 @@
       <c r="B13" s="4" t="s">
         <v>385</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>1597</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -15100,6 +15167,9 @@
       <c r="B14" s="4" t="s">
         <v>386</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -15111,6 +15181,9 @@
       <c r="B15" s="4" t="s">
         <v>386</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>1598</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -15122,6 +15195,9 @@
       <c r="B16" s="4" t="s">
         <v>387</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -15133,6 +15209,9 @@
       <c r="B17" s="4" t="s">
         <v>388</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -15144,6 +15223,9 @@
       <c r="B18" s="4" t="s">
         <v>389</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -15155,6 +15237,9 @@
       <c r="B19" s="4" t="s">
         <v>390</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -15166,164 +15251,82 @@
       <c r="B20" s="4" t="s">
         <v>391</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:30" s="2" customFormat="1">
+    <row r="21" spans="1:30">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>392</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>1599</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-    </row>
-    <row r="22" spans="1:30" s="2" customFormat="1">
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>393</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>1600</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-    </row>
-    <row r="23" spans="1:30" s="2" customFormat="1">
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>394</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-    </row>
-    <row r="24" spans="1:30" s="2" customFormat="1">
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>395</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-    </row>
-    <row r="25" spans="1:30" s="2" customFormat="1">
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>396</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
     </row>
     <row r="26" spans="1:30" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
@@ -15331,6 +15334,9 @@
       </c>
       <c r="B26" s="4" t="s">
         <v>397</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>1601</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -15363,6 +15369,9 @@
       <c r="B27" s="4" t="s">
         <v>398</v>
       </c>
+      <c r="C27" s="2" t="s">
+        <v>1602</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -15394,6 +15403,9 @@
       <c r="B28" s="4" t="s">
         <v>399</v>
       </c>
+      <c r="C28" s="2" t="s">
+        <v>506</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -15418,120 +15430,227 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" s="2" customFormat="1">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>400</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:30">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+    </row>
+    <row r="30" spans="1:30" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>401</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1234</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:30">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+    </row>
+    <row r="31" spans="1:30" s="2" customFormat="1">
+      <c r="A31" s="2" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>1605</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:30" ht="22.5">
-      <c r="A32" s="18" t="s">
-        <v>403</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>404</v>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+    </row>
+    <row r="32" spans="1:30" s="2" customFormat="1">
+      <c r="A32" s="2" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>1608</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="8:10">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="8:10">
+    <row r="34" spans="1:10" ht="22.5">
+      <c r="A34" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>1596</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="8:10">
+    <row r="35" spans="1:10">
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="8:10">
+    <row r="36" spans="1:10">
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="8:10">
+    <row r="37" spans="1:10">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="8:10">
+    <row r="38" spans="1:10">
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="8:10">
+    <row r="39" spans="1:10">
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="8:10">
+    <row r="40" spans="1:10">
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="8:10">
+    <row r="41" spans="1:10">
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="8:10">
+    <row r="42" spans="1:10">
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="8:10">
+    <row r="43" spans="1:10">
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="8:10">
+    <row r="44" spans="1:10">
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="8:10">
+    <row r="45" spans="1:10">
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="8:10">
+    <row r="46" spans="1:10">
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="8:10">
+    <row r="47" spans="1:10">
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="8:10">
+    <row r="48" spans="1:10">
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -15780,6 +15899,16 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="8:10">
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+    </row>
+    <row r="99" spans="8:10">
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16262,10 +16391,10 @@
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A18" s="102" t="s">
+      <c r="A18" s="98" t="s">
         <v>849</v>
       </c>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="98" t="s">
         <v>850</v>
       </c>
       <c r="C18" s="2"/>
@@ -16274,16 +16403,16 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A19" s="103"/>
-      <c r="B19" s="103"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="2"/>
       <c r="J19" s="2"/>
       <c r="L19" s="2"/>
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A20" s="103"/>
-      <c r="B20" s="103"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="2"/>
       <c r="J20" s="2"/>
       <c r="L20" s="2"/>
@@ -17053,53 +17182,53 @@
       <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1">
-      <c r="A19" s="104" t="s">
+      <c r="A19" s="100" t="s">
         <v>914</v>
       </c>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="104" t="s">
+      <c r="B19" s="106"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="100" t="s">
         <v>915</v>
       </c>
-      <c r="J19" s="107"/>
-      <c r="K19" s="104" t="s">
+      <c r="J19" s="103"/>
+      <c r="K19" s="100" t="s">
         <v>918</v>
       </c>
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:15" ht="11.25" customHeight="1">
-      <c r="A20" s="105"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="108"/>
-      <c r="K20" s="105"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="101"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="106"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="106"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="102"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
     </row>
@@ -19157,8 +19286,8 @@
       <c r="A12" s="67" t="s">
         <v>1049</v>
       </c>
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -19183,8 +19312,8 @@
     </row>
     <row r="13" spans="1:33" s="2" customFormat="1">
       <c r="A13" s="67"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -19209,8 +19338,8 @@
     </row>
     <row r="14" spans="1:33" s="2" customFormat="1">
       <c r="A14" s="67"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -19234,31 +19363,31 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="16" spans="1:33">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="110" t="s">
         <v>1050</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="115"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="115"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="115"/>
+      <c r="A18" s="111"/>
+      <c r="B18" s="111"/>
+      <c r="C18" s="111"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="115"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="115"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="115"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="115"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -21358,10 +21487,10 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="112" t="s">
         <v>1118</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="112"/>
       <c r="D6" s="36" t="s">
         <v>1114</v>
       </c>
@@ -21460,30 +21589,30 @@
       <c r="E15" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F15" s="98" t="s">
+      <c r="F15" s="114" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="16" spans="1:32">
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
-      <c r="F16" s="99"/>
+      <c r="F16" s="115"/>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="113" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="46"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
       <c r="C20" s="46"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:6">
@@ -21500,10 +21629,10 @@
       <c r="F23" s="48"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="112" t="s">
         <v>1119</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="112"/>
       <c r="D25" s="36" t="s">
         <v>1114</v>
       </c>
@@ -21609,30 +21738,30 @@
       <c r="E36" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F36" s="98" t="s">
+      <c r="F36" s="114" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="D37" s="68"/>
       <c r="E37" s="68"/>
-      <c r="F37" s="99"/>
+      <c r="F37" s="115"/>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="113" t="s">
         <v>1584</v>
       </c>
-      <c r="B38" s="101"/>
+      <c r="B38" s="113"/>
       <c r="C38" s="46"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="101"/>
-      <c r="B39" s="101"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="46"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="113"/>
       <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:6">
@@ -21749,10 +21878,10 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="112" t="s">
         <v>1123</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="112"/>
       <c r="D6" s="36" t="s">
         <v>1127</v>
       </c>
@@ -21852,10 +21981,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="113" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>709</v>
@@ -21863,21 +21992,21 @@
       <c r="E19" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F19" s="98" t="s">
+      <c r="F19" s="114" t="s">
         <v>1124</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="99"/>
+      <c r="F20" s="115"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:6">
@@ -21894,10 +22023,10 @@
       <c r="F23" s="48"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="112" t="s">
         <v>1125</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="112"/>
       <c r="D25" s="36" t="s">
         <v>1127</v>
       </c>
@@ -22008,10 +22137,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="113" t="s">
         <v>1584</v>
       </c>
-      <c r="B38" s="101"/>
+      <c r="B38" s="113"/>
       <c r="C38" s="46"/>
       <c r="D38" s="68" t="s">
         <v>709</v>
@@ -22019,21 +22148,21 @@
       <c r="E38" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F38" s="98" t="s">
+      <c r="F38" s="114" t="s">
         <v>1126</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="101"/>
-      <c r="B39" s="101"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="46"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="99"/>
+      <c r="F39" s="115"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="113"/>
       <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:6">
@@ -22130,10 +22259,10 @@
       <c r="L3" s="13"/>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="112" t="s">
         <v>1138</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="14"/>
       <c r="D6" s="36" t="s">
         <v>1135</v>
@@ -22309,10 +22438,10 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="113" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>709</v>
@@ -22320,23 +22449,23 @@
       <c r="E19" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F19" s="98" t="s">
+      <c r="F19" s="114" t="s">
         <v>1137</v>
       </c>
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="99"/>
+      <c r="F20" s="115"/>
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="46"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -22371,10 +22500,10 @@
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="112" t="s">
         <v>1139</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="112"/>
       <c r="C25" s="14"/>
       <c r="D25" s="36" t="s">
         <v>1135</v>
@@ -22556,10 +22685,10 @@
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="113" t="s">
         <v>1584</v>
       </c>
-      <c r="B38" s="101"/>
+      <c r="B38" s="113"/>
       <c r="C38" s="46"/>
       <c r="D38" s="68" t="s">
         <v>709</v>
@@ -22567,23 +22696,23 @@
       <c r="E38" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F38" s="98" t="s">
+      <c r="F38" s="114" t="s">
         <v>1140</v>
       </c>
       <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="101"/>
-      <c r="B39" s="101"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="46"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="99"/>
+      <c r="F39" s="115"/>
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="113"/>
       <c r="C40" s="46"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -22685,10 +22814,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="112" t="s">
         <v>1123</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="14"/>
       <c r="D6" s="36" t="s">
         <v>1143</v>
@@ -22847,10 +22976,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="113" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>709</v>
@@ -22858,25 +22987,25 @@
       <c r="E19" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F19" s="98" t="s">
+      <c r="F19" s="114" t="s">
         <v>1124</v>
       </c>
       <c r="G19" s="13"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="99"/>
+      <c r="F20" s="115"/>
       <c r="G20" s="13"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="46"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -22915,10 +23044,10 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="112" t="s">
         <v>1142</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="112"/>
       <c r="C25" s="14"/>
       <c r="D25" s="36" t="s">
         <v>1143</v>
@@ -23107,10 +23236,10 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="113" t="s">
         <v>1584</v>
       </c>
-      <c r="B38" s="101"/>
+      <c r="B38" s="113"/>
       <c r="C38" s="46"/>
       <c r="D38" s="68" t="s">
         <v>709</v>
@@ -23118,25 +23247,25 @@
       <c r="E38" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F38" s="98" t="s">
+      <c r="F38" s="114" t="s">
         <v>1141</v>
       </c>
       <c r="G38" s="13"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="101"/>
-      <c r="B39" s="101"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="46"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="99"/>
+      <c r="F39" s="115"/>
       <c r="G39" s="13"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="113"/>
       <c r="C40" s="46"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -23257,10 +23386,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="112" t="s">
         <v>1156</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="14"/>
       <c r="D6" s="19" t="s">
         <v>484</v>
@@ -23419,10 +23548,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="113" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>1157</v>
@@ -23437,8 +23566,8 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -23447,8 +23576,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="46"/>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -23549,10 +23678,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="112" t="s">
         <v>1156</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="14"/>
       <c r="D6" s="19" t="s">
         <v>1171</v>
@@ -23697,10 +23826,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="113" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>1182</v>
@@ -23712,8 +23841,8 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -23721,8 +23850,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="46"/>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -25094,10 +25223,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="112" t="s">
         <v>1156</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>1260</v>
@@ -25253,10 +25382,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="113" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1064</v>
@@ -25268,8 +25397,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -25277,8 +25406,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -26012,10 +26141,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="112" t="s">
         <v>1156</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>1303</v>
@@ -26175,10 +26304,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="113" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1064</v>
@@ -26190,8 +26319,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -26199,8 +26328,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -28731,10 +28860,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="112" t="s">
         <v>1156</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>1380</v>
@@ -28894,10 +29023,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="113" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1064</v>
@@ -28909,8 +29038,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -28918,8 +29047,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -29338,10 +29467,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="112" t="s">
         <v>1156</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>643</v>
@@ -29501,10 +29630,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="113" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1064</v>
@@ -29516,8 +29645,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -29525,8 +29654,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -29643,10 +29772,10 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="112" t="s">
         <v>1012</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="112"/>
       <c r="D6" s="36" t="s">
         <v>785</v>
       </c>
@@ -29768,10 +29897,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="113" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>709</v>
@@ -29779,21 +29908,21 @@
       <c r="E19" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F19" s="98" t="s">
+      <c r="F19" s="114" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="99"/>
+      <c r="F20" s="115"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:6">
@@ -29810,10 +29939,10 @@
       <c r="F23" s="48"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="112" t="s">
         <v>1014</v>
       </c>
-      <c r="B25" s="100"/>
+      <c r="B25" s="112"/>
       <c r="D25" s="36" t="s">
         <v>785</v>
       </c>
@@ -29935,10 +30064,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="113" t="s">
         <v>1584</v>
       </c>
-      <c r="B38" s="101"/>
+      <c r="B38" s="113"/>
       <c r="C38" s="46"/>
       <c r="D38" s="68" t="s">
         <v>709</v>
@@ -29946,21 +30075,21 @@
       <c r="E38" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F38" s="98" t="s">
+      <c r="F38" s="114" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="101"/>
-      <c r="B39" s="101"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="46"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="99"/>
+      <c r="F39" s="115"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="113"/>
       <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:6">
@@ -30053,10 +30182,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="112" t="s">
         <v>1156</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>1403</v>
@@ -30216,10 +30345,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="113" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1064</v>
@@ -30231,8 +30360,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -30240,8 +30369,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -30336,10 +30465,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="112" t="s">
         <v>1156</v>
       </c>
-      <c r="B6" s="100"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>1415</v>
@@ -30467,10 +30596,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="113" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="113"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1064</v>
@@ -30482,8 +30611,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="101"/>
-      <c r="B20" s="101"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -30491,8 +30620,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="101"/>
-      <c r="B21" s="101"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>

--- a/Documentação/Planilhas/Conferencia_DOM.xlsx
+++ b/Documentação/Planilhas/Conferencia_DOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -5651,28 +5651,28 @@
     <xf numFmtId="49" fontId="7" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5684,17 +5684,17 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5708,12 +5708,6 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5721,6 +5715,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7174,10 +7174,10 @@
   <dimension ref="B1:C75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9659,7 +9659,9 @@
   </sheetPr>
   <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -14061,7 +14063,9 @@
   </sheetPr>
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -14966,11 +14970,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="D42:E42"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
@@ -14978,6 +14977,11 @@
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="D42:E42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14990,7 +14994,7 @@
   </sheetPr>
   <dimension ref="A1:AE99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -17185,17 +17189,17 @@
       <c r="A19" s="100" t="s">
         <v>914</v>
       </c>
-      <c r="B19" s="106"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="106"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="103"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="102"/>
       <c r="I19" s="100" t="s">
         <v>915</v>
       </c>
-      <c r="J19" s="103"/>
+      <c r="J19" s="102"/>
       <c r="K19" s="100" t="s">
         <v>918</v>
       </c>
@@ -17203,32 +17207,32 @@
       <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:15" ht="11.25" customHeight="1">
-      <c r="A20" s="101"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="101"/>
+      <c r="A20" s="103"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="103"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="103"/>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="102"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="102"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="106"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13"/>
     </row>
@@ -17469,22 +17473,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="I19:J21"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J22:J25"/>
     <mergeCell ref="H22:H25"/>
     <mergeCell ref="A19:H21"/>
     <mergeCell ref="F22:F25"/>
     <mergeCell ref="G22:G25"/>
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="E22:E25"/>
-    <mergeCell ref="K19:K21"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="I19:J21"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="C22:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -18544,6 +18548,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
     <mergeCell ref="P22:P25"/>
     <mergeCell ref="Q22:Q25"/>
     <mergeCell ref="A19:C21"/>
@@ -18560,12 +18570,6 @@
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="D22:D25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -19409,7 +19413,7 @@
   <dimension ref="A1:AF22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -21406,7 +21410,7 @@
   </sheetPr>
   <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36:D37"/>
     </sheetView>
   </sheetViews>
@@ -21487,10 +21491,10 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="114" t="s">
         <v>1118</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="114"/>
       <c r="D6" s="36" t="s">
         <v>1114</v>
       </c>
@@ -21589,30 +21593,30 @@
       <c r="E15" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F15" s="114" t="s">
+      <c r="F15" s="112" t="s">
         <v>1120</v>
       </c>
     </row>
     <row r="16" spans="1:32">
       <c r="D16" s="68"/>
       <c r="E16" s="68"/>
-      <c r="F16" s="115"/>
+      <c r="F16" s="113"/>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="115" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="113"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="46"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="46"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:6">
@@ -21629,10 +21633,10 @@
       <c r="F23" s="48"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="114" t="s">
         <v>1119</v>
       </c>
-      <c r="B25" s="112"/>
+      <c r="B25" s="114"/>
       <c r="D25" s="36" t="s">
         <v>1114</v>
       </c>
@@ -21738,30 +21742,30 @@
       <c r="E36" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F36" s="114" t="s">
+      <c r="F36" s="112" t="s">
         <v>1121</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="D37" s="68"/>
       <c r="E37" s="68"/>
-      <c r="F37" s="115"/>
+      <c r="F37" s="113"/>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="113" t="s">
+      <c r="A38" s="115" t="s">
         <v>1584</v>
       </c>
-      <c r="B38" s="113"/>
+      <c r="B38" s="115"/>
       <c r="C38" s="46"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="113"/>
-      <c r="B39" s="113"/>
+      <c r="A39" s="115"/>
+      <c r="B39" s="115"/>
       <c r="C39" s="46"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="113"/>
-      <c r="B40" s="113"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="115"/>
       <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:6">
@@ -21771,6 +21775,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B21"/>
+    <mergeCell ref="D15:D16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A38:B40"/>
@@ -21778,11 +21787,6 @@
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="F36:F37"/>
     <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A19:B21"/>
-    <mergeCell ref="D15:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21797,9 +21801,7 @@
   </sheetPr>
   <dimension ref="A1:AF41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:D39"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -21878,10 +21880,10 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="114" t="s">
         <v>1123</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="114"/>
       <c r="D6" s="36" t="s">
         <v>1127</v>
       </c>
@@ -21981,10 +21983,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="115" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="113"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>709</v>
@@ -21992,21 +21994,21 @@
       <c r="E19" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F19" s="114" t="s">
+      <c r="F19" s="112" t="s">
         <v>1124</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="115"/>
+      <c r="F20" s="113"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:6">
@@ -22023,10 +22025,10 @@
       <c r="F23" s="48"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="114" t="s">
         <v>1125</v>
       </c>
-      <c r="B25" s="112"/>
+      <c r="B25" s="114"/>
       <c r="D25" s="36" t="s">
         <v>1127</v>
       </c>
@@ -22137,10 +22139,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="113" t="s">
+      <c r="A38" s="115" t="s">
         <v>1584</v>
       </c>
-      <c r="B38" s="113"/>
+      <c r="B38" s="115"/>
       <c r="C38" s="46"/>
       <c r="D38" s="68" t="s">
         <v>709</v>
@@ -22148,21 +22150,21 @@
       <c r="E38" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F38" s="114" t="s">
+      <c r="F38" s="112" t="s">
         <v>1126</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="113"/>
-      <c r="B39" s="113"/>
+      <c r="A39" s="115"/>
+      <c r="B39" s="115"/>
       <c r="C39" s="46"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="115"/>
+      <c r="F39" s="113"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="113"/>
-      <c r="B40" s="113"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="115"/>
       <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:6">
@@ -22172,18 +22174,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A19:B21"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="A38:B40"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A19:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22198,7 +22200,7 @@
   </sheetPr>
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
@@ -22259,10 +22261,10 @@
       <c r="L3" s="13"/>
     </row>
     <row r="6" spans="1:33">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="114" t="s">
         <v>1138</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="14"/>
       <c r="D6" s="36" t="s">
         <v>1135</v>
@@ -22438,10 +22440,10 @@
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="115" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="113"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>709</v>
@@ -22449,23 +22451,23 @@
       <c r="E19" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F19" s="114" t="s">
+      <c r="F19" s="112" t="s">
         <v>1137</v>
       </c>
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="115"/>
+      <c r="F20" s="113"/>
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="46"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -22500,10 +22502,10 @@
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="114" t="s">
         <v>1139</v>
       </c>
-      <c r="B25" s="112"/>
+      <c r="B25" s="114"/>
       <c r="C25" s="14"/>
       <c r="D25" s="36" t="s">
         <v>1135</v>
@@ -22685,10 +22687,10 @@
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="113" t="s">
+      <c r="A38" s="115" t="s">
         <v>1584</v>
       </c>
-      <c r="B38" s="113"/>
+      <c r="B38" s="115"/>
       <c r="C38" s="46"/>
       <c r="D38" s="68" t="s">
         <v>709</v>
@@ -22696,23 +22698,23 @@
       <c r="E38" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F38" s="114" t="s">
+      <c r="F38" s="112" t="s">
         <v>1140</v>
       </c>
       <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="113"/>
-      <c r="B39" s="113"/>
+      <c r="A39" s="115"/>
+      <c r="B39" s="115"/>
       <c r="C39" s="46"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="115"/>
+      <c r="F39" s="113"/>
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="113"/>
-      <c r="B40" s="113"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="115"/>
       <c r="C40" s="46"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -22814,10 +22816,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="114" t="s">
         <v>1123</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="14"/>
       <c r="D6" s="36" t="s">
         <v>1143</v>
@@ -22976,10 +22978,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="115" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="113"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>709</v>
@@ -22987,25 +22989,25 @@
       <c r="E19" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F19" s="114" t="s">
+      <c r="F19" s="112" t="s">
         <v>1124</v>
       </c>
       <c r="G19" s="13"/>
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="115"/>
+      <c r="F20" s="113"/>
       <c r="G20" s="13"/>
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="46"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -23044,10 +23046,10 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="114" t="s">
         <v>1142</v>
       </c>
-      <c r="B25" s="112"/>
+      <c r="B25" s="114"/>
       <c r="C25" s="14"/>
       <c r="D25" s="36" t="s">
         <v>1143</v>
@@ -23236,10 +23238,10 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="113" t="s">
+      <c r="A38" s="115" t="s">
         <v>1584</v>
       </c>
-      <c r="B38" s="113"/>
+      <c r="B38" s="115"/>
       <c r="C38" s="46"/>
       <c r="D38" s="68" t="s">
         <v>709</v>
@@ -23247,25 +23249,25 @@
       <c r="E38" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F38" s="114" t="s">
+      <c r="F38" s="112" t="s">
         <v>1141</v>
       </c>
       <c r="G38" s="13"/>
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="113"/>
-      <c r="B39" s="113"/>
+      <c r="A39" s="115"/>
+      <c r="B39" s="115"/>
       <c r="C39" s="46"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="115"/>
+      <c r="F39" s="113"/>
       <c r="G39" s="13"/>
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="113"/>
-      <c r="B40" s="113"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="115"/>
       <c r="C40" s="46"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
@@ -23300,6 +23302,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A38:B40"/>
+    <mergeCell ref="D38:D39"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="A19:B21"/>
@@ -23307,11 +23314,6 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A38:B40"/>
-    <mergeCell ref="D38:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -23386,10 +23388,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="114" t="s">
         <v>1156</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="14"/>
       <c r="D6" s="19" t="s">
         <v>484</v>
@@ -23548,10 +23550,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="115" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="113"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>1157</v>
@@ -23566,8 +23568,8 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -23576,8 +23578,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="46"/>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -23678,10 +23680,10 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="114" t="s">
         <v>1156</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="14"/>
       <c r="D6" s="19" t="s">
         <v>1171</v>
@@ -23826,10 +23828,10 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="115" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="113"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>1182</v>
@@ -23841,8 +23843,8 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
@@ -23850,8 +23852,8 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="46"/>
       <c r="D21" s="68"/>
       <c r="E21" s="68"/>
@@ -25223,10 +25225,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="114" t="s">
         <v>1156</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>1260</v>
@@ -25382,10 +25384,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="115" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="113"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1064</v>
@@ -25397,8 +25399,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -25406,8 +25408,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -26141,10 +26143,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="114" t="s">
         <v>1156</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>1303</v>
@@ -26304,10 +26306,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="115" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="113"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1064</v>
@@ -26319,8 +26321,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -26328,8 +26330,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -27510,7 +27512,7 @@
   </sheetPr>
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -28860,10 +28862,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="114" t="s">
         <v>1156</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>1380</v>
@@ -29023,10 +29025,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="115" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="113"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1064</v>
@@ -29038,8 +29040,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -29047,8 +29049,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -29467,10 +29469,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="114" t="s">
         <v>1156</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>643</v>
@@ -29630,10 +29632,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="115" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="113"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1064</v>
@@ -29645,8 +29647,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -29654,8 +29656,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -29772,10 +29774,10 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="114" t="s">
         <v>1012</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="114"/>
       <c r="D6" s="36" t="s">
         <v>785</v>
       </c>
@@ -29897,10 +29899,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="115" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="113"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="46"/>
       <c r="D19" s="68" t="s">
         <v>709</v>
@@ -29908,21 +29910,21 @@
       <c r="E19" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F19" s="114" t="s">
+      <c r="F19" s="112" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="46"/>
       <c r="D20" s="68"/>
       <c r="E20" s="68"/>
-      <c r="F20" s="115"/>
+      <c r="F20" s="113"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="46"/>
     </row>
     <row r="22" spans="1:6">
@@ -29939,10 +29941,10 @@
       <c r="F23" s="48"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="114" t="s">
         <v>1014</v>
       </c>
-      <c r="B25" s="112"/>
+      <c r="B25" s="114"/>
       <c r="D25" s="36" t="s">
         <v>785</v>
       </c>
@@ -30064,10 +30066,10 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="113" t="s">
+      <c r="A38" s="115" t="s">
         <v>1584</v>
       </c>
-      <c r="B38" s="113"/>
+      <c r="B38" s="115"/>
       <c r="C38" s="46"/>
       <c r="D38" s="68" t="s">
         <v>709</v>
@@ -30075,21 +30077,21 @@
       <c r="E38" s="68" t="s">
         <v>710</v>
       </c>
-      <c r="F38" s="114" t="s">
+      <c r="F38" s="112" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="113"/>
-      <c r="B39" s="113"/>
+      <c r="A39" s="115"/>
+      <c r="B39" s="115"/>
       <c r="C39" s="46"/>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
-      <c r="F39" s="115"/>
+      <c r="F39" s="113"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="113"/>
-      <c r="B40" s="113"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="115"/>
       <c r="C40" s="46"/>
     </row>
     <row r="41" spans="1:6">
@@ -30099,11 +30101,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A38:B40"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A2:B2"/>
@@ -30111,6 +30108,11 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A38:B40"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30182,10 +30184,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="114" t="s">
         <v>1156</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>1403</v>
@@ -30345,10 +30347,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="115" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="113"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1064</v>
@@ -30360,8 +30362,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -30369,8 +30371,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -30465,10 +30467,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="114" t="s">
         <v>1156</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
         <v>1415</v>
@@ -30596,10 +30598,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="113" t="s">
+      <c r="A19" s="115" t="s">
         <v>1584</v>
       </c>
-      <c r="B19" s="113"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116" t="s">
         <v>1064</v>
@@ -30611,8 +30613,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="46"/>
       <c r="D20" s="117"/>
       <c r="E20" s="68"/>
@@ -30620,8 +30622,8 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="46"/>
       <c r="D21" s="118"/>
       <c r="E21" s="68"/>
@@ -30660,7 +30662,7 @@
   <dimension ref="A2:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D19" sqref="D19:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -32136,8 +32138,8 @@
       <c r="A15" s="90" t="s">
         <v>1579</v>
       </c>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
       <c r="D15" s="90" t="s">
         <v>1580</v>
       </c>
@@ -32149,9 +32151,9 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="11.25" customHeight="1">
-      <c r="A16" s="122"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="122"/>
+      <c r="A16" s="120"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="90"/>
       <c r="E16" s="90"/>
       <c r="F16" s="90"/>
@@ -32159,9 +32161,9 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A17" s="122"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
+      <c r="A17" s="120"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="90"/>
       <c r="E17" s="90"/>
       <c r="F17" s="90"/>
@@ -32173,19 +32175,19 @@
       <c r="B18" s="68" t="s">
         <v>585</v>
       </c>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="121" t="s">
         <v>1473</v>
       </c>
       <c r="D18" s="88" t="s">
         <v>1582</v>
       </c>
-      <c r="E18" s="124" t="s">
+      <c r="E18" s="122" t="s">
         <v>1581</v>
       </c>
       <c r="F18" s="68" t="s">
         <v>491</v>
       </c>
-      <c r="G18" s="121" t="s">
+      <c r="G18" s="124" t="s">
         <v>1578</v>
       </c>
       <c r="H18" s="68"/>
@@ -32193,34 +32195,34 @@
     <row r="19" spans="1:8">
       <c r="A19" s="68"/>
       <c r="B19" s="68"/>
-      <c r="C19" s="123"/>
+      <c r="C19" s="121"/>
       <c r="D19" s="88"/>
-      <c r="E19" s="124"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="68"/>
-      <c r="G19" s="121"/>
+      <c r="G19" s="124"/>
       <c r="H19" s="68"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="68"/>
       <c r="B20" s="68"/>
-      <c r="C20" s="123"/>
+      <c r="C20" s="121"/>
       <c r="D20" s="88"/>
-      <c r="E20" s="124"/>
+      <c r="E20" s="122"/>
       <c r="F20" s="68"/>
-      <c r="G20" s="121"/>
+      <c r="G20" s="124"/>
       <c r="H20" s="68"/>
     </row>
     <row r="21" spans="1:8">
       <c r="D21" s="88"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="123" t="s">
         <v>1472</v>
       </c>
       <c r="D22" s="88"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="120"/>
+      <c r="A23" s="123"/>
       <c r="D23" s="88"/>
     </row>
     <row r="24" spans="1:8">
@@ -32252,6 +32254,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="D18:D32"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="A15:C17"/>
@@ -32260,12 +32268,6 @@
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="D18:D32"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Planilhas/Conferencia_DOM.xlsx
+++ b/Documentação/Planilhas/Conferencia_DOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="845">
   <si>
     <t>DESCR</t>
   </si>
@@ -2529,6 +2529,90 @@
   </si>
   <si>
     <t>stg_dom_car_comando</t>
+  </si>
+  <si>
+    <t>CD_COMANDO</t>
+  </si>
+  <si>
+    <t>DS_COMANDO</t>
+  </si>
+  <si>
+    <t>TP_COMANDO</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>ENVIAR</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Entrada confirmada</t>
+  </si>
+  <si>
+    <t>RETORNAR</t>
+  </si>
+  <si>
+    <t>Pedido de baixa</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Entrada rejeitada ou instrução rejeitada</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Concessão de abatimento</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Cancelamento de abatimento</t>
+  </si>
+  <si>
+    <t>Liquidado sem Registro</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Alteração de vencimento</t>
+  </si>
+  <si>
+    <t>Liquidação normal em dinheiro</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Liquidação por conta em dinheiro</t>
+  </si>
+  <si>
+    <t>tfcmgl508m00l</t>
+  </si>
+  <si>
+    <t>Sessão tfcmgl508m00l (Códigos de Ocorrências) [filtro "Tipo Ocorrência" = Enviar]</t>
+  </si>
+  <si>
+    <t>Sessão tfcmgl508m00l (Códigos de Ocorrências) [filtro "Tipo Ocorrência" = Retornar]</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Cód Ocorrência Interna"</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Descrição Ocorrência"</t>
+  </si>
+  <si>
+    <t>Somente informações de ENVIAR</t>
+  </si>
+  <si>
+    <t>Somente informações de RETORNAR</t>
   </si>
 </sst>
 </file>
@@ -2632,7 +2716,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2678,6 +2762,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2946,7 +3036,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3220,6 +3310,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3229,11 +3325,35 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4030,7 +4150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -12776,6 +12896,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A38:B40"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A2:B2"/>
@@ -12783,11 +12908,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A38:B40"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14258,8 +14378,8 @@
       <c r="A15" s="79" t="s">
         <v>799</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="79" t="s">
         <v>800</v>
       </c>
@@ -14271,9 +14391,9 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="11.25" customHeight="1">
-      <c r="A16" s="101"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="101"/>
+      <c r="A16" s="103"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="103"/>
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
       <c r="F16" s="79"/>
@@ -14281,9 +14401,9 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A17" s="101"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
+      <c r="A17" s="103"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
       <c r="F17" s="79"/>
@@ -14295,19 +14415,19 @@
       <c r="B18" s="58" t="s">
         <v>367</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="104" t="s">
         <v>729</v>
       </c>
       <c r="D18" s="77" t="s">
         <v>802</v>
       </c>
-      <c r="E18" s="103" t="s">
+      <c r="E18" s="105" t="s">
         <v>801</v>
       </c>
       <c r="F18" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="G18" s="105" t="s">
+      <c r="G18" s="102" t="s">
         <v>798</v>
       </c>
       <c r="H18" s="58"/>
@@ -14315,34 +14435,34 @@
     <row r="19" spans="1:8">
       <c r="A19" s="58"/>
       <c r="B19" s="58"/>
-      <c r="C19" s="102"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="77"/>
-      <c r="E19" s="103"/>
+      <c r="E19" s="105"/>
       <c r="F19" s="58"/>
-      <c r="G19" s="105"/>
+      <c r="G19" s="102"/>
       <c r="H19" s="58"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="58"/>
       <c r="B20" s="58"/>
-      <c r="C20" s="102"/>
+      <c r="C20" s="104"/>
       <c r="D20" s="77"/>
-      <c r="E20" s="103"/>
+      <c r="E20" s="105"/>
       <c r="F20" s="58"/>
-      <c r="G20" s="105"/>
+      <c r="G20" s="102"/>
       <c r="H20" s="58"/>
     </row>
     <row r="21" spans="1:8">
       <c r="D21" s="77"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="101" t="s">
         <v>728</v>
       </c>
       <c r="D22" s="77"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="104"/>
+      <c r="A23" s="101"/>
       <c r="D23" s="77"/>
     </row>
     <row r="24" spans="1:8">
@@ -14374,12 +14494,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="D18:D32"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A18:A20"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="A15:C17"/>
@@ -14388,6 +14502,12 @@
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="F18:F20"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="D18:D32"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -14401,7 +14521,9 @@
   </sheetPr>
   <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -14897,7 +15019,9 @@
   </sheetPr>
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -15117,21 +15241,23 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="2" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" style="1" customWidth="1"/>
@@ -15160,14 +15286,208 @@
         <v>493</v>
       </c>
       <c r="B3" s="54"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>838</v>
+      </c>
       <c r="J3" s="2"/>
     </row>
     <row r="5" spans="1:30" ht="11.25" customHeight="1"/>
+    <row r="6" spans="1:30" ht="20.25" customHeight="1">
+      <c r="A6" s="106" t="s">
+        <v>817</v>
+      </c>
+      <c r="B6" s="106" t="s">
+        <v>818</v>
+      </c>
+      <c r="C6" s="106" t="s">
+        <v>819</v>
+      </c>
+      <c r="E6" s="106" t="s">
+        <v>817</v>
+      </c>
+      <c r="F6" s="106" t="s">
+        <v>818</v>
+      </c>
+      <c r="G6" s="106" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30">
+      <c r="A8" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="107" t="s">
+        <v>839</v>
+      </c>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="E13" s="107" t="s">
+        <v>840</v>
+      </c>
+      <c r="F13" s="108"/>
+      <c r="G13" s="109"/>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="110"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="112"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="112"/>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="113"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="115"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="115"/>
+    </row>
+    <row r="16" spans="1:30" ht="33.75" customHeight="1">
+      <c r="A16" s="58" t="s">
+        <v>841</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>842</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>843</v>
+      </c>
+      <c r="E16" s="58" t="s">
+        <v>841</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>842</v>
+      </c>
+      <c r="G16" s="58" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="10">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A13:C15"/>
+    <mergeCell ref="E13:G15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Planilhas/Conferencia_DOM.xlsx
+++ b/Documentação/Planilhas/Conferencia_DOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -46,6 +46,7 @@
     <sheet name="stg_dom_transacao" sheetId="89" r:id="rId37"/>
     <sheet name="stg_dom_trk_cod_sist_fonte" sheetId="90" r:id="rId38"/>
     <sheet name="stg_dom_wms_planta" sheetId="92" r:id="rId39"/>
+    <sheet name="Plan1" sheetId="103" r:id="rId40"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -612,9 +613,6 @@
     <t>Conferência dos dados da tabela:</t>
   </si>
   <si>
-    <t>tfcmg0511m000</t>
-  </si>
-  <si>
     <t>CD_CANAL_VENDA</t>
   </si>
   <si>
@@ -624,9 +622,6 @@
     <t>dbo.stg_dom_canal_venda</t>
   </si>
   <si>
-    <t>tcmcs0166m000</t>
-  </si>
-  <si>
     <t>Pegar a primeira informação do campo Canal</t>
   </si>
   <si>
@@ -780,12 +775,6 @@
     <t>DS_PREPARADO_PAGAMENTO</t>
   </si>
   <si>
-    <t>tfacp2520m000</t>
-  </si>
-  <si>
-    <t>tfacp1103m000</t>
-  </si>
-  <si>
     <t>Exportar os dados para o Excel e pegar na planilha "enum" as informações da coluna tfacp.pyst.l</t>
   </si>
   <si>
@@ -832,9 +821,6 @@
   </si>
   <si>
     <t>dbo.stg_dom_centro_custo</t>
-  </si>
-  <si>
-    <t>tfgld0510m000</t>
   </si>
   <si>
     <t>Pegar a informação da coluna Dimensão</t>
@@ -946,9 +932,6 @@
     <t>06 DIAS</t>
   </si>
   <si>
-    <t>tcmcs2620m000</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pegar a primeira informação do Cabeçalho Programaç pagam: </t>
   </si>
   <si>
@@ -1027,9 +1010,6 @@
     <t>SANTANDER 3403/13000836-1 - NP</t>
   </si>
   <si>
-    <t>tfgld0508m000</t>
-  </si>
-  <si>
     <t>Pegar a primeira informação da coluna Conta Contábil</t>
   </si>
   <si>
@@ -1150,9 +1130,6 @@
     <t>DS_SISTEMA_FONTE</t>
   </si>
   <si>
-    <t>znmcsc101m000</t>
-  </si>
-  <si>
     <t>Pegar a informação do campo Sistema Origem</t>
   </si>
   <si>
@@ -1169,9 +1146,6 @@
   </si>
   <si>
     <t>dbo.stg_dom_est_modalidade</t>
-  </si>
-  <si>
-    <t>whwmd2500m000</t>
   </si>
   <si>
     <t>CD_MODALIDADE</t>
@@ -1278,9 +1252,6 @@
     <t>IN_EFETIVA</t>
   </si>
   <si>
-    <t>tcmcs0108m000</t>
-  </si>
-  <si>
     <t>Pegar no cabeçalho a informação Tipo de Taxa de Câmbio</t>
   </si>
   <si>
@@ -1329,9 +1300,6 @@
     <t>Venda com pedido</t>
   </si>
   <si>
-    <t>tcmcsl166m00l</t>
-  </si>
-  <si>
     <t>NR_CNPJ_FILIAL</t>
   </si>
   <si>
@@ -1360,9 +1328,6 @@
   </si>
   <si>
     <t>CAP</t>
-  </si>
-  <si>
-    <t>ttadv4500m000</t>
   </si>
   <si>
     <t>dbo.stg_dom_movimento_transacao</t>
@@ -1480,9 +1445,6 @@
     <t>MERC IND P/ INDUSTR S/ TRANS PELO ESTAB ADQU</t>
   </si>
   <si>
-    <t>tcmcsl115m00l</t>
-  </si>
-  <si>
     <t>stg_dom_natureza_operacao</t>
   </si>
   <si>
@@ -1538,18 +1500,6 @@
   </si>
   <si>
     <t>Sessão utilizada:</t>
-  </si>
-  <si>
-    <t>Sessão tfcmg0511m000 [campo chave para a conferência é a Filial Bancária apresentada para o Parceiro na Sessão tccom4525m000]</t>
-  </si>
-  <si>
-    <t>Sessão tccom4525m000</t>
-  </si>
-  <si>
-    <t>Sessão tccom0502m000</t>
-  </si>
-  <si>
-    <t>Sessão tccom4530m000 [trabalhar com o código do endereço obtido no detalhamento da Cia na Sessão tccom0502m000]</t>
   </si>
   <si>
     <t>Pedir o detalhamento do código do endereço desejado. Na aba Detalhado, Sessão Identificação do Imposto, pegar a informação Entidade Fiscal 
@@ -1560,21 +1510,9 @@
 Na aba superior Geral, Sessão estrutura, pegar a informação de Conta pai estatutária</t>
   </si>
   <si>
-    <t>Sessão tcemm0130m000</t>
-  </si>
-  <si>
-    <t>Sessão tcmcs0503m000</t>
-  </si>
-  <si>
     <t>Com base na informação Un. Da Empresa da Sessão tcmcs0503m000, pegar a informação do campo  "Cat da uni empresarial" nesta Sessão</t>
   </si>
   <si>
-    <t xml:space="preserve">Sessão tcmcsl115m00l </t>
-  </si>
-  <si>
-    <t>Sessão tcmcsl547m00l</t>
-  </si>
-  <si>
     <t>Sessões utilizadas:</t>
   </si>
   <si>
@@ -1593,9 +1531,6 @@
     <t>DS_MOTIVO_DEVOLUCAO</t>
   </si>
   <si>
-    <t>tcmcs0105m000</t>
-  </si>
-  <si>
     <t>Pegar a informação da primeira coluna razão</t>
   </si>
   <si>
@@ -1645,9 +1580,6 @@
   </si>
   <si>
     <t>stg_dom_orc_tipo</t>
-  </si>
-  <si>
-    <t>tdsta1100m000</t>
   </si>
   <si>
     <t>Pegar a primeira informação da coluna Cias</t>
@@ -1813,9 +1745,6 @@
     <t>DS_TIPO_FRETE</t>
   </si>
   <si>
-    <t>tcmcs0141m000</t>
-  </si>
-  <si>
     <t>Pegar a informação da primeira coluna Condição de entrega</t>
   </si>
   <si>
@@ -1849,9 +1778,6 @@
     <t>stg_dom_pec_tipo_ordem_compra</t>
   </si>
   <si>
-    <t>tdpur0194m000</t>
-  </si>
-  <si>
     <t>Pegar a informação da primeira coluna Tipo Ord. Compr.</t>
   </si>
   <si>
@@ -1898,9 +1824,6 @@
   </si>
   <si>
     <t>stg_dom_pev_tipo_pedido</t>
-  </si>
-  <si>
-    <t>znslsc107m000</t>
   </si>
   <si>
     <t>CD_TIPO_PEDIDO</t>
@@ -2040,9 +1963,6 @@
   </si>
   <si>
     <t>COLETA AGENDADA APÓS INSUCESSO</t>
-  </si>
-  <si>
-    <t>znmcsc102m000</t>
   </si>
   <si>
     <t>Pegar a informação da coluna Pt Controle</t>
@@ -2217,9 +2137,6 @@
     <t>Se a transação for de entrada, CAP. Se for de saída, CAR</t>
   </si>
   <si>
-    <t>tfgld0511m000</t>
-  </si>
-  <si>
     <t>stg_dom_trk_codigo_sistema_fonte</t>
   </si>
   <si>
@@ -2471,12 +2388,6 @@
   </si>
   <si>
     <t>Dado do WMS</t>
-  </si>
-  <si>
-    <t>Sessão tfgld0510m000</t>
-  </si>
-  <si>
-    <t>sessão tcemm0130m000 [usar o CD_Filial identificado na sessão tfgld0510m000 como chave]</t>
   </si>
   <si>
     <t>Fixo como 201</t>
@@ -2594,9 +2505,6 @@
     <t>Liquidação por conta em dinheiro</t>
   </si>
   <si>
-    <t>tfcmgl508m00l</t>
-  </si>
-  <si>
     <t>Sessão tfcmgl508m00l (Códigos de Ocorrências) [filtro "Tipo Ocorrência" = Enviar]</t>
   </si>
   <si>
@@ -2613,6 +2521,99 @@
   </si>
   <si>
     <t>Somente informações de RETORNAR</t>
+  </si>
+  <si>
+    <t>tfcmg0511m000 (Agências Bancárias)</t>
+  </si>
+  <si>
+    <t>tcmcs0166m000 (Canais)</t>
+  </si>
+  <si>
+    <t>Sessão tfcmg0511m000 (Agências Bancárias) [campo chave para a conferência é a Filial Bancária apresentada para o Parceiro na Sessão tccom4525m000]</t>
+  </si>
+  <si>
+    <t>Sessão tccom4525m000 (Contas Bancárias por Parceiro Negócio - Credor)</t>
+  </si>
+  <si>
+    <t>tfacp1103m000 (Agenda de Pag.)</t>
+  </si>
+  <si>
+    <t>tfacp2520m000 (Invoice - from business partner open entries)</t>
+  </si>
+  <si>
+    <t>tfcmgl508m00l (Código Ocorrências)</t>
+  </si>
+  <si>
+    <t>tfgld0510m000 (Dimensões)</t>
+  </si>
+  <si>
+    <t>Sessão tccom0502m000 (Dados Gerais da Companhia)</t>
+  </si>
+  <si>
+    <t>Sessão tccom4530m000 (Endereços) [trabalhar com o código do endereço obtido no detalhamento da Cia na Sessão tccom0502m000]</t>
+  </si>
+  <si>
+    <t>tcmcs2620m000 (Programações de Pagamento)</t>
+  </si>
+  <si>
+    <t>tfgld0508m000 (Plano de Contas)</t>
+  </si>
+  <si>
+    <t>Sessão tcemm0130m000 (Unidades Empresariais)</t>
+  </si>
+  <si>
+    <t>Sessão tcmcs0503m000 (Armazéns)</t>
+  </si>
+  <si>
+    <t>znmcsc101m000 (Sistemas)</t>
+  </si>
+  <si>
+    <t>whwmd2500m000 (Armazéns)</t>
+  </si>
+  <si>
+    <t>tcmcs0105m000 (Razões)</t>
+  </si>
+  <si>
+    <t>tcmcs0108m000 (Taxas Monetárias)</t>
+  </si>
+  <si>
+    <t>ttadv4500m000 (Domínios)</t>
+  </si>
+  <si>
+    <t>tcmcsl115m00l (Código Fiscal de Operação e Prestação - CFOP)</t>
+  </si>
+  <si>
+    <t>Sessão tcmcsl115m00l (Código Fiscal de Operação e Prestação - CFOP)</t>
+  </si>
+  <si>
+    <t>Sessão tcmcsl547m00l (CFOP por Características Fiscais)</t>
+  </si>
+  <si>
+    <t>tdsta1100m000 (Classificações de Estatísticas)</t>
+  </si>
+  <si>
+    <t>tcmcsl166m00l (Tipo de documento fiscal)</t>
+  </si>
+  <si>
+    <t>tcmcs0141m000 (Condições de Entrega)</t>
+  </si>
+  <si>
+    <t>tdpur0194m000 (Tipo de Ordem de Compra)</t>
+  </si>
+  <si>
+    <t>znslsc107m000 (Tipos de Pedido)</t>
+  </si>
+  <si>
+    <t>znmcsc102m000 (Pontos de Controle)</t>
+  </si>
+  <si>
+    <t>tfgld0511m000 (Tipos de Transação)</t>
+  </si>
+  <si>
+    <t>Sessão tfgld0510m000 (Dimensões)</t>
+  </si>
+  <si>
+    <t>sessão tcemm0130m000 (Unidades Empresariais) [usar o CD_Filial identificado na sessão tfgld0510m000 como chave]</t>
   </si>
 </sst>
 </file>
@@ -3169,6 +3170,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3183,6 +3187,33 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3310,12 +3341,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3325,35 +3350,11 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4150,7 +4151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4165,256 +4166,256 @@
   <sheetData>
     <row r="1" spans="2:3" ht="33" customHeight="1">
       <c r="B1" s="47" t="s">
-        <v>797</v>
+        <v>769</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>795</v>
+        <v>767</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="51" t="s">
-        <v>731</v>
+        <v>703</v>
       </c>
       <c r="C2" s="50"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="51" t="s">
-        <v>732</v>
+        <v>704</v>
       </c>
       <c r="C3" s="50"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="51" t="s">
-        <v>733</v>
+        <v>705</v>
       </c>
       <c r="C4" s="50"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="51" t="s">
-        <v>734</v>
+        <v>706</v>
       </c>
       <c r="C5" s="50"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="51" t="s">
-        <v>735</v>
+        <v>707</v>
       </c>
       <c r="C6" s="50"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="51" t="s">
-        <v>816</v>
+        <v>786</v>
       </c>
       <c r="C7" s="50"/>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="51" t="s">
-        <v>736</v>
+        <v>708</v>
       </c>
       <c r="C8" s="50"/>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="51" t="s">
-        <v>737</v>
+        <v>709</v>
       </c>
       <c r="C9" s="50"/>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="51" t="s">
-        <v>738</v>
+        <v>710</v>
       </c>
       <c r="C10" s="50"/>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="51" t="s">
-        <v>739</v>
+        <v>711</v>
       </c>
       <c r="C11" s="50"/>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="51" t="s">
-        <v>740</v>
+        <v>712</v>
       </c>
       <c r="C12" s="50"/>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="51" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
       <c r="C13" s="50"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="51" t="s">
-        <v>742</v>
+        <v>714</v>
       </c>
       <c r="C14" s="50"/>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="51" t="s">
-        <v>743</v>
+        <v>715</v>
       </c>
       <c r="C15" s="50"/>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="51" t="s">
-        <v>744</v>
+        <v>716</v>
       </c>
       <c r="C16" s="50"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="51" t="s">
-        <v>745</v>
+        <v>717</v>
       </c>
       <c r="C17" s="50"/>
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="51" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="C18" s="50"/>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="51" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="C19" s="50"/>
     </row>
     <row r="20" spans="2:3">
       <c r="B20" s="51" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="C20" s="50"/>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="51" t="s">
-        <v>805</v>
+        <v>775</v>
       </c>
       <c r="C21" s="50"/>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="51" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="C22" s="50"/>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="51" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="C23" s="50"/>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="51" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
       <c r="C24" s="50"/>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="51" t="s">
-        <v>556</v>
+        <v>533</v>
       </c>
       <c r="C25" s="50"/>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="51" t="s">
-        <v>576</v>
+        <v>553</v>
       </c>
       <c r="C26" s="50"/>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="51" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="C27" s="50"/>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="51" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="C28" s="50"/>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="51" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="C29" s="50"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="51" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="C30" s="50"/>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="51" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="C31" s="50"/>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="51" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="C32" s="50"/>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="51" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="C33" s="50"/>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="51" t="s">
-        <v>814</v>
+        <v>784</v>
       </c>
       <c r="C34" s="50"/>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="51" t="s">
-        <v>669</v>
+        <v>642</v>
       </c>
       <c r="C35" s="50"/>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="51" t="s">
-        <v>681</v>
+        <v>654</v>
       </c>
       <c r="C36" s="50"/>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="51" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
       <c r="C37" s="50"/>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="51" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
       <c r="C38" s="50"/>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="49" t="s">
-        <v>746</v>
+        <v>718</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>794</v>
+        <v>766</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="51" t="s">
-        <v>716</v>
+        <v>688</v>
       </c>
       <c r="C40" s="50" t="s">
-        <v>796</v>
+        <v>768</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="52" t="s">
-        <v>747</v>
+        <v>719</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>794</v>
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -4494,12 +4495,12 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
@@ -4510,12 +4511,12 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>297</v>
+        <v>824</v>
       </c>
       <c r="E3" s="1"/>
       <c r="G3" s="1"/>
@@ -4539,19 +4540,19 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="14" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -4565,7 +4566,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>152</v>
@@ -4579,10 +4580,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>6</v>
@@ -4599,7 +4600,7 @@
         <v>75</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -4613,10 +4614,10 @@
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -4627,16 +4628,16 @@
         <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -4647,13 +4648,13 @@
         <v>30</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -4664,10 +4665,10 @@
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>
@@ -4678,16 +4679,16 @@
         <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -4695,13 +4696,13 @@
         <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>20</v>
@@ -4712,49 +4713,49 @@
         <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="58" t="s">
-        <v>298</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>299</v>
-      </c>
-      <c r="D18" s="58" t="s">
-        <v>300</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>301</v>
+      <c r="B18" s="59" t="s">
+        <v>292</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>293</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>294</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4795,12 +4796,12 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
@@ -4808,12 +4809,12 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>324</v>
+        <v>825</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
@@ -4834,13 +4835,13 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="14" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -4848,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>36</v>
@@ -4859,7 +4860,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="C8" s="12">
         <v>1</v>
@@ -4867,10 +4868,10 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C9" s="12">
         <v>11</v>
@@ -4878,10 +4879,10 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="C10" s="12">
         <v>1101</v>
@@ -4889,10 +4890,10 @@
     </row>
     <row r="11" spans="1:19" s="20" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C11" s="21">
         <v>110101</v>
@@ -4901,10 +4902,10 @@
     </row>
     <row r="12" spans="1:19" s="20" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C12" s="21">
         <v>1101</v>
@@ -4913,10 +4914,10 @@
     </row>
     <row r="13" spans="1:19" s="20" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C13" s="21">
         <v>110103</v>
@@ -4925,10 +4926,10 @@
     </row>
     <row r="14" spans="1:19" s="20" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C14" s="21">
         <v>110103</v>
@@ -4937,10 +4938,10 @@
     </row>
     <row r="15" spans="1:19" s="20" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C15" s="21">
         <v>110103</v>
@@ -4949,10 +4950,10 @@
     </row>
     <row r="16" spans="1:19" s="20" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C16" s="21">
         <v>110103</v>
@@ -4960,33 +4961,33 @@
       <c r="D16" s="21"/>
     </row>
     <row r="19" spans="1:4" ht="11.25" customHeight="1">
-      <c r="A19" s="58" t="s">
-        <v>325</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>326</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>499</v>
+      <c r="A19" s="59" t="s">
+        <v>318</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>319</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>482</v>
       </c>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="11"/>
     </row>
   </sheetData>
@@ -5013,7 +5014,7 @@
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="21.140625" style="2" customWidth="1"/>
@@ -5032,12 +5033,12 @@
       <c r="AE1" s="2"/>
     </row>
     <row r="2" spans="1:31" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
@@ -5046,12 +5047,12 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:31" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>505</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E3" s="1"/>
       <c r="G3" s="1"/>
@@ -5070,19 +5071,19 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="14" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -5096,7 +5097,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>38</v>
@@ -5110,13 +5111,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -5127,13 +5128,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -5144,13 +5145,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -5161,13 +5162,13 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -5178,13 +5179,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -5195,10 +5196,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>39</v>
@@ -5212,10 +5213,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>39</v>
@@ -5229,10 +5230,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>39</v>
@@ -5246,49 +5247,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="72" t="s">
-        <v>500</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>501</v>
-      </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
+      <c r="B18" s="82" t="s">
+        <v>826</v>
+      </c>
+      <c r="C18" s="73" t="s">
+        <v>827</v>
+      </c>
+      <c r="D18" s="74"/>
+      <c r="E18" s="75"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="73"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="78"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="74"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="81"/>
     </row>
     <row r="21" spans="2:10" ht="11.25" customHeight="1">
-      <c r="B21" s="58" t="s">
-        <v>502</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>352</v>
-      </c>
-      <c r="D21" s="58" t="s">
-        <v>353</v>
-      </c>
-      <c r="E21" s="58" t="s">
-        <v>354</v>
+      <c r="B21" s="59" t="s">
+        <v>483</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>345</v>
+      </c>
+      <c r="D21" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>347</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -5297,10 +5298,10 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -5308,10 +5309,10 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -5319,10 +5320,10 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -5330,10 +5331,10 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -5341,10 +5342,10 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -5352,10 +5353,10 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -5363,10 +5364,10 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -5451,12 +5452,12 @@
       <c r="AE1" s="2"/>
     </row>
     <row r="2" spans="1:31" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D2" s="1"/>
       <c r="F2" s="1"/>
@@ -5466,12 +5467,12 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:31" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>505</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>365</v>
+        <v>828</v>
       </c>
       <c r="D3" s="1"/>
       <c r="F3" s="1"/>
@@ -5482,59 +5483,59 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="14" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="A11" s="58" t="s">
-        <v>366</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>367</v>
+      <c r="A11" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:31">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
     </row>
     <row r="13" spans="1:31">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5583,24 +5584,24 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="E2" s="2"/>
       <c r="G2" s="2"/>
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>505</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>372</v>
+        <v>829</v>
       </c>
       <c r="E3" s="2"/>
       <c r="G3" s="2"/>
@@ -5617,10 +5618,10 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="14" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -5628,7 +5629,7 @@
         <v>152</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -5636,7 +5637,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -5644,38 +5645,38 @@
         <v>2</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A12" s="75" t="s">
-        <v>375</v>
-      </c>
-      <c r="B12" s="75"/>
+      <c r="A12" s="85" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" s="85"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="75"/>
-      <c r="B13" s="75"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="75"/>
-      <c r="B14" s="75"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="75"/>
-      <c r="B15" s="75"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="75"/>
-      <c r="B16" s="75"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="75"/>
-      <c r="B17" s="75"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="75"/>
-      <c r="B18" s="75"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5723,24 +5724,24 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>748</v>
+        <v>720</v>
       </c>
       <c r="E2" s="2"/>
       <c r="G2" s="2"/>
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>505</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>511</v>
+        <v>830</v>
       </c>
       <c r="E3" s="2"/>
       <c r="G3" s="2"/>
@@ -5757,117 +5758,117 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="14" t="s">
-        <v>769</v>
+        <v>741</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>770</v>
+        <v>742</v>
       </c>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="40" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>772</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="40" t="s">
-        <v>773</v>
+        <v>745</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>774</v>
+        <v>746</v>
       </c>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="40" t="s">
-        <v>775</v>
+        <v>747</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>776</v>
+        <v>748</v>
       </c>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="40" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>778</v>
+        <v>750</v>
       </c>
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="40" t="s">
-        <v>779</v>
+        <v>751</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>780</v>
+        <v>752</v>
       </c>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="40" t="s">
-        <v>781</v>
+        <v>753</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>781</v>
+        <v>753</v>
       </c>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="40" t="s">
-        <v>782</v>
+        <v>754</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>783</v>
+        <v>755</v>
       </c>
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="40" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="40" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>787</v>
+        <v>759</v>
       </c>
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="40" t="s">
-        <v>788</v>
+        <v>760</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>789</v>
+        <v>761</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="11.25" customHeight="1">
-      <c r="A18" s="76" t="s">
-        <v>790</v>
-      </c>
-      <c r="B18" s="76"/>
+      <c r="A18" s="86" t="s">
+        <v>762</v>
+      </c>
+      <c r="B18" s="86"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="76"/>
-      <c r="B19" s="76"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="86"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="58" t="s">
-        <v>791</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>792</v>
+      <c r="A20" s="59" t="s">
+        <v>763</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5889,9 +5890,7 @@
   </sheetPr>
   <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -5916,12 +5915,12 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>793</v>
+        <v>765</v>
       </c>
       <c r="D2" s="1"/>
       <c r="F2" s="1"/>
@@ -5932,12 +5931,12 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>505</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>407</v>
+        <v>831</v>
       </c>
       <c r="D3" s="1"/>
       <c r="F3" s="1"/>
@@ -5949,22 +5948,22 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="14" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>147</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -5974,19 +5973,19 @@
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>392</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>401</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>2</v>
@@ -5999,19 +5998,19 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="5" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>2</v>
@@ -6024,19 +6023,19 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="5" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>2</v>
@@ -6049,19 +6048,19 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="5" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>1</v>
@@ -6074,19 +6073,19 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="5" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>388</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>1</v>
@@ -6102,16 +6101,16 @@
         <v>137</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>388</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>1</v>
@@ -6124,19 +6123,19 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="5" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>388</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>2</v>
@@ -6149,19 +6148,19 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="5" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>2</v>
@@ -6174,19 +6173,19 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="5" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>2</v>
@@ -6199,19 +6198,19 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="5" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>1</v>
@@ -6223,23 +6222,23 @@
       <c r="K16" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="58" t="s">
-        <v>408</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>412</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>409</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>410</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>411</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>413</v>
+      <c r="A19" s="59" t="s">
+        <v>398</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>402</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>399</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>400</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>401</v>
+      </c>
+      <c r="F19" s="59" t="s">
+        <v>403</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -6248,12 +6247,12 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -6261,12 +6260,12 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -6274,12 +6273,12 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -6287,12 +6286,12 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -6396,9 +6395,7 @@
   </sheetPr>
   <dimension ref="A1:AF23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -6423,12 +6420,12 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -6440,12 +6437,12 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>435</v>
+        <v>832</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -6466,7 +6463,7 @@
     </row>
     <row r="7" spans="1:32" ht="11.25" customHeight="1">
       <c r="A7" s="26" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B7" s="26"/>
       <c r="D7" s="14" t="s">
@@ -6523,11 +6520,11 @@
     <row r="11" spans="1:32">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
-      <c r="D11" s="58" t="s">
-        <v>438</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>439</v>
+      <c r="D11" s="59" t="s">
+        <v>426</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>427</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="1"/>
@@ -6538,8 +6535,8 @@
     <row r="12" spans="1:32">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="25"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -6611,10 +6608,10 @@
       <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="75" t="s">
-        <v>804</v>
-      </c>
-      <c r="B19" s="75"/>
+      <c r="A19" s="85" t="s">
+        <v>774</v>
+      </c>
+      <c r="B19" s="85"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="24"/>
@@ -6624,8 +6621,8 @@
       <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="24"/>
@@ -6635,8 +6632,8 @@
       <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -6644,12 +6641,12 @@
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="75"/>
-      <c r="B23" s="75"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6672,9 +6669,7 @@
   </sheetPr>
   <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -6694,24 +6689,24 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>749</v>
+        <v>721</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>435</v>
+        <v>832</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -6724,15 +6719,15 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="26" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="1"/>
       <c r="D6" s="14" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -6848,26 +6843,26 @@
       <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A18" s="75" t="s">
-        <v>804</v>
-      </c>
-      <c r="B18" s="75"/>
-      <c r="D18" s="58" t="s">
-        <v>438</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>439</v>
+      <c r="A18" s="85" t="s">
+        <v>774</v>
+      </c>
+      <c r="B18" s="85"/>
+      <c r="D18" s="59" t="s">
+        <v>426</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6890,9 +6885,7 @@
   </sheetPr>
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -6917,12 +6910,12 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>750</v>
+        <v>722</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -6932,12 +6925,12 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>474</v>
+        <v>833</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -6964,19 +6957,19 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="14" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -6987,16 +6980,16 @@
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>36</v>
@@ -7013,7 +7006,7 @@
         <v>82</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>83</v>
@@ -7033,16 +7026,16 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="2" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>36</v>
@@ -7056,16 +7049,16 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>36</v>
@@ -7079,16 +7072,16 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="2" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>630</v>
+        <v>604</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>36</v>
@@ -7102,16 +7095,16 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="2" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>36</v>
@@ -7125,16 +7118,16 @@
     </row>
     <row r="13" spans="1:32" s="8" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>36</v>
@@ -7148,16 +7141,16 @@
     </row>
     <row r="14" spans="1:32" s="5" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>36</v>
@@ -7186,16 +7179,16 @@
     </row>
     <row r="15" spans="1:32" s="8" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>36</v>
@@ -7209,16 +7202,16 @@
     </row>
     <row r="16" spans="1:32" s="8" customFormat="1">
       <c r="A16" s="27" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>635</v>
+        <v>609</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="E16" s="27" t="s">
         <v>36</v>
@@ -7244,19 +7237,19 @@
       <c r="K17" s="5"/>
     </row>
     <row r="19" spans="1:11" s="10" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A19" s="77" t="s">
-        <v>476</v>
-      </c>
-      <c r="B19" s="77" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="77" t="s">
-        <v>491</v>
-      </c>
-      <c r="D19" s="77" t="s">
-        <v>477</v>
-      </c>
-      <c r="E19" s="78" t="s">
+      <c r="A19" s="87" t="s">
+        <v>463</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="87" t="s">
+        <v>478</v>
+      </c>
+      <c r="D19" s="87" t="s">
+        <v>464</v>
+      </c>
+      <c r="E19" s="88" t="s">
         <v>85</v>
       </c>
       <c r="F19" s="9"/>
@@ -7267,11 +7260,11 @@
       <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" s="10" customFormat="1">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="78"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -7280,11 +7273,11 @@
       <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" s="10" customFormat="1">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="78"/>
+      <c r="A21" s="87"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -7293,11 +7286,11 @@
       <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" s="10" customFormat="1">
-      <c r="A22" s="77"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -7306,11 +7299,11 @@
       <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" s="10" customFormat="1">
-      <c r="A23" s="77"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="78"/>
+      <c r="A23" s="87"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -7319,11 +7312,11 @@
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" s="10" customFormat="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="78"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -7332,11 +7325,11 @@
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" s="10" customFormat="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="78"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -7345,11 +7338,11 @@
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" s="10" customFormat="1">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="78"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -7358,11 +7351,11 @@
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" s="10" customFormat="1">
-      <c r="A27" s="77"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="78"/>
+      <c r="A27" s="87"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -7481,10 +7474,10 @@
       <c r="AE1" s="2"/>
     </row>
     <row r="2" spans="1:31" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
         <v>182</v>
       </c>
@@ -7493,12 +7486,12 @@
       <c r="AE2" s="2"/>
     </row>
     <row r="3" spans="1:31" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>814</v>
       </c>
       <c r="R3" s="2"/>
       <c r="T3" s="2"/>
@@ -7972,12 +7965,12 @@
       <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:30" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>751</v>
+        <v>723</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -7985,12 +7978,12 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>505</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -8013,16 +8006,16 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="14" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -8041,7 +8034,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -8051,16 +8044,16 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="2" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -8069,16 +8062,16 @@
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="2" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -8088,16 +8081,16 @@
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="2" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -8107,16 +8100,16 @@
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="2" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -8126,16 +8119,16 @@
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="2" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -8145,16 +8138,16 @@
     </row>
     <row r="13" spans="1:30" s="8" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -8164,16 +8157,16 @@
     </row>
     <row r="14" spans="1:30" s="5" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
@@ -8199,16 +8192,16 @@
     </row>
     <row r="15" spans="1:30" s="8" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>538</v>
+        <v>515</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -8218,16 +8211,16 @@
     </row>
     <row r="16" spans="1:30" s="8" customFormat="1">
       <c r="A16" s="27" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="C16" s="27" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -8247,14 +8240,14 @@
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" s="8" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A18" s="79" t="s">
-        <v>503</v>
-      </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="80" t="s">
-        <v>504</v>
-      </c>
-      <c r="D18" s="81"/>
+      <c r="A18" s="89" t="s">
+        <v>834</v>
+      </c>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90" t="s">
+        <v>835</v>
+      </c>
+      <c r="D18" s="91"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -8262,10 +8255,10 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" s="8" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A19" s="79"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -8273,23 +8266,23 @@
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A20" s="79"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
     </row>
     <row r="21" spans="1:9" s="10" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A21" s="77" t="s">
-        <v>476</v>
-      </c>
-      <c r="B21" s="77" t="s">
-        <v>491</v>
-      </c>
-      <c r="C21" s="77" t="s">
-        <v>506</v>
-      </c>
-      <c r="D21" s="77" t="s">
-        <v>542</v>
+      <c r="A21" s="87" t="s">
+        <v>463</v>
+      </c>
+      <c r="B21" s="87" t="s">
+        <v>478</v>
+      </c>
+      <c r="C21" s="87" t="s">
+        <v>485</v>
+      </c>
+      <c r="D21" s="87" t="s">
+        <v>519</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -8298,10 +8291,10 @@
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" s="10" customFormat="1">
-      <c r="A22" s="77"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -8309,10 +8302,10 @@
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" s="10" customFormat="1">
-      <c r="A23" s="77"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
+      <c r="A23" s="87"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -8320,10 +8313,10 @@
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" s="10" customFormat="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -8331,10 +8324,10 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" s="10" customFormat="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -8342,10 +8335,10 @@
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" s="10" customFormat="1">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -8353,10 +8346,10 @@
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" s="10" customFormat="1">
-      <c r="A27" s="77"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
+      <c r="A27" s="87"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -8364,10 +8357,10 @@
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" s="10" customFormat="1">
-      <c r="A28" s="77"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -8375,10 +8368,10 @@
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" s="10" customFormat="1">
-      <c r="A29" s="77"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -8463,9 +8456,7 @@
   </sheetPr>
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -8485,24 +8476,24 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>806</v>
+        <v>776</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>435</v>
+        <v>832</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -8515,15 +8506,15 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="26" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="1"/>
       <c r="D6" s="14" t="s">
-        <v>807</v>
+        <v>777</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>808</v>
+        <v>778</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -8534,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>809</v>
+        <v>779</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -8556,7 +8547,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>810</v>
+        <v>780</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -8567,7 +8558,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>811</v>
+        <v>781</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -8578,7 +8569,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>812</v>
+        <v>782</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -8614,26 +8605,26 @@
       <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A18" s="75" t="s">
-        <v>804</v>
-      </c>
-      <c r="B18" s="75"/>
-      <c r="D18" s="58" t="s">
-        <v>438</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>439</v>
+      <c r="A18" s="85" t="s">
+        <v>774</v>
+      </c>
+      <c r="B18" s="85"/>
+      <c r="D18" s="59" t="s">
+        <v>426</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
     </row>
     <row r="25" spans="1:5">
       <c r="E25" s="35"/>
@@ -8659,9 +8650,7 @@
   </sheetPr>
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -8678,22 +8667,22 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>752</v>
+        <v>724</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>511</v>
+        <v>830</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -8711,66 +8700,66 @@
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="11.25">
       <c r="A6" s="32" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="75" t="s">
-        <v>514</v>
-      </c>
-      <c r="E6" s="75"/>
+      <c r="D6" s="85" t="s">
+        <v>492</v>
+      </c>
+      <c r="E6" s="85"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="11.25">
       <c r="A7" s="31" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="11.25">
       <c r="C8" s="2"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
       <c r="J8" s="2"/>
       <c r="L8" s="2"/>
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="11.25">
-      <c r="A9" s="75" t="s">
-        <v>512</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>513</v>
+      <c r="A9" s="85" t="s">
+        <v>490</v>
+      </c>
+      <c r="B9" s="85" t="s">
+        <v>491</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
       <c r="J9" s="2"/>
       <c r="L9" s="2"/>
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="11.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
       <c r="J10" s="2"/>
       <c r="L10" s="2"/>
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="11.25">
-      <c r="A11" s="75"/>
-      <c r="B11" s="75"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
       <c r="J11" s="2"/>
       <c r="L11" s="2"/>
       <c r="W11" s="2"/>
@@ -8945,64 +8934,64 @@
     </row>
     <row r="40" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C40" s="5"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
       <c r="J40" s="2"/>
       <c r="L40" s="2"/>
       <c r="W40" s="2"/>
     </row>
     <row r="41" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C41" s="5"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
       <c r="J41" s="2"/>
       <c r="L41" s="2"/>
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C42" s="5"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
       <c r="J42" s="2"/>
       <c r="L42" s="2"/>
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C43" s="5"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
       <c r="J43" s="2"/>
       <c r="L43" s="2"/>
       <c r="W43" s="2"/>
     </row>
     <row r="44" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C44" s="5"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
       <c r="J44" s="2"/>
       <c r="L44" s="2"/>
       <c r="W44" s="2"/>
     </row>
     <row r="45" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C45" s="5"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
       <c r="J45" s="2"/>
       <c r="L45" s="2"/>
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C46" s="5"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
       <c r="J46" s="2"/>
       <c r="L46" s="2"/>
       <c r="W46" s="2"/>
     </row>
     <row r="47" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C47" s="5"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
       <c r="J47" s="2"/>
       <c r="L47" s="2"/>
       <c r="W47" s="2"/>
@@ -9034,9 +9023,7 @@
   </sheetPr>
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9054,22 +9041,22 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>753</v>
+        <v>725</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>529</v>
+        <v>836</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -9086,10 +9073,10 @@
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="11.25">
       <c r="A6" s="32" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="11.25">
@@ -9097,7 +9084,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="11.25">
@@ -9105,7 +9092,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="11.25">
@@ -9113,7 +9100,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="11.25">
@@ -9121,7 +9108,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="G10" s="2"/>
       <c r="I10" s="2"/>
@@ -9132,7 +9119,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="G11" s="2"/>
       <c r="I11" s="2"/>
@@ -9143,7 +9130,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="G12" s="2"/>
       <c r="I12" s="2"/>
@@ -9154,7 +9141,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="G13" s="2"/>
       <c r="I13" s="2"/>
@@ -9165,7 +9152,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="G14" s="2"/>
       <c r="I14" s="2"/>
@@ -9176,7 +9163,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="G15" s="2"/>
       <c r="I15" s="2"/>
@@ -9187,7 +9174,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="G16" s="2"/>
       <c r="I16" s="2"/>
@@ -9201,11 +9188,11 @@
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A18" s="87" t="s">
-        <v>530</v>
-      </c>
-      <c r="B18" s="87" t="s">
-        <v>531</v>
+      <c r="A18" s="97" t="s">
+        <v>507</v>
+      </c>
+      <c r="B18" s="97" t="s">
+        <v>508</v>
       </c>
       <c r="C18" s="2"/>
       <c r="J18" s="2"/>
@@ -9213,16 +9200,16 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="2"/>
       <c r="J19" s="2"/>
       <c r="L19" s="2"/>
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
       <c r="C20" s="2"/>
       <c r="J20" s="2"/>
       <c r="L20" s="2"/>
@@ -9356,64 +9343,64 @@
     </row>
     <row r="42" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C42" s="5"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
       <c r="J42" s="2"/>
       <c r="L42" s="2"/>
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C43" s="5"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
       <c r="J43" s="2"/>
       <c r="L43" s="2"/>
       <c r="W43" s="2"/>
     </row>
     <row r="44" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C44" s="5"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
       <c r="J44" s="2"/>
       <c r="L44" s="2"/>
       <c r="W44" s="2"/>
     </row>
     <row r="45" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C45" s="5"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
       <c r="J45" s="2"/>
       <c r="L45" s="2"/>
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C46" s="5"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
       <c r="J46" s="2"/>
       <c r="L46" s="2"/>
       <c r="W46" s="2"/>
     </row>
     <row r="47" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C47" s="5"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
       <c r="J47" s="2"/>
       <c r="L47" s="2"/>
       <c r="W47" s="2"/>
     </row>
     <row r="48" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C48" s="5"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
       <c r="J48" s="2"/>
       <c r="L48" s="2"/>
       <c r="W48" s="2"/>
     </row>
     <row r="49" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C49" s="5"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
       <c r="J49" s="2"/>
       <c r="L49" s="2"/>
       <c r="W49" s="2"/>
@@ -9444,9 +9431,7 @@
   </sheetPr>
   <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -9472,12 +9457,12 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>754</v>
+        <v>726</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -9487,12 +9472,12 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>424</v>
+        <v>837</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -9520,15 +9505,15 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="14" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>550</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="5" t="s">
-        <v>551</v>
+        <v>528</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>36</v>
@@ -9555,7 +9540,7 @@
         <v>91</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>552</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -9563,7 +9548,7 @@
         <v>92</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -9607,20 +9592,20 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="11.25" customHeight="1">
-      <c r="A19" s="58" t="s">
-        <v>555</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>262</v>
+      <c r="A19" s="59" t="s">
+        <v>532</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9641,9 +9626,7 @@
   </sheetPr>
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -9669,12 +9652,12 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>755</v>
+        <v>727</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -9684,10 +9667,10 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -9715,13 +9698,13 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="14" t="s">
-        <v>557</v>
+        <v>534</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>558</v>
+        <v>535</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>559</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -9729,7 +9712,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>77</v>
@@ -9740,10 +9723,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>562</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -9751,18 +9734,18 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:33" s="2" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A12" s="57" t="s">
-        <v>564</v>
-      </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
+      <c r="A12" s="58" t="s">
+        <v>541</v>
+      </c>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -9786,9 +9769,9 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" s="2" customFormat="1">
-      <c r="A13" s="57"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -9812,9 +9795,9 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" s="2" customFormat="1">
-      <c r="A14" s="57"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -9838,31 +9821,31 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="16" spans="1:33">
-      <c r="A16" s="90" t="s">
-        <v>565</v>
-      </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
+      <c r="A16" s="100" t="s">
+        <v>542</v>
+      </c>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="91"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="91"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="91"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="91"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9883,9 +9866,7 @@
   </sheetPr>
   <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -9926,12 +9907,12 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>756</v>
+        <v>728</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -9960,12 +9941,12 @@
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>435</v>
+        <v>832</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -10010,14 +9991,14 @@
     </row>
     <row r="6" spans="1:32" ht="11.25" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B6" s="26"/>
       <c r="D6" s="14" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>577</v>
+        <v>554</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -10032,7 +10013,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>575</v>
+        <v>552</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -10047,7 +10028,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>574</v>
+        <v>551</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -10063,7 +10044,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>573</v>
+        <v>550</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -10079,7 +10060,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -10095,7 +10076,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>571</v>
+        <v>548</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -10111,7 +10092,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>570</v>
+        <v>547</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -10127,7 +10108,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>569</v>
+        <v>546</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -10143,7 +10124,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>568</v>
+        <v>545</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -10159,7 +10140,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -10175,7 +10156,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -10195,38 +10176,38 @@
       <c r="AE17" s="1"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="75" t="s">
-        <v>804</v>
-      </c>
-      <c r="B18" s="75"/>
-      <c r="D18" s="58" t="s">
-        <v>578</v>
-      </c>
-      <c r="E18" s="58" t="s">
-        <v>579</v>
+      <c r="A18" s="85" t="s">
+        <v>774</v>
+      </c>
+      <c r="B18" s="85"/>
+      <c r="D18" s="59" t="s">
+        <v>555</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>556</v>
       </c>
       <c r="AE18" s="1"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
       <c r="AE19" s="1"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10249,9 +10230,7 @@
   </sheetPr>
   <dimension ref="A1:AG19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -10277,12 +10256,12 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>757</v>
+        <v>729</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -10292,12 +10271,12 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>583</v>
+        <v>838</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -10325,10 +10304,10 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="14" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>582</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -10348,11 +10327,11 @@
       </c>
     </row>
     <row r="11" spans="1:33" s="2" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A11" s="58" t="s">
-        <v>584</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>585</v>
+      <c r="A11" s="59" t="s">
+        <v>560</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>561</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -10377,8 +10356,8 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" s="2" customFormat="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -10402,8 +10381,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" s="2" customFormat="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -10549,9 +10528,7 @@
   </sheetPr>
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -10572,23 +10549,23 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>758</v>
+        <v>730</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:28" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>595</v>
+        <v>839</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -10601,15 +10578,15 @@
     </row>
     <row r="6" spans="1:28">
       <c r="C6" s="5"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
     </row>
     <row r="7" spans="1:28" ht="11.25" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -10653,7 +10630,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -10683,10 +10660,10 @@
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -10694,10 +10671,10 @@
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -10705,10 +10682,10 @@
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -10716,10 +10693,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -10731,23 +10708,23 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A19" s="58" t="s">
-        <v>596</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>597</v>
+      <c r="A19" s="59" t="s">
+        <v>571</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>572</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10769,9 +10746,7 @@
   </sheetPr>
   <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -10812,12 +10787,12 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>759</v>
+        <v>731</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -10846,12 +10821,12 @@
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>435</v>
+        <v>832</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -10896,14 +10871,14 @@
     </row>
     <row r="6" spans="1:32" ht="11.25" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B6" s="26"/>
       <c r="D6" s="14" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -10933,7 +10908,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -10949,7 +10924,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -10965,7 +10940,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -10981,7 +10956,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -11003,11 +10978,11 @@
     <row r="13" spans="1:32">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="D13" s="58" t="s">
-        <v>578</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>579</v>
+      <c r="D13" s="59" t="s">
+        <v>555</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>556</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -11019,8 +10994,8 @@
     <row r="14" spans="1:32">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="5"/>
@@ -11031,8 +11006,8 @@
     <row r="15" spans="1:32">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="5"/>
@@ -11061,29 +11036,29 @@
       <c r="AE17" s="1"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="75" t="s">
-        <v>804</v>
-      </c>
-      <c r="B18" s="75"/>
+      <c r="A18" s="85" t="s">
+        <v>774</v>
+      </c>
+      <c r="B18" s="85"/>
       <c r="F18" s="35"/>
       <c r="AE18" s="1"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
       <c r="AE19" s="1"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11128,24 +11103,24 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="T2" s="2"/>
       <c r="V2" s="2"/>
       <c r="AG2" s="2"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>190</v>
+        <v>815</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="11.25" customHeight="1">
@@ -11156,10 +11131,10 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>187</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>188</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -11384,10 +11359,10 @@
     </row>
     <row r="26" spans="1:6" ht="33.75">
       <c r="A26" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -11407,9 +11382,7 @@
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -11434,12 +11407,12 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:35" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -11448,12 +11421,12 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>435</v>
+        <v>832</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -11464,14 +11437,14 @@
     </row>
     <row r="6" spans="1:35" ht="11.25" customHeight="1">
       <c r="A6" s="26" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="B6" s="26"/>
       <c r="D6" s="14" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -11539,7 +11512,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>608</v>
+        <v>583</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -11573,7 +11546,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -11607,7 +11580,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>610</v>
+        <v>585</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -11669,42 +11642,42 @@
       <c r="AI11" s="2"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="D13" s="58" t="s">
-        <v>578</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>579</v>
+      <c r="D13" s="59" t="s">
+        <v>555</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="14" spans="1:35">
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="75" t="s">
-        <v>804</v>
-      </c>
-      <c r="B18" s="75"/>
+      <c r="A18" s="85" t="s">
+        <v>774</v>
+      </c>
+      <c r="B18" s="85"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11727,9 +11700,7 @@
   </sheetPr>
   <dimension ref="A1:AF17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -11754,12 +11725,12 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>761</v>
+        <v>733</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -11768,12 +11739,12 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>612</v>
+        <v>840</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -11784,39 +11755,39 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="14" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>614</v>
+        <v>588</v>
       </c>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="2" t="s">
-        <v>563</v>
+        <v>540</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>615</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="2" t="s">
-        <v>561</v>
+        <v>538</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>616</v>
+        <v>590</v>
       </c>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="2" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="2" t="s">
-        <v>618</v>
+        <v>592</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
@@ -11824,43 +11795,43 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="2" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>620</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="2" t="s">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="2" t="s">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>624</v>
+        <v>598</v>
       </c>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="58" t="s">
-        <v>625</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>626</v>
+      <c r="A15" s="59" t="s">
+        <v>599</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11881,9 +11852,7 @@
   </sheetPr>
   <dimension ref="A2:AA23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -11927,12 +11896,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="D2" s="2"/>
       <c r="N2" s="1"/>
@@ -11940,12 +11909,12 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>659</v>
+        <v>841</v>
       </c>
       <c r="D3" s="2"/>
       <c r="N3" s="1"/>
@@ -11971,8 +11940,8 @@
       <c r="B5" s="2"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
       <c r="K5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="1"/>
@@ -11982,10 +11951,10 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="23" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -12000,10 +11969,10 @@
     </row>
     <row r="7" spans="1:27" s="8" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>640</v>
+        <v>614</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
@@ -12015,10 +11984,10 @@
     </row>
     <row r="8" spans="1:27" s="8" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>641</v>
+        <v>615</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>642</v>
+        <v>616</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
@@ -12030,10 +11999,10 @@
     </row>
     <row r="9" spans="1:27" s="8" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>643</v>
+        <v>617</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>644</v>
+        <v>618</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
@@ -12045,10 +12014,10 @@
     </row>
     <row r="10" spans="1:27" s="8" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>645</v>
+        <v>619</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
@@ -12060,10 +12029,10 @@
     </row>
     <row r="11" spans="1:27" s="8" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>648</v>
+        <v>622</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
@@ -12075,10 +12044,10 @@
     </row>
     <row r="12" spans="1:27" s="8" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>649</v>
+        <v>623</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>650</v>
+        <v>624</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="44"/>
@@ -12090,10 +12059,10 @@
     </row>
     <row r="13" spans="1:27" s="8" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>651</v>
+        <v>625</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
@@ -12105,10 +12074,10 @@
     </row>
     <row r="14" spans="1:27" s="8" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>654</v>
+        <v>628</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
@@ -12120,10 +12089,10 @@
     </row>
     <row r="15" spans="1:27" s="8" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>655</v>
+        <v>629</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>656</v>
+        <v>630</v>
       </c>
       <c r="N15" s="5"/>
       <c r="P15" s="5"/>
@@ -12131,10 +12100,10 @@
     </row>
     <row r="16" spans="1:27" s="8" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>657</v>
+        <v>631</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>658</v>
+        <v>632</v>
       </c>
       <c r="N16" s="5"/>
       <c r="P16" s="5"/>
@@ -12153,26 +12122,26 @@
       <c r="AA18" s="5"/>
     </row>
     <row r="19" spans="1:27" s="8" customFormat="1">
-      <c r="A19" s="75" t="s">
-        <v>660</v>
-      </c>
-      <c r="B19" s="75" t="s">
-        <v>661</v>
+      <c r="A19" s="85" t="s">
+        <v>633</v>
+      </c>
+      <c r="B19" s="85" t="s">
+        <v>634</v>
       </c>
       <c r="N19" s="5"/>
       <c r="P19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
     <row r="20" spans="1:27" s="8" customFormat="1">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
       <c r="N20" s="5"/>
       <c r="P20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
     <row r="21" spans="1:27" s="8" customFormat="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
       <c r="N21" s="5"/>
       <c r="P21" s="5"/>
       <c r="AA21" s="5"/>
@@ -12207,9 +12176,7 @@
   </sheetPr>
   <dimension ref="A2:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -12228,12 +12195,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>763</v>
+        <v>735</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -12242,12 +12209,12 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>435</v>
+        <v>832</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="11"/>
@@ -12264,16 +12231,16 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="94" t="s">
-        <v>627</v>
-      </c>
-      <c r="B6" s="94"/>
+      <c r="A6" s="104" t="s">
+        <v>601</v>
+      </c>
+      <c r="B6" s="104"/>
       <c r="C6" s="12"/>
       <c r="D6" s="14" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
       <c r="F6" s="11"/>
       <c r="K6" s="2"/>
@@ -12299,7 +12266,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>665</v>
+        <v>638</v>
       </c>
       <c r="F8" s="11"/>
       <c r="K8" s="2"/>
@@ -12377,7 +12344,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>666</v>
+        <v>639</v>
       </c>
       <c r="F14" s="11"/>
       <c r="K14" s="2"/>
@@ -12390,7 +12357,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>667</v>
+        <v>640</v>
       </c>
       <c r="F15" s="11"/>
       <c r="K15" s="2"/>
@@ -12403,7 +12370,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>668</v>
+        <v>641</v>
       </c>
       <c r="F16" s="11"/>
       <c r="K16" s="2"/>
@@ -12427,35 +12394,35 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="95" t="s">
-        <v>804</v>
-      </c>
-      <c r="B19" s="95"/>
+      <c r="A19" s="105" t="s">
+        <v>774</v>
+      </c>
+      <c r="B19" s="105"/>
       <c r="C19" s="37"/>
-      <c r="D19" s="96" t="s">
-        <v>578</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>636</v>
+      <c r="D19" s="106" t="s">
+        <v>555</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>610</v>
       </c>
       <c r="F19" s="11"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="58"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="11"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="95"/>
-      <c r="B21" s="95"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="37"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="58"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="11"/>
       <c r="K21" s="2"/>
     </row>
@@ -12513,23 +12480,23 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>813</v>
+        <v>783</v>
       </c>
       <c r="D2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>505</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>435</v>
+        <v>832</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="11"/>
@@ -12569,18 +12536,18 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="94" t="s">
-        <v>543</v>
-      </c>
-      <c r="B6" s="94"/>
+      <c r="A6" s="104" t="s">
+        <v>520</v>
+      </c>
+      <c r="B6" s="104"/>
       <c r="D6" s="34" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -12588,7 +12555,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>81</v>
@@ -12599,7 +12566,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>81</v>
@@ -12610,7 +12577,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>81</v>
@@ -12621,7 +12588,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>81</v>
@@ -12632,7 +12599,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>81</v>
@@ -12643,7 +12610,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>81</v>
@@ -12654,7 +12621,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>81</v>
@@ -12665,7 +12632,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>81</v>
@@ -12676,7 +12643,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>81</v>
@@ -12687,39 +12654,39 @@
         <v>10</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="95" t="s">
-        <v>804</v>
-      </c>
-      <c r="B19" s="95"/>
+      <c r="A19" s="105" t="s">
+        <v>774</v>
+      </c>
+      <c r="B19" s="105"/>
       <c r="C19" s="37"/>
-      <c r="D19" s="58" t="s">
-        <v>438</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>439</v>
-      </c>
-      <c r="F19" s="99" t="s">
-        <v>544</v>
+      <c r="D19" s="59" t="s">
+        <v>426</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>427</v>
+      </c>
+      <c r="F19" s="109" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="100"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="110"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="95"/>
-      <c r="B21" s="95"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="37"/>
     </row>
     <row r="22" spans="1:6">
@@ -12736,18 +12703,18 @@
       <c r="F23" s="39"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="94" t="s">
-        <v>545</v>
-      </c>
-      <c r="B25" s="94"/>
+      <c r="A25" s="104" t="s">
+        <v>522</v>
+      </c>
+      <c r="B25" s="104"/>
       <c r="D25" s="34" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -12755,10 +12722,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -12766,10 +12733,10 @@
         <v>2</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -12777,10 +12744,10 @@
         <v>3</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -12788,10 +12755,10 @@
         <v>4</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -12799,10 +12766,10 @@
         <v>5</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -12810,10 +12777,10 @@
         <v>6</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -12821,10 +12788,10 @@
         <v>7</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -12832,10 +12799,10 @@
         <v>8</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -12843,10 +12810,10 @@
         <v>10</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -12854,39 +12821,39 @@
         <v>11</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="95" t="s">
-        <v>804</v>
-      </c>
-      <c r="B38" s="95"/>
+      <c r="A38" s="105" t="s">
+        <v>774</v>
+      </c>
+      <c r="B38" s="105"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="58" t="s">
-        <v>438</v>
-      </c>
-      <c r="E38" s="58" t="s">
-        <v>439</v>
-      </c>
-      <c r="F38" s="99" t="s">
-        <v>548</v>
+      <c r="D38" s="59" t="s">
+        <v>426</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>427</v>
+      </c>
+      <c r="F38" s="109" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="95"/>
-      <c r="B39" s="95"/>
+      <c r="A39" s="105"/>
+      <c r="B39" s="105"/>
       <c r="C39" s="37"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="100"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="110"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="95"/>
-      <c r="B40" s="95"/>
+      <c r="A40" s="105"/>
+      <c r="B40" s="105"/>
       <c r="C40" s="37"/>
     </row>
     <row r="41" spans="1:6">
@@ -12896,11 +12863,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A38:B40"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A2:B2"/>
@@ -12908,6 +12870,11 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A38:B40"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12941,12 +12908,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -12955,12 +12922,12 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>435</v>
+        <v>832</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="11"/>
@@ -12977,16 +12944,16 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="94" t="s">
-        <v>627</v>
-      </c>
-      <c r="B6" s="94"/>
+      <c r="A6" s="104" t="s">
+        <v>601</v>
+      </c>
+      <c r="B6" s="104"/>
       <c r="C6" s="12"/>
       <c r="D6" s="14" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>671</v>
+        <v>644</v>
       </c>
       <c r="F6" s="11"/>
       <c r="K6" s="2"/>
@@ -12999,7 +12966,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>672</v>
+        <v>645</v>
       </c>
       <c r="F7" s="11"/>
       <c r="K7" s="2"/>
@@ -13012,7 +12979,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>673</v>
+        <v>646</v>
       </c>
       <c r="F8" s="11"/>
       <c r="K8" s="2"/>
@@ -13025,7 +12992,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>674</v>
+        <v>647</v>
       </c>
       <c r="F9" s="11"/>
       <c r="K9" s="2"/>
@@ -13038,7 +13005,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
       <c r="F10" s="11"/>
       <c r="K10" s="2"/>
@@ -13051,7 +13018,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>676</v>
+        <v>649</v>
       </c>
       <c r="F11" s="11"/>
       <c r="K11" s="2"/>
@@ -13064,7 +13031,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>677</v>
+        <v>650</v>
       </c>
       <c r="F12" s="11"/>
       <c r="K12" s="2"/>
@@ -13077,7 +13044,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>678</v>
+        <v>651</v>
       </c>
       <c r="F13" s="11"/>
       <c r="K13" s="2"/>
@@ -13090,7 +13057,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>679</v>
+        <v>652</v>
       </c>
       <c r="F14" s="11"/>
       <c r="K14" s="2"/>
@@ -13103,7 +13070,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>680</v>
+        <v>653</v>
       </c>
       <c r="F15" s="11"/>
       <c r="K15" s="2"/>
@@ -13140,35 +13107,35 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="95" t="s">
-        <v>804</v>
-      </c>
-      <c r="B19" s="95"/>
+      <c r="A19" s="105" t="s">
+        <v>774</v>
+      </c>
+      <c r="B19" s="105"/>
       <c r="C19" s="37"/>
-      <c r="D19" s="96" t="s">
-        <v>578</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>636</v>
+      <c r="D19" s="106" t="s">
+        <v>555</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>610</v>
       </c>
       <c r="F19" s="11"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="58"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="11"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="95"/>
-      <c r="B21" s="95"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="37"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="58"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="11"/>
       <c r="K21" s="2"/>
     </row>
@@ -13222,12 +13189,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -13236,12 +13203,12 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>435</v>
+        <v>832</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="11"/>
@@ -13258,16 +13225,16 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="94" t="s">
-        <v>627</v>
-      </c>
-      <c r="B6" s="94"/>
+      <c r="A6" s="104" t="s">
+        <v>601</v>
+      </c>
+      <c r="B6" s="104"/>
       <c r="C6" s="12"/>
       <c r="D6" s="14" t="s">
-        <v>682</v>
+        <v>655</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>683</v>
+        <v>656</v>
       </c>
       <c r="F6" s="11"/>
       <c r="K6" s="2"/>
@@ -13280,7 +13247,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>684</v>
+        <v>657</v>
       </c>
       <c r="F7" s="11"/>
       <c r="K7" s="2"/>
@@ -13293,7 +13260,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>685</v>
+        <v>658</v>
       </c>
       <c r="F8" s="11"/>
       <c r="K8" s="2"/>
@@ -13389,35 +13356,35 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="95" t="s">
-        <v>804</v>
-      </c>
-      <c r="B19" s="95"/>
+      <c r="A19" s="105" t="s">
+        <v>774</v>
+      </c>
+      <c r="B19" s="105"/>
       <c r="C19" s="37"/>
-      <c r="D19" s="96" t="s">
-        <v>578</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>636</v>
+      <c r="D19" s="106" t="s">
+        <v>555</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>610</v>
       </c>
       <c r="F19" s="11"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="58"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="11"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="95"/>
-      <c r="B21" s="95"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="37"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="58"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="11"/>
       <c r="K21" s="2"/>
     </row>
@@ -13452,9 +13419,7 @@
   </sheetPr>
   <dimension ref="A2:AA25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -13498,12 +13463,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
       <c r="D2" s="2"/>
       <c r="N2" s="1"/>
@@ -13511,12 +13476,12 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>714</v>
+        <v>842</v>
       </c>
       <c r="D3" s="2"/>
       <c r="N3" s="1"/>
@@ -13542,8 +13507,8 @@
       <c r="B5" s="2"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
       <c r="K5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="1"/>
@@ -13553,16 +13518,16 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="23" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="C6" s="45" t="s">
-        <v>687</v>
+        <v>660</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>688</v>
+        <v>661</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -13575,16 +13540,16 @@
     </row>
     <row r="7" spans="1:27" s="8" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>689</v>
+        <v>662</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>690</v>
+        <v>663</v>
       </c>
       <c r="E7" s="44"/>
       <c r="F7" s="44"/>
@@ -13594,16 +13559,16 @@
     </row>
     <row r="8" spans="1:27" s="8" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>691</v>
+        <v>664</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>692</v>
+        <v>665</v>
       </c>
       <c r="E8" s="44"/>
       <c r="F8" s="44"/>
@@ -13613,16 +13578,16 @@
     </row>
     <row r="9" spans="1:27" s="8" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>693</v>
+        <v>666</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>694</v>
+        <v>667</v>
       </c>
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
@@ -13632,16 +13597,16 @@
     </row>
     <row r="10" spans="1:27" s="8" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>695</v>
+        <v>668</v>
       </c>
       <c r="D10" s="46" t="s">
-        <v>696</v>
+        <v>669</v>
       </c>
       <c r="E10" s="44"/>
       <c r="F10" s="44"/>
@@ -13651,16 +13616,16 @@
     </row>
     <row r="11" spans="1:27" s="8" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>697</v>
+        <v>670</v>
       </c>
       <c r="D11" s="46" t="s">
-        <v>698</v>
+        <v>671</v>
       </c>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
@@ -13670,16 +13635,16 @@
     </row>
     <row r="12" spans="1:27" s="8" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>699</v>
+        <v>672</v>
       </c>
       <c r="D12" s="46" t="s">
-        <v>700</v>
+        <v>673</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="44"/>
@@ -13689,16 +13654,16 @@
     </row>
     <row r="13" spans="1:27" s="8" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>701</v>
+        <v>674</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>702</v>
+        <v>675</v>
       </c>
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
@@ -13708,16 +13673,16 @@
     </row>
     <row r="14" spans="1:27" s="8" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>703</v>
+        <v>676</v>
       </c>
       <c r="D14" s="46" t="s">
-        <v>704</v>
+        <v>677</v>
       </c>
       <c r="E14" s="44"/>
       <c r="F14" s="44"/>
@@ -13727,16 +13692,16 @@
     </row>
     <row r="15" spans="1:27" s="8" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>705</v>
+        <v>678</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>706</v>
+        <v>679</v>
       </c>
       <c r="N15" s="5"/>
       <c r="P15" s="5"/>
@@ -13744,16 +13709,16 @@
     </row>
     <row r="16" spans="1:27" s="8" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>707</v>
+        <v>680</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>708</v>
+        <v>681</v>
       </c>
       <c r="N16" s="5"/>
       <c r="P16" s="5"/>
@@ -13772,45 +13737,45 @@
       <c r="AA18" s="5"/>
     </row>
     <row r="19" spans="1:27" s="8" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A19" s="58" t="s">
-        <v>713</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>711</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>709</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>710</v>
+      <c r="A19" s="59" t="s">
+        <v>686</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>684</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>682</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>683</v>
       </c>
       <c r="N19" s="5"/>
       <c r="P19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
     <row r="20" spans="1:27" s="8" customFormat="1">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
       <c r="N20" s="5"/>
       <c r="P20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
     <row r="21" spans="1:27" s="8" customFormat="1">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
       <c r="N21" s="5"/>
       <c r="P21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
     <row r="22" spans="1:27" s="8" customFormat="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
       <c r="N22" s="5"/>
       <c r="P22" s="5"/>
       <c r="AA22" s="5"/>
@@ -13827,7 +13792,7 @@
     </row>
     <row r="25" spans="1:27" ht="123.75">
       <c r="B25" s="16" t="s">
-        <v>712</v>
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -13852,9 +13817,7 @@
   </sheetPr>
   <dimension ref="A2:AA16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -13898,12 +13861,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>767</v>
+        <v>739</v>
       </c>
       <c r="D2" s="2"/>
       <c r="N2" s="1"/>
@@ -13911,12 +13874,12 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>365</v>
+        <v>828</v>
       </c>
       <c r="D3" s="2"/>
       <c r="N3" s="1"/>
@@ -13942,8 +13905,8 @@
       <c r="B5" s="2"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
       <c r="K5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="1"/>
@@ -13953,10 +13916,10 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="23" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -13969,10 +13932,10 @@
     </row>
     <row r="7" spans="1:27" s="8" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -13984,10 +13947,10 @@
     </row>
     <row r="8" spans="1:27" s="8" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -13999,10 +13962,10 @@
     </row>
     <row r="9" spans="1:27" s="8" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -14029,11 +13992,11 @@
       <c r="AA11" s="5"/>
     </row>
     <row r="12" spans="1:27" s="8" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A12" s="58" t="s">
-        <v>730</v>
-      </c>
-      <c r="B12" s="58" t="s">
-        <v>262</v>
+      <c r="A12" s="59" t="s">
+        <v>702</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>257</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -14042,8 +14005,8 @@
       <c r="AA12" s="5"/>
     </row>
     <row r="13" spans="1:27" s="8" customFormat="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="N13" s="5"/>
@@ -14051,8 +14014,8 @@
       <c r="AA13" s="5"/>
     </row>
     <row r="14" spans="1:27" s="8" customFormat="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="N14" s="5"/>
@@ -14060,8 +14023,8 @@
       <c r="AA14" s="5"/>
     </row>
     <row r="15" spans="1:27" s="8" customFormat="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="N15" s="5"/>
@@ -14104,7 +14067,7 @@
     <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="1" customWidth="1"/>
@@ -14139,12 +14102,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>768</v>
+        <v>740</v>
       </c>
       <c r="H2" s="2"/>
       <c r="N2" s="1"/>
@@ -14152,12 +14115,12 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>803</v>
+        <v>773</v>
       </c>
       <c r="H3" s="2"/>
       <c r="N3" s="1"/>
@@ -14180,28 +14143,28 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="14" t="s">
-        <v>717</v>
+        <v>689</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -14215,16 +14178,16 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>721</v>
+        <v>693</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>36</v>
@@ -14241,16 +14204,16 @@
         <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>36</v>
@@ -14267,16 +14230,16 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>36</v>
@@ -14293,16 +14256,16 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>724</v>
+        <v>696</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>36</v>
@@ -14319,16 +14282,16 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>725</v>
+        <v>697</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>36</v>
@@ -14345,16 +14308,16 @@
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>726</v>
+        <v>698</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>36</v>
@@ -14375,125 +14338,131 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="11.25" customHeight="1">
-      <c r="A15" s="79" t="s">
-        <v>799</v>
-      </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="79" t="s">
-        <v>800</v>
-      </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79" t="s">
-        <v>496</v>
+      <c r="A15" s="89" t="s">
+        <v>843</v>
+      </c>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="89" t="s">
+        <v>844</v>
+      </c>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89" t="s">
+        <v>822</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="11.25" customHeight="1">
-      <c r="A16" s="103"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A17" s="103"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
     </row>
     <row r="18" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A18" s="58" t="s">
-        <v>727</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="C18" s="104" t="s">
-        <v>729</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>802</v>
-      </c>
-      <c r="E18" s="105" t="s">
-        <v>801</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>273</v>
-      </c>
-      <c r="G18" s="102" t="s">
-        <v>798</v>
-      </c>
-      <c r="H18" s="58"/>
+      <c r="A18" s="59" t="s">
+        <v>699</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>359</v>
+      </c>
+      <c r="C18" s="112" t="s">
+        <v>701</v>
+      </c>
+      <c r="D18" s="87" t="s">
+        <v>772</v>
+      </c>
+      <c r="E18" s="113" t="s">
+        <v>771</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>268</v>
+      </c>
+      <c r="G18" s="115" t="s">
+        <v>770</v>
+      </c>
+      <c r="H18" s="59"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="58"/>
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="59"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="58"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="D21" s="77"/>
+      <c r="D21" s="87"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="101" t="s">
-        <v>728</v>
-      </c>
-      <c r="D22" s="77"/>
+      <c r="A22" s="114" t="s">
+        <v>700</v>
+      </c>
+      <c r="D22" s="87"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="101"/>
-      <c r="D23" s="77"/>
+      <c r="A23" s="114"/>
+      <c r="D23" s="87"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="D24" s="77"/>
+      <c r="D24" s="87"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="D25" s="77"/>
+      <c r="D25" s="87"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="D26" s="77"/>
+      <c r="D26" s="87"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="D27" s="77"/>
+      <c r="D27" s="87"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="D28" s="77"/>
+      <c r="D28" s="87"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="D29" s="77"/>
+      <c r="D29" s="87"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="D30" s="77"/>
+      <c r="D30" s="87"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="D31" s="77"/>
+      <c r="D31" s="87"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="D32" s="77"/>
+      <c r="D32" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="D18:D32"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="A15:C17"/>
@@ -14502,12 +14471,6 @@
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="D18:D32"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -14521,9 +14484,7 @@
   </sheetPr>
   <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -14545,24 +14506,24 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="T2" s="2"/>
       <c r="V2" s="2"/>
       <c r="AG2" s="2"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>505</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:33" ht="11.25" customHeight="1">
@@ -14576,19 +14537,19 @@
         <v>151</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>198</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>147</v>
@@ -14599,7 +14560,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>36</v>
@@ -14608,13 +14569,13 @@
         <v>148</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -14622,7 +14583,7 @@
         <v>104</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
@@ -14631,13 +14592,13 @@
         <v>149</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -14645,7 +14606,7 @@
         <v>106</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>36</v>
@@ -14654,13 +14615,13 @@
         <v>150</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -14668,22 +14629,22 @@
         <v>105</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -14691,22 +14652,22 @@
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -14714,22 +14675,22 @@
         <v>160</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -14737,13 +14698,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>36</v>
@@ -14752,7 +14713,7 @@
         <v>36</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -14760,22 +14721,22 @@
         <v>1</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -14783,22 +14744,22 @@
         <v>104</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -14806,68 +14767,68 @@
         <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1">
-      <c r="A19" s="56" t="s">
-        <v>494</v>
-      </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="55" t="s">
-        <v>495</v>
-      </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="57" t="s">
+      <c r="A19" s="57" t="s">
+        <v>816</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="56" t="s">
+        <v>817</v>
+      </c>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="58" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="57"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="58"/>
     </row>
     <row r="21" spans="1:7" ht="56.25">
       <c r="A21" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B21" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>238</v>
-      </c>
       <c r="D21" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F21" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="E21" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="G21" s="57"/>
+      <c r="G21" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -14879,6 +14840,18 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
@@ -14911,32 +14884,32 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="T2" s="2"/>
       <c r="V2" s="2"/>
       <c r="AG2" s="2"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>243</v>
+        <v>818</v>
       </c>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -14980,26 +14953,26 @@
       </c>
     </row>
     <row r="13" spans="1:33">
-      <c r="A13" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="B13" s="58"/>
+      <c r="A13" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="59"/>
     </row>
     <row r="14" spans="1:33">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
     </row>
     <row r="15" spans="1:33">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
     </row>
     <row r="16" spans="1:33">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15019,9 +14992,7 @@
   </sheetPr>
   <dimension ref="A1:AD28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -15044,34 +15015,34 @@
       <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:30" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="S2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
     <row r="3" spans="1:30" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>242</v>
+        <v>819</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="5" spans="1:30" ht="11.25" customHeight="1"/>
     <row r="6" spans="1:30" ht="11.25" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -15175,7 +15146,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -15206,26 +15177,26 @@
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="58" t="s">
-        <v>248</v>
-      </c>
-      <c r="B24" s="58"/>
+      <c r="A24" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="B24" s="59"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15245,9 +15216,7 @@
   </sheetPr>
   <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -15270,211 +15239,211 @@
       <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:30" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>815</v>
+        <v>785</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="S2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
     <row r="3" spans="1:30" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="5" spans="1:30" ht="11.25" customHeight="1"/>
     <row r="6" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A6" s="106" t="s">
-        <v>817</v>
-      </c>
-      <c r="B6" s="106" t="s">
-        <v>818</v>
-      </c>
-      <c r="C6" s="106" t="s">
-        <v>819</v>
-      </c>
-      <c r="E6" s="106" t="s">
-        <v>817</v>
-      </c>
-      <c r="F6" s="106" t="s">
-        <v>818</v>
-      </c>
-      <c r="G6" s="106" t="s">
-        <v>819</v>
+      <c r="A6" s="54" t="s">
+        <v>787</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>788</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>789</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>787</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>788</v>
+      </c>
+      <c r="G6" s="54" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="2" t="s">
-        <v>820</v>
+        <v>790</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>821</v>
+        <v>791</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>822</v>
+        <v>792</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>823</v>
+        <v>793</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>824</v>
+        <v>794</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="2" t="s">
-        <v>822</v>
+        <v>792</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>825</v>
+        <v>795</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>821</v>
+        <v>791</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>826</v>
+        <v>796</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>827</v>
+        <v>797</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>824</v>
+        <v>794</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="2" t="s">
-        <v>828</v>
+        <v>798</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>829</v>
+        <v>799</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>821</v>
+        <v>791</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>830</v>
+        <v>800</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>832</v>
+        <v>802</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>824</v>
+        <v>794</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="2" t="s">
-        <v>830</v>
+        <v>800</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>831</v>
+        <v>801</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>821</v>
+        <v>791</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>833</v>
+        <v>803</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>835</v>
+        <v>805</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>824</v>
+        <v>794</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="2" t="s">
-        <v>833</v>
+        <v>803</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>834</v>
+        <v>804</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>821</v>
+        <v>791</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>836</v>
+        <v>806</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>837</v>
+        <v>807</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>824</v>
+        <v>794</v>
       </c>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="107" t="s">
-        <v>839</v>
-      </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="E13" s="107" t="s">
-        <v>840</v>
-      </c>
-      <c r="F13" s="108"/>
-      <c r="G13" s="109"/>
+      <c r="A13" s="60" t="s">
+        <v>808</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="E13" s="60" t="s">
+        <v>809</v>
+      </c>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="110"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="112"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="113"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="115"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="115"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
     </row>
     <row r="16" spans="1:30" ht="33.75" customHeight="1">
-      <c r="A16" s="58" t="s">
-        <v>841</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>842</v>
-      </c>
-      <c r="C16" s="58" t="s">
-        <v>843</v>
-      </c>
-      <c r="E16" s="58" t="s">
-        <v>841</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>842</v>
-      </c>
-      <c r="G16" s="58" t="s">
-        <v>844</v>
+      <c r="A16" s="59" t="s">
+        <v>810</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>811</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>812</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>810</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>811</v>
+      </c>
+      <c r="G16" s="59" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -15519,12 +15488,12 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
@@ -15532,12 +15501,12 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>260</v>
+        <v>821</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
@@ -15558,13 +15527,13 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="17" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -15572,7 +15541,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>36</v>
@@ -15583,7 +15552,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>36</v>
@@ -15594,7 +15563,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>36</v>
@@ -15605,7 +15574,7 @@
         <v>1101</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C10" s="11">
         <v>11</v>
@@ -15616,7 +15585,7 @@
         <v>110101</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C11" s="11">
         <v>1101</v>
@@ -15627,7 +15596,7 @@
         <v>110101001</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C12" s="11">
         <v>110101</v>
@@ -15638,7 +15607,7 @@
         <v>1102</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C13" s="11">
         <v>11</v>
@@ -15649,7 +15618,7 @@
         <v>110201</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C14" s="11">
         <v>1102</v>
@@ -15660,7 +15629,7 @@
         <v>110201001</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C15" s="11">
         <v>110201</v>
@@ -15671,32 +15640,32 @@
         <v>110201002</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C16" s="11">
         <v>110201</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="B19" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>263</v>
+      <c r="A19" s="69" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" s="69" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="69" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -15744,12 +15713,12 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
@@ -15760,12 +15729,12 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>505</v>
-      </c>
-      <c r="B3" s="54"/>
+      <c r="A3" s="55" t="s">
+        <v>484</v>
+      </c>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E3" s="1"/>
       <c r="G3" s="1"/>
@@ -15785,16 +15754,16 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="14" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -15802,62 +15771,62 @@
         <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="11.25" customHeight="1">
-      <c r="A10" s="63" t="s">
-        <v>496</v>
-      </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="60" t="s">
-        <v>497</v>
+      <c r="A10" s="73" t="s">
+        <v>822</v>
+      </c>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="70" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="11.25" customHeight="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="61"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="71"/>
     </row>
     <row r="12" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="62"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="72"/>
     </row>
     <row r="13" spans="1:33" ht="45" customHeight="1">
-      <c r="A13" s="58" t="s">
-        <v>272</v>
-      </c>
-      <c r="B13" s="58" t="s">
-        <v>273</v>
-      </c>
-      <c r="C13" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13" s="58" t="s">
-        <v>498</v>
+      <c r="A13" s="59" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="59" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:33">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
     </row>
     <row r="15" spans="1:33">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Documentação/Planilhas/Conferencia_DOM.xlsx
+++ b/Documentação/Planilhas/Conferencia_DOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="28" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -30,16 +30,16 @@
     <sheet name="stg_dom_nfe_status_rascunho" sheetId="95" r:id="rId21"/>
     <sheet name="stg_dom_nfr_motivo_devolucao" sheetId="56" r:id="rId22"/>
     <sheet name="stg_dom_orc_tipo" sheetId="60" r:id="rId23"/>
-    <sheet name="stg_dom_pec_documento_fiscal" sheetId="32" r:id="rId24"/>
-    <sheet name="stg_dom_pec_status_item" sheetId="62" r:id="rId25"/>
-    <sheet name="stg_dom_pec_tipo_cadastro" sheetId="63" r:id="rId26"/>
-    <sheet name="stg_dom_pec_tipo_frete" sheetId="64" r:id="rId27"/>
-    <sheet name="stg_dom_pec_tipo_ordem_compra" sheetId="4" r:id="rId28"/>
-    <sheet name="stg_dom_pev_origem" sheetId="65" r:id="rId29"/>
-    <sheet name="stg_dom_pev_status_pagamento" sheetId="24" r:id="rId30"/>
-    <sheet name="stg_dom_pev_tipo_pedido" sheetId="66" r:id="rId31"/>
-    <sheet name="stg_dom_status" sheetId="83" r:id="rId32"/>
-    <sheet name="stg_dom_tipo_documento" sheetId="84" r:id="rId33"/>
+    <sheet name="stg_dom_pec_status_item" sheetId="62" r:id="rId24"/>
+    <sheet name="stg_dom_pec_tipo_cadastro" sheetId="63" r:id="rId25"/>
+    <sheet name="stg_dom_pec_tipo_frete" sheetId="64" r:id="rId26"/>
+    <sheet name="stg_dom_pec_tipo_ordem_compra" sheetId="4" r:id="rId27"/>
+    <sheet name="stg_dom_pev_origem" sheetId="65" r:id="rId28"/>
+    <sheet name="stg_dom_pev_status_pagamento" sheetId="24" r:id="rId29"/>
+    <sheet name="stg_dom_pev_tipo_pedido" sheetId="66" r:id="rId30"/>
+    <sheet name="stg_dom_status" sheetId="83" r:id="rId31"/>
+    <sheet name="stg_dom_tipo_documento" sheetId="84" r:id="rId32"/>
+    <sheet name="stg_dom_tipo_documento_fiscal" sheetId="32" r:id="rId33"/>
     <sheet name="stg_dom_tipo_operacao" sheetId="57" r:id="rId34"/>
     <sheet name="stg_dom_tipo_transacao" sheetId="102" r:id="rId35"/>
     <sheet name="stg_dom_tipo_transporte" sheetId="101" r:id="rId36"/>
@@ -1724,9 +1724,6 @@
     <t>REMESSA OP. TRIANGULAR SEM REG</t>
   </si>
   <si>
-    <t>stg_dom_pec_documento_fiscal</t>
-  </si>
-  <si>
     <t>Pegar a informação da coluna Código do Tipo  de doc. Fiscal</t>
   </si>
   <si>
@@ -2337,9 +2334,6 @@
     <t>dbo.stg_dom_orc_tipo</t>
   </si>
   <si>
-    <t>dbo.stg_dom_pec_documento_fiscal</t>
-  </si>
-  <si>
     <t>dbo.stg_dom_pec_status_item</t>
   </si>
   <si>
@@ -2613,6 +2607,12 @@
   </si>
   <si>
     <t>Somente informações de RETORNAR</t>
+  </si>
+  <si>
+    <t>dbo.stg_dom_tipo_documento_fiscal</t>
+  </si>
+  <si>
+    <t>stg_dom_tipo_documento_fiscal</t>
   </si>
 </sst>
 </file>
@@ -3169,6 +3169,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3183,6 +3186,33 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3310,12 +3340,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3325,35 +3349,11 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4151,10 +4151,10 @@
   <dimension ref="B1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4165,105 +4165,105 @@
   <sheetData>
     <row r="1" spans="2:3" ht="33" customHeight="1">
       <c r="B1" s="47" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="51" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C2" s="50"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="51" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C3" s="50"/>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="51" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C4" s="50"/>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="51" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C5" s="50"/>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="51" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C6" s="50"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="51" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C7" s="50"/>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="51" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C8" s="50"/>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="51" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C9" s="50"/>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="51" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C10" s="50"/>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="51" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C11" s="50"/>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="51" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C12" s="50"/>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="51" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C13" s="50"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="51" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C14" s="50"/>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="51" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C15" s="50"/>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="51" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C16" s="50"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="51" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C17" s="50"/>
     </row>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="51" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C21" s="50"/>
     </row>
@@ -4305,116 +4305,116 @@
     </row>
     <row r="24" spans="2:3">
       <c r="B24" s="51" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C24" s="50"/>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="51" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="C25" s="50"/>
     </row>
     <row r="26" spans="2:3">
       <c r="B26" s="51" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C26" s="50"/>
     </row>
     <row r="27" spans="2:3">
       <c r="B27" s="51" t="s">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="C27" s="50"/>
     </row>
     <row r="28" spans="2:3">
       <c r="B28" s="51" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C28" s="50"/>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="51" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="C29" s="50"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="51" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="C30" s="50"/>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="51" t="s">
-        <v>611</v>
+        <v>636</v>
       </c>
       <c r="C31" s="50"/>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="51" t="s">
-        <v>637</v>
+        <v>661</v>
       </c>
       <c r="C32" s="50"/>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="51" t="s">
-        <v>662</v>
+        <v>844</v>
       </c>
       <c r="C33" s="50"/>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" s="51" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C34" s="50"/>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="51" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C35" s="50"/>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="51" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C36" s="50"/>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="51" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C37" s="50"/>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="51" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C38" s="50"/>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="49" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="51" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C40" s="50" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="52" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -4439,16 +4439,16 @@
     <hyperlink ref="B20" location="stg_dom_natureza_tipo_operacao!A1" display="stg_dom_natureza_tipo_operacao"/>
     <hyperlink ref="B34" location="stg_dom_tipo_operacao!A1" display="stg_dom_nfr_tipo_operacao"/>
     <hyperlink ref="B22" location="stg_dom_nfr_motivo_devolucao!A1" display="stg_dom_nfr_motivo_devolucao"/>
-    <hyperlink ref="B24" location="stg_dom_pec_documento_fiscal!A1" display="stg_dom_pec_documento_fiscal"/>
-    <hyperlink ref="B25" location="stg_dom_pec_status_item!A1" display="stg_dom_pec_status_item"/>
-    <hyperlink ref="B26" location="stg_dom_parceiro_tipo_cadastro!A1" display="stg_dom_pec_tipo_cadastro"/>
-    <hyperlink ref="B27" location="stg_dom_pec_tipo_frete!A1" display="stg_dom_pec_tipo_frete"/>
-    <hyperlink ref="B28" location="stg_dom_pec_tipo_ordem_compra!A1" display="stg_dom_pec_tipo_ordem_compra"/>
-    <hyperlink ref="B29" location="stg_dom_pev_origem!A1" display="stg_dom_pev_origem"/>
-    <hyperlink ref="B30" location="stg_dom_pev_status_pagamento!A1" display="stg_dom_pev_status_pagamento"/>
-    <hyperlink ref="B31" location="stg_dom_pev_tipo_pedido!A1" display="stg_dom_pev_tipo_pedido"/>
-    <hyperlink ref="B32" location="stg_dom_status!A1" display="stg_dom_status"/>
-    <hyperlink ref="B33" location="stg_dom_tipo_documento!A1" display="stg_dom_tipo_documento"/>
+    <hyperlink ref="B33" location="stg_dom_tipo_documento_fiscal!A1" display="stg_dom_tipo_documento_fiscal"/>
+    <hyperlink ref="B24" location="stg_dom_pec_status_item!A1" display="stg_dom_pec_status_item"/>
+    <hyperlink ref="B25" location="stg_dom_parceiro_tipo_cadastro!A1" display="stg_dom_pec_tipo_cadastro"/>
+    <hyperlink ref="B26" location="stg_dom_pec_tipo_frete!A1" display="stg_dom_pec_tipo_frete"/>
+    <hyperlink ref="B27" location="stg_dom_pec_tipo_ordem_compra!A1" display="stg_dom_pec_tipo_ordem_compra"/>
+    <hyperlink ref="B28" location="stg_dom_pev_origem!A1" display="stg_dom_pev_origem"/>
+    <hyperlink ref="B29" location="stg_dom_pev_status_pagamento!A1" display="stg_dom_pev_status_pagamento"/>
+    <hyperlink ref="B30" location="stg_dom_pev_tipo_pedido!A1" display="stg_dom_pev_tipo_pedido"/>
+    <hyperlink ref="B31" location="stg_dom_status!A1" display="stg_dom_status"/>
+    <hyperlink ref="B32" location="stg_dom_tipo_documento!A1" display="stg_dom_tipo_documento"/>
     <hyperlink ref="B35" location="stg_dom_tipo_transacao!A1" display="stg_dom_tipo_transacao"/>
     <hyperlink ref="B36" location="stg_dom_tipo_transporte!A1" display="stg_dom_tipo_transporte"/>
     <hyperlink ref="B37" location="stg_dom_transacao!A1" display="stg_dom_transacao"/>
@@ -4494,10 +4494,10 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
         <v>276</v>
       </c>
@@ -4510,10 +4510,10 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>297</v>
       </c>
@@ -4725,36 +4725,36 @@
       </c>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="59" t="s">
         <v>300</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="59" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4795,10 +4795,10 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
         <v>315</v>
       </c>
@@ -4808,10 +4808,10 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>324</v>
       </c>
@@ -4960,33 +4960,33 @@
       <c r="D16" s="21"/>
     </row>
     <row r="19" spans="1:4" ht="11.25" customHeight="1">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="59" t="s">
         <v>325</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="59" t="s">
         <v>499</v>
       </c>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
       <c r="D22" s="11"/>
     </row>
   </sheetData>
@@ -5032,10 +5032,10 @@
       <c r="AE1" s="2"/>
     </row>
     <row r="2" spans="1:31" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
         <v>351</v>
       </c>
@@ -5046,10 +5046,10 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:31" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>355</v>
       </c>
@@ -5256,38 +5256,38 @@
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="82" t="s">
         <v>500</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="73" t="s">
         <v>501</v>
       </c>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="75"/>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="73"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="68"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="78"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="74"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="81"/>
     </row>
     <row r="21" spans="2:10" ht="11.25" customHeight="1">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="59" t="s">
         <v>502</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="59" t="s">
         <v>352</v>
       </c>
-      <c r="D21" s="58" t="s">
+      <c r="D21" s="59" t="s">
         <v>353</v>
       </c>
-      <c r="E21" s="58" t="s">
+      <c r="E21" s="59" t="s">
         <v>354</v>
       </c>
       <c r="F21" s="1"/>
@@ -5297,10 +5297,10 @@
       <c r="J21" s="1"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -5308,10 +5308,10 @@
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -5319,10 +5319,10 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -5330,10 +5330,10 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -5341,10 +5341,10 @@
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -5352,10 +5352,10 @@
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -5363,10 +5363,10 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -5451,10 +5451,10 @@
       <c r="AE1" s="2"/>
     </row>
     <row r="2" spans="1:31" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
         <v>362</v>
       </c>
@@ -5466,10 +5466,10 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:31" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>365</v>
       </c>
@@ -5521,20 +5521,20 @@
       <c r="D9" s="6"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="59" t="s">
         <v>366</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="59" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:31">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
     </row>
     <row r="13" spans="1:31">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5583,10 +5583,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
         <v>371</v>
       </c>
@@ -5595,10 +5595,10 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>372</v>
       </c>
@@ -5648,34 +5648,34 @@
       </c>
     </row>
     <row r="12" spans="1:32" ht="11.25" customHeight="1">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="85" t="s">
         <v>375</v>
       </c>
-      <c r="B12" s="75"/>
+      <c r="B12" s="85"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="75"/>
-      <c r="B13" s="75"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="75"/>
-      <c r="B14" s="75"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="75"/>
-      <c r="B15" s="75"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="75"/>
-      <c r="B16" s="75"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="75"/>
-      <c r="B17" s="75"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="75"/>
-      <c r="B18" s="75"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5723,22 +5723,22 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E2" s="2"/>
       <c r="G2" s="2"/>
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>511</v>
       </c>
@@ -5757,117 +5757,117 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="14" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="40" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="40" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="40" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="40" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="40" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="40" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="40" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="40" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="40" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="40" t="s">
+        <v>786</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="11.25" customHeight="1">
+      <c r="A18" s="86" t="s">
         <v>788</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B18" s="86"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="86"/>
+      <c r="B19" s="86"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="59" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="11.25" customHeight="1">
-      <c r="A18" s="76" t="s">
+      <c r="B20" s="59" t="s">
         <v>790</v>
       </c>
-      <c r="B18" s="76"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="76"/>
-      <c r="B19" s="76"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="58" t="s">
-        <v>791</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>792</v>
-      </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5916,12 +5916,12 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D2" s="1"/>
       <c r="F2" s="1"/>
@@ -5932,10 +5932,10 @@
       <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>407</v>
       </c>
@@ -6223,22 +6223,22 @@
       <c r="K16" s="1"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="59" t="s">
         <v>408</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="59" t="s">
         <v>412</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="59" t="s">
         <v>409</v>
       </c>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="59" t="s">
         <v>410</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="59" t="s">
         <v>411</v>
       </c>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="59" t="s">
         <v>413</v>
       </c>
       <c r="G19" s="1"/>
@@ -6248,12 +6248,12 @@
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -6261,12 +6261,12 @@
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -6274,12 +6274,12 @@
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -6287,12 +6287,12 @@
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -6423,10 +6423,10 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
         <v>436</v>
       </c>
@@ -6440,10 +6440,10 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>435</v>
       </c>
@@ -6523,10 +6523,10 @@
     <row r="11" spans="1:32">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="59" t="s">
         <v>438</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="59" t="s">
         <v>439</v>
       </c>
       <c r="F11" s="25"/>
@@ -6538,8 +6538,8 @@
     <row r="12" spans="1:32">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
       <c r="F12" s="25"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -6611,10 +6611,10 @@
       <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="75" t="s">
-        <v>804</v>
-      </c>
-      <c r="B19" s="75"/>
+      <c r="A19" s="85" t="s">
+        <v>802</v>
+      </c>
+      <c r="B19" s="85"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="24"/>
@@ -6624,8 +6624,8 @@
       <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="24"/>
@@ -6635,8 +6635,8 @@
       <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -6644,12 +6644,12 @@
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="75"/>
-      <c r="B23" s="75"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6694,22 +6694,22 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>435</v>
       </c>
@@ -6848,26 +6848,26 @@
       <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A18" s="75" t="s">
-        <v>804</v>
-      </c>
-      <c r="B18" s="75"/>
-      <c r="D18" s="58" t="s">
+      <c r="A18" s="85" t="s">
+        <v>802</v>
+      </c>
+      <c r="B18" s="85"/>
+      <c r="D18" s="59" t="s">
         <v>438</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="59" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6917,12 +6917,12 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -6932,10 +6932,10 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>474</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>452</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>453</v>
@@ -7062,7 +7062,7 @@
         <v>455</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>456</v>
@@ -7085,7 +7085,7 @@
         <v>448</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>458</v>
@@ -7108,7 +7108,7 @@
         <v>460</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>461</v>
@@ -7131,7 +7131,7 @@
         <v>463</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>464</v>
@@ -7154,7 +7154,7 @@
         <v>466</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>467</v>
@@ -7192,7 +7192,7 @@
         <v>469</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>470</v>
@@ -7215,7 +7215,7 @@
         <v>472</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>473</v>
@@ -7244,19 +7244,19 @@
       <c r="K17" s="5"/>
     </row>
     <row r="19" spans="1:11" s="10" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="87" t="s">
         <v>476</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="87" t="s">
         <v>262</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="87" t="s">
         <v>491</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="87" t="s">
         <v>477</v>
       </c>
-      <c r="E19" s="78" t="s">
+      <c r="E19" s="88" t="s">
         <v>85</v>
       </c>
       <c r="F19" s="9"/>
@@ -7267,11 +7267,11 @@
       <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" s="10" customFormat="1">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="78"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -7280,11 +7280,11 @@
       <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" s="10" customFormat="1">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="78"/>
+      <c r="A21" s="87"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -7293,11 +7293,11 @@
       <c r="K21" s="9"/>
     </row>
     <row r="22" spans="1:11" s="10" customFormat="1">
-      <c r="A22" s="77"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="78"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -7306,11 +7306,11 @@
       <c r="K22" s="9"/>
     </row>
     <row r="23" spans="1:11" s="10" customFormat="1">
-      <c r="A23" s="77"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="78"/>
+      <c r="A23" s="87"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -7319,11 +7319,11 @@
       <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" s="10" customFormat="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="78"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -7332,11 +7332,11 @@
       <c r="K24" s="9"/>
     </row>
     <row r="25" spans="1:11" s="10" customFormat="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="78"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -7345,11 +7345,11 @@
       <c r="K25" s="9"/>
     </row>
     <row r="26" spans="1:11" s="10" customFormat="1">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="78"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -7358,11 +7358,11 @@
       <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" s="10" customFormat="1">
-      <c r="A27" s="77"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="78"/>
+      <c r="A27" s="87"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -7481,10 +7481,10 @@
       <c r="AE1" s="2"/>
     </row>
     <row r="2" spans="1:31" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
         <v>182</v>
       </c>
@@ -7493,10 +7493,10 @@
       <c r="AE2" s="2"/>
     </row>
     <row r="3" spans="1:31" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>186</v>
       </c>
@@ -7972,12 +7972,12 @@
       <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:30" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -7985,10 +7985,10 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>492</v>
       </c>
@@ -8247,14 +8247,14 @@
       <c r="I17" s="5"/>
     </row>
     <row r="18" spans="1:9" s="8" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="89" t="s">
         <v>503</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="80" t="s">
+      <c r="B18" s="89"/>
+      <c r="C18" s="90" t="s">
         <v>504</v>
       </c>
-      <c r="D18" s="81"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -8262,10 +8262,10 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" s="8" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A19" s="79"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="83"/>
+      <c r="A19" s="89"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -8273,22 +8273,22 @@
       <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="11.25" customHeight="1">
-      <c r="A20" s="79"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
     </row>
     <row r="21" spans="1:9" s="10" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="87" t="s">
         <v>476</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="87" t="s">
         <v>491</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="87" t="s">
         <v>506</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="87" t="s">
         <v>542</v>
       </c>
       <c r="E21" s="9"/>
@@ -8298,10 +8298,10 @@
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" s="10" customFormat="1">
-      <c r="A22" s="77"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
@@ -8309,10 +8309,10 @@
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" s="10" customFormat="1">
-      <c r="A23" s="77"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
+      <c r="A23" s="87"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
@@ -8320,10 +8320,10 @@
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" s="10" customFormat="1">
-      <c r="A24" s="77"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
@@ -8331,10 +8331,10 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" s="10" customFormat="1">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
@@ -8342,10 +8342,10 @@
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" s="10" customFormat="1">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
+      <c r="A26" s="87"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
@@ -8353,10 +8353,10 @@
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" s="10" customFormat="1">
-      <c r="A27" s="77"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
+      <c r="A27" s="87"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
@@ -8364,10 +8364,10 @@
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" s="10" customFormat="1">
-      <c r="A28" s="77"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
@@ -8375,10 +8375,10 @@
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" s="10" customFormat="1">
-      <c r="A29" s="77"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
+      <c r="A29" s="87"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
@@ -8485,22 +8485,22 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>435</v>
       </c>
@@ -8520,10 +8520,10 @@
       <c r="B6" s="26"/>
       <c r="C6" s="1"/>
       <c r="D6" s="14" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -8534,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="8" spans="1:27">
@@ -8556,7 +8556,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="10" spans="1:27">
@@ -8567,7 +8567,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -8578,7 +8578,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="12" spans="1:27">
@@ -8614,26 +8614,26 @@
       <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A18" s="75" t="s">
-        <v>804</v>
-      </c>
-      <c r="B18" s="75"/>
-      <c r="D18" s="58" t="s">
+      <c r="A18" s="85" t="s">
+        <v>802</v>
+      </c>
+      <c r="B18" s="85"/>
+      <c r="D18" s="59" t="s">
         <v>438</v>
       </c>
-      <c r="E18" s="58" t="s">
+      <c r="E18" s="59" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
     </row>
     <row r="25" spans="1:5">
       <c r="E25" s="35"/>
@@ -8678,20 +8678,20 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>511</v>
       </c>
@@ -8717,10 +8717,10 @@
         <v>510</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="85" t="s">
         <v>514</v>
       </c>
-      <c r="E6" s="75"/>
+      <c r="E6" s="85"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="11.25">
       <c r="A7" s="31" t="s">
@@ -8730,47 +8730,47 @@
         <v>507</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="11.25">
       <c r="C8" s="2"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
       <c r="J8" s="2"/>
       <c r="L8" s="2"/>
       <c r="W8" s="2"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="11.25">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="85" t="s">
         <v>512</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="85" t="s">
         <v>513</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
       <c r="J9" s="2"/>
       <c r="L9" s="2"/>
       <c r="W9" s="2"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="11.25">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
       <c r="J10" s="2"/>
       <c r="L10" s="2"/>
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" s="1" customFormat="1" ht="11.25">
-      <c r="A11" s="75"/>
-      <c r="B11" s="75"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
       <c r="J11" s="2"/>
       <c r="L11" s="2"/>
       <c r="W11" s="2"/>
@@ -8945,64 +8945,64 @@
     </row>
     <row r="40" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C40" s="5"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
       <c r="J40" s="2"/>
       <c r="L40" s="2"/>
       <c r="W40" s="2"/>
     </row>
     <row r="41" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C41" s="5"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="86"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
       <c r="J41" s="2"/>
       <c r="L41" s="2"/>
       <c r="W41" s="2"/>
     </row>
     <row r="42" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C42" s="5"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
       <c r="J42" s="2"/>
       <c r="L42" s="2"/>
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C43" s="5"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
       <c r="J43" s="2"/>
       <c r="L43" s="2"/>
       <c r="W43" s="2"/>
     </row>
     <row r="44" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C44" s="5"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
       <c r="J44" s="2"/>
       <c r="L44" s="2"/>
       <c r="W44" s="2"/>
     </row>
     <row r="45" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C45" s="5"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
       <c r="J45" s="2"/>
       <c r="L45" s="2"/>
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C46" s="5"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
       <c r="J46" s="2"/>
       <c r="L46" s="2"/>
       <c r="W46" s="2"/>
     </row>
     <row r="47" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C47" s="5"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
       <c r="J47" s="2"/>
       <c r="L47" s="2"/>
       <c r="W47" s="2"/>
@@ -9054,20 +9054,20 @@
       <c r="W1" s="2"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>529</v>
       </c>
@@ -9201,10 +9201,10 @@
       <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="97" t="s">
         <v>530</v>
       </c>
-      <c r="B18" s="87" t="s">
+      <c r="B18" s="97" t="s">
         <v>531</v>
       </c>
       <c r="C18" s="2"/>
@@ -9213,16 +9213,16 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="2"/>
       <c r="J19" s="2"/>
       <c r="L19" s="2"/>
       <c r="W19" s="2"/>
     </row>
     <row r="20" spans="1:23" s="1" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
       <c r="C20" s="2"/>
       <c r="J20" s="2"/>
       <c r="L20" s="2"/>
@@ -9356,64 +9356,64 @@
     </row>
     <row r="42" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C42" s="5"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
       <c r="J42" s="2"/>
       <c r="L42" s="2"/>
       <c r="W42" s="2"/>
     </row>
     <row r="43" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C43" s="5"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
       <c r="J43" s="2"/>
       <c r="L43" s="2"/>
       <c r="W43" s="2"/>
     </row>
     <row r="44" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C44" s="5"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
       <c r="J44" s="2"/>
       <c r="L44" s="2"/>
       <c r="W44" s="2"/>
     </row>
     <row r="45" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C45" s="5"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
       <c r="J45" s="2"/>
       <c r="L45" s="2"/>
       <c r="W45" s="2"/>
     </row>
     <row r="46" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C46" s="5"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
       <c r="J46" s="2"/>
       <c r="L46" s="2"/>
       <c r="W46" s="2"/>
     </row>
     <row r="47" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C47" s="5"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
       <c r="J47" s="2"/>
       <c r="L47" s="2"/>
       <c r="W47" s="2"/>
     </row>
     <row r="48" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C48" s="5"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
       <c r="J48" s="2"/>
       <c r="L48" s="2"/>
       <c r="W48" s="2"/>
     </row>
     <row r="49" spans="3:23" s="1" customFormat="1" ht="11.25">
       <c r="C49" s="5"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
       <c r="J49" s="2"/>
       <c r="L49" s="2"/>
       <c r="W49" s="2"/>
@@ -9438,203 +9438,6 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:AG21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="21.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33">
-      <c r="T1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="AG1" s="2"/>
-    </row>
-    <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="54" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:33">
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:33">
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:33">
-      <c r="A6" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
-      <c r="A7" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
-      <c r="A8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
-      <c r="A9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="A10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
-      <c r="A11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
-      <c r="A12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="A13" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="A14" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="A15" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
-      <c r="A16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="11.25" customHeight="1">
-      <c r="A19" s="58" t="s">
-        <v>555</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -9669,12 +9472,12 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -9684,10 +9487,10 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -9715,13 +9518,13 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>557</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>558</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -9729,7 +9532,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>77</v>
@@ -9740,10 +9543,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -9751,18 +9554,18 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:33" s="2" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A12" s="57" t="s">
-        <v>564</v>
-      </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="89"/>
+      <c r="A12" s="58" t="s">
+        <v>563</v>
+      </c>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -9786,9 +9589,9 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" s="2" customFormat="1">
-      <c r="A13" s="57"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -9812,9 +9615,9 @@
       <c r="AG13" s="1"/>
     </row>
     <row r="14" spans="1:33" s="2" customFormat="1">
-      <c r="A14" s="57"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -9838,31 +9641,31 @@
       <c r="AG14" s="1"/>
     </row>
     <row r="16" spans="1:33">
-      <c r="A16" s="90" t="s">
-        <v>565</v>
-      </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="91"/>
+      <c r="A16" s="100" t="s">
+        <v>564</v>
+      </c>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="91"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="91"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="91"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="101"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="91"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="91"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9876,7 +9679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -9926,12 +9729,12 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -9960,10 +9763,10 @@
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>435</v>
       </c>
@@ -10017,7 +9820,7 @@
         <v>532</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -10032,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -10047,7 +9850,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -10063,7 +9866,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -10079,7 +9882,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -10095,7 +9898,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -10111,7 +9914,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
@@ -10127,7 +9930,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -10143,7 +9946,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
@@ -10159,7 +9962,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -10175,7 +9978,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -10195,38 +9998,38 @@
       <c r="AE17" s="1"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="75" t="s">
-        <v>804</v>
-      </c>
-      <c r="B18" s="75"/>
-      <c r="D18" s="58" t="s">
+      <c r="A18" s="85" t="s">
+        <v>802</v>
+      </c>
+      <c r="B18" s="85"/>
+      <c r="D18" s="59" t="s">
+        <v>577</v>
+      </c>
+      <c r="E18" s="59" t="s">
         <v>578</v>
       </c>
-      <c r="E18" s="58" t="s">
-        <v>579</v>
-      </c>
       <c r="AE18" s="1"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
       <c r="AE19" s="1"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10242,7 +10045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -10277,12 +10080,12 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -10292,12 +10095,12 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -10325,10 +10128,10 @@
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>581</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -10348,11 +10151,11 @@
       </c>
     </row>
     <row r="11" spans="1:33" s="2" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="59" t="s">
+        <v>583</v>
+      </c>
+      <c r="B11" s="59" t="s">
         <v>584</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>585</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -10377,8 +10180,8 @@
       <c r="AG11" s="1"/>
     </row>
     <row r="12" spans="1:33" s="2" customFormat="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -10402,8 +10205,8 @@
       <c r="AG12" s="1"/>
     </row>
     <row r="13" spans="1:33" s="2" customFormat="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -10542,7 +10345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -10572,23 +10375,23 @@
       <c r="AB1" s="2"/>
     </row>
     <row r="2" spans="1:28" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:28" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -10601,15 +10404,15 @@
     </row>
     <row r="6" spans="1:28">
       <c r="C6" s="5"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
     </row>
     <row r="7" spans="1:28" ht="11.25" customHeight="1">
       <c r="A7" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>586</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>587</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -10653,7 +10456,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -10686,7 +10489,7 @@
         <v>286</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -10697,7 +10500,7 @@
         <v>284</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -10708,7 +10511,7 @@
         <v>282</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -10716,10 +10519,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>593</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -10731,23 +10534,23 @@
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" ht="11.25" customHeight="1">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="59" t="s">
+        <v>595</v>
+      </c>
+      <c r="B19" s="59" t="s">
         <v>596</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>597</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10762,7 +10565,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -10812,12 +10615,12 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -10846,10 +10649,10 @@
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>435</v>
       </c>
@@ -10900,10 +10703,10 @@
       </c>
       <c r="B6" s="26"/>
       <c r="D6" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>599</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>600</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
@@ -10933,7 +10736,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -10949,7 +10752,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -10965,7 +10768,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -10981,7 +10784,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -11003,11 +10806,11 @@
     <row r="13" spans="1:32">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="59" t="s">
+        <v>577</v>
+      </c>
+      <c r="E13" s="59" t="s">
         <v>578</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>579</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
@@ -11019,8 +10822,8 @@
     <row r="14" spans="1:32">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="5"/>
@@ -11031,8 +10834,8 @@
     <row r="15" spans="1:32">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="5"/>
@@ -11061,29 +10864,349 @@
       <c r="AE17" s="1"/>
     </row>
     <row r="18" spans="1:31">
-      <c r="A18" s="75" t="s">
-        <v>804</v>
-      </c>
-      <c r="B18" s="75"/>
+      <c r="A18" s="85" t="s">
+        <v>802</v>
+      </c>
+      <c r="B18" s="85"/>
       <c r="F18" s="35"/>
       <c r="AE18" s="1"/>
     </row>
     <row r="19" spans="1:31">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
       <c r="AE19" s="1"/>
     </row>
     <row r="20" spans="1:31">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
     </row>
     <row r="21" spans="1:31">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
     </row>
     <row r="22" spans="1:31">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A18:B22"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:AI22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35">
+      <c r="S1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="AF1" s="2"/>
+    </row>
+    <row r="2" spans="1:35" ht="21">
+      <c r="A2" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:35" ht="21">
+      <c r="A3" s="55" t="s">
+        <v>493</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="6" spans="1:35" ht="11.25" customHeight="1">
+      <c r="A6" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="D6" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>606</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="D9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+    </row>
+    <row r="11" spans="1:35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+    </row>
+    <row r="13" spans="1:35">
+      <c r="D13" s="59" t="s">
+        <v>577</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+    </row>
+    <row r="15" spans="1:35">
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="85" t="s">
+        <v>802</v>
+      </c>
+      <c r="B18" s="85"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11128,10 +11251,10 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
         <v>189</v>
       </c>
@@ -11140,10 +11263,10 @@
       <c r="AG2" s="2"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>190</v>
       </c>
@@ -11401,326 +11524,6 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:AI22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="22.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35">
-      <c r="S1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="AF1" s="2"/>
-    </row>
-    <row r="2" spans="1:35" ht="21">
-      <c r="A2" s="54" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:35" ht="21">
-      <c r="A3" s="54" t="s">
-        <v>493</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="6" spans="1:35" ht="11.25" customHeight="1">
-      <c r="A6" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="D6" s="14" t="s">
-        <v>606</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>607</v>
-      </c>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-    </row>
-    <row r="7" spans="1:35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="D7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-      <c r="AG7" s="2"/>
-      <c r="AH7" s="2"/>
-      <c r="AI7" s="2"/>
-    </row>
-    <row r="8" spans="1:35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="D8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-    </row>
-    <row r="9" spans="1:35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="D9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-    </row>
-    <row r="10" spans="1:35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="D10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-    </row>
-    <row r="11" spans="1:35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="D11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-    </row>
-    <row r="13" spans="1:35">
-      <c r="D13" s="58" t="s">
-        <v>578</v>
-      </c>
-      <c r="E13" s="58" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35">
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-    </row>
-    <row r="15" spans="1:35">
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="75" t="s">
-        <v>804</v>
-      </c>
-      <c r="B18" s="75"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="75"/>
-      <c r="B22" s="75"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A18:B22"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -11754,12 +11557,12 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -11768,12 +11571,12 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:32" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -11784,31 +11587,31 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>613</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>370</v>
@@ -11816,7 +11619,7 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>29</v>
@@ -11824,43 +11627,43 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="59" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="15" spans="1:32">
-      <c r="A15" s="58" t="s">
+      <c r="B15" s="59" t="s">
         <v>625</v>
       </c>
-      <c r="B15" s="58" t="s">
-        <v>626</v>
-      </c>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -11874,7 +11677,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -11927,12 +11730,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D2" s="2"/>
       <c r="N2" s="1"/>
@@ -11940,12 +11743,12 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D3" s="2"/>
       <c r="N3" s="1"/>
@@ -11971,8 +11774,8 @@
       <c r="B5" s="2"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
       <c r="K5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="1"/>
@@ -11985,7 +11788,7 @@
         <v>533</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="44"/>
@@ -12000,10 +11803,10 @@
     </row>
     <row r="7" spans="1:27" s="8" customFormat="1">
       <c r="A7" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>639</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>640</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
@@ -12015,10 +11818,10 @@
     </row>
     <row r="8" spans="1:27" s="8" customFormat="1">
       <c r="A8" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>641</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>642</v>
       </c>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
@@ -12030,10 +11833,10 @@
     </row>
     <row r="9" spans="1:27" s="8" customFormat="1">
       <c r="A9" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>643</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>644</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="44"/>
@@ -12045,10 +11848,10 @@
     </row>
     <row r="10" spans="1:27" s="8" customFormat="1">
       <c r="A10" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>645</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>646</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
@@ -12060,10 +11863,10 @@
     </row>
     <row r="11" spans="1:27" s="8" customFormat="1">
       <c r="A11" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>647</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>648</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
@@ -12075,10 +11878,10 @@
     </row>
     <row r="12" spans="1:27" s="8" customFormat="1">
       <c r="A12" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>649</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>650</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="44"/>
@@ -12090,10 +11893,10 @@
     </row>
     <row r="13" spans="1:27" s="8" customFormat="1">
       <c r="A13" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>651</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>652</v>
       </c>
       <c r="C13" s="44"/>
       <c r="D13" s="44"/>
@@ -12105,10 +11908,10 @@
     </row>
     <row r="14" spans="1:27" s="8" customFormat="1">
       <c r="A14" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>653</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>654</v>
       </c>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
@@ -12120,10 +11923,10 @@
     </row>
     <row r="15" spans="1:27" s="8" customFormat="1">
       <c r="A15" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>655</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>656</v>
       </c>
       <c r="N15" s="5"/>
       <c r="P15" s="5"/>
@@ -12131,10 +11934,10 @@
     </row>
     <row r="16" spans="1:27" s="8" customFormat="1">
       <c r="A16" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>657</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>658</v>
       </c>
       <c r="N16" s="5"/>
       <c r="P16" s="5"/>
@@ -12153,26 +11956,26 @@
       <c r="AA18" s="5"/>
     </row>
     <row r="19" spans="1:27" s="8" customFormat="1">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="85" t="s">
+        <v>659</v>
+      </c>
+      <c r="B19" s="85" t="s">
         <v>660</v>
-      </c>
-      <c r="B19" s="75" t="s">
-        <v>661</v>
       </c>
       <c r="N19" s="5"/>
       <c r="P19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
     <row r="20" spans="1:27" s="8" customFormat="1">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
       <c r="N20" s="5"/>
       <c r="P20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
     <row r="21" spans="1:27" s="8" customFormat="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
       <c r="N21" s="5"/>
       <c r="P21" s="5"/>
       <c r="AA21" s="5"/>
@@ -12200,7 +12003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -12228,12 +12031,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -12242,10 +12045,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>435</v>
       </c>
@@ -12264,16 +12067,16 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="94" t="s">
-        <v>627</v>
-      </c>
-      <c r="B6" s="94"/>
+      <c r="A6" s="104" t="s">
+        <v>626</v>
+      </c>
+      <c r="B6" s="104"/>
       <c r="C6" s="12"/>
       <c r="D6" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>663</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>664</v>
       </c>
       <c r="F6" s="11"/>
       <c r="K6" s="2"/>
@@ -12299,7 +12102,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F8" s="11"/>
       <c r="K8" s="2"/>
@@ -12377,7 +12180,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F14" s="11"/>
       <c r="K14" s="2"/>
@@ -12390,7 +12193,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F15" s="11"/>
       <c r="K15" s="2"/>
@@ -12403,7 +12206,7 @@
         <v>10</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F16" s="11"/>
       <c r="K16" s="2"/>
@@ -12427,35 +12230,35 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="95" t="s">
-        <v>804</v>
-      </c>
-      <c r="B19" s="95"/>
+      <c r="A19" s="105" t="s">
+        <v>802</v>
+      </c>
+      <c r="B19" s="105"/>
       <c r="C19" s="37"/>
-      <c r="D19" s="96" t="s">
-        <v>578</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>636</v>
+      <c r="D19" s="106" t="s">
+        <v>577</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>635</v>
       </c>
       <c r="F19" s="11"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="58"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="11"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="95"/>
-      <c r="B21" s="95"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="37"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="58"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="11"/>
       <c r="K21" s="2"/>
     </row>
@@ -12480,6 +12283,201 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:AG21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="T1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="AG1" s="2"/>
+    </row>
+    <row r="2" spans="1:33" ht="21">
+      <c r="A2" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:33" ht="21">
+      <c r="A3" s="55" t="s">
+        <v>493</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="11.25" customHeight="1">
+      <c r="A19" s="59" t="s">
+        <v>554</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12513,21 +12511,21 @@
       <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:32" s="1" customFormat="1" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>435</v>
       </c>
@@ -12569,10 +12567,10 @@
       <c r="AF5" s="2"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="104" t="s">
         <v>543</v>
       </c>
-      <c r="B6" s="94"/>
+      <c r="B6" s="104"/>
       <c r="D6" s="34" t="s">
         <v>479</v>
       </c>
@@ -12694,32 +12692,32 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A19" s="95" t="s">
-        <v>804</v>
-      </c>
-      <c r="B19" s="95"/>
+      <c r="A19" s="105" t="s">
+        <v>802</v>
+      </c>
+      <c r="B19" s="105"/>
       <c r="C19" s="37"/>
-      <c r="D19" s="58" t="s">
+      <c r="D19" s="59" t="s">
         <v>438</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="59" t="s">
         <v>439</v>
       </c>
-      <c r="F19" s="99" t="s">
+      <c r="F19" s="109" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="100"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="110"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="95"/>
-      <c r="B21" s="95"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="37"/>
     </row>
     <row r="22" spans="1:6">
@@ -12736,10 +12734,10 @@
       <c r="F23" s="39"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="104" t="s">
         <v>545</v>
       </c>
-      <c r="B25" s="94"/>
+      <c r="B25" s="104"/>
       <c r="D25" s="34" t="s">
         <v>479</v>
       </c>
@@ -12861,32 +12859,32 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A38" s="95" t="s">
-        <v>804</v>
-      </c>
-      <c r="B38" s="95"/>
+      <c r="A38" s="105" t="s">
+        <v>802</v>
+      </c>
+      <c r="B38" s="105"/>
       <c r="C38" s="37"/>
-      <c r="D38" s="58" t="s">
+      <c r="D38" s="59" t="s">
         <v>438</v>
       </c>
-      <c r="E38" s="58" t="s">
+      <c r="E38" s="59" t="s">
         <v>439</v>
       </c>
-      <c r="F38" s="99" t="s">
+      <c r="F38" s="109" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="95"/>
-      <c r="B39" s="95"/>
+      <c r="A39" s="105"/>
+      <c r="B39" s="105"/>
       <c r="C39" s="37"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="100"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="110"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="95"/>
-      <c r="B40" s="95"/>
+      <c r="A40" s="105"/>
+      <c r="B40" s="105"/>
       <c r="C40" s="37"/>
     </row>
     <row r="41" spans="1:6">
@@ -12896,11 +12894,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A38:B40"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A2:B2"/>
@@ -12908,6 +12901,11 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A38:B40"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12941,12 +12939,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -12955,10 +12953,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>435</v>
       </c>
@@ -12977,16 +12975,16 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="94" t="s">
-        <v>627</v>
-      </c>
-      <c r="B6" s="94"/>
+      <c r="A6" s="104" t="s">
+        <v>626</v>
+      </c>
+      <c r="B6" s="104"/>
       <c r="C6" s="12"/>
       <c r="D6" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>670</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>671</v>
       </c>
       <c r="F6" s="11"/>
       <c r="K6" s="2"/>
@@ -12999,7 +12997,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F7" s="11"/>
       <c r="K7" s="2"/>
@@ -13012,7 +13010,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F8" s="11"/>
       <c r="K8" s="2"/>
@@ -13025,7 +13023,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F9" s="11"/>
       <c r="K9" s="2"/>
@@ -13038,7 +13036,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F10" s="11"/>
       <c r="K10" s="2"/>
@@ -13051,7 +13049,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F11" s="11"/>
       <c r="K11" s="2"/>
@@ -13064,7 +13062,7 @@
         <v>6</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F12" s="11"/>
       <c r="K12" s="2"/>
@@ -13077,7 +13075,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F13" s="11"/>
       <c r="K13" s="2"/>
@@ -13090,7 +13088,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F14" s="11"/>
       <c r="K14" s="2"/>
@@ -13103,7 +13101,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F15" s="11"/>
       <c r="K15" s="2"/>
@@ -13140,35 +13138,35 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="95" t="s">
-        <v>804</v>
-      </c>
-      <c r="B19" s="95"/>
+      <c r="A19" s="105" t="s">
+        <v>802</v>
+      </c>
+      <c r="B19" s="105"/>
       <c r="C19" s="37"/>
-      <c r="D19" s="96" t="s">
-        <v>578</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>636</v>
+      <c r="D19" s="106" t="s">
+        <v>577</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>635</v>
       </c>
       <c r="F19" s="11"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="58"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="11"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="95"/>
-      <c r="B21" s="95"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="37"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="58"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="11"/>
       <c r="K21" s="2"/>
     </row>
@@ -13222,12 +13220,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -13236,10 +13234,10 @@
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>435</v>
       </c>
@@ -13258,16 +13256,16 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="94" t="s">
-        <v>627</v>
-      </c>
-      <c r="B6" s="94"/>
+      <c r="A6" s="104" t="s">
+        <v>626</v>
+      </c>
+      <c r="B6" s="104"/>
       <c r="C6" s="12"/>
       <c r="D6" s="14" t="s">
+        <v>681</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>682</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>683</v>
       </c>
       <c r="F6" s="11"/>
       <c r="K6" s="2"/>
@@ -13280,7 +13278,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F7" s="11"/>
       <c r="K7" s="2"/>
@@ -13293,7 +13291,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F8" s="11"/>
       <c r="K8" s="2"/>
@@ -13389,35 +13387,35 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="11.25" customHeight="1">
-      <c r="A19" s="95" t="s">
-        <v>804</v>
-      </c>
-      <c r="B19" s="95"/>
+      <c r="A19" s="105" t="s">
+        <v>802</v>
+      </c>
+      <c r="B19" s="105"/>
       <c r="C19" s="37"/>
-      <c r="D19" s="96" t="s">
-        <v>578</v>
-      </c>
-      <c r="E19" s="58" t="s">
-        <v>636</v>
+      <c r="D19" s="106" t="s">
+        <v>577</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>635</v>
       </c>
       <c r="F19" s="11"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="37"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="58"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="59"/>
       <c r="F20" s="11"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="95"/>
-      <c r="B21" s="95"/>
+      <c r="A21" s="105"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="37"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="58"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="59"/>
       <c r="F21" s="11"/>
       <c r="K21" s="2"/>
     </row>
@@ -13498,12 +13496,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D2" s="2"/>
       <c r="N2" s="1"/>
@@ -13511,12 +13509,12 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D3" s="2"/>
       <c r="N3" s="1"/>
@@ -13542,8 +13540,8 @@
       <c r="B5" s="2"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
       <c r="K5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="1"/>
@@ -13556,13 +13554,13 @@
         <v>432</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C6" s="45" t="s">
+        <v>686</v>
+      </c>
+      <c r="D6" s="45" t="s">
         <v>687</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>688</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -13581,10 +13579,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="46" t="s">
+        <v>688</v>
+      </c>
+      <c r="D7" s="46" t="s">
         <v>689</v>
-      </c>
-      <c r="D7" s="46" t="s">
-        <v>690</v>
       </c>
       <c r="E7" s="44"/>
       <c r="F7" s="44"/>
@@ -13600,10 +13598,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="46" t="s">
+        <v>690</v>
+      </c>
+      <c r="D8" s="46" t="s">
         <v>691</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>692</v>
       </c>
       <c r="E8" s="44"/>
       <c r="F8" s="44"/>
@@ -13619,10 +13617,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="46" t="s">
+        <v>692</v>
+      </c>
+      <c r="D9" s="46" t="s">
         <v>693</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>694</v>
       </c>
       <c r="E9" s="44"/>
       <c r="F9" s="44"/>
@@ -13638,10 +13636,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="46" t="s">
+        <v>694</v>
+      </c>
+      <c r="D10" s="46" t="s">
         <v>695</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>696</v>
       </c>
       <c r="E10" s="44"/>
       <c r="F10" s="44"/>
@@ -13657,10 +13655,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="46" t="s">
+        <v>696</v>
+      </c>
+      <c r="D11" s="46" t="s">
         <v>697</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>698</v>
       </c>
       <c r="E11" s="44"/>
       <c r="F11" s="44"/>
@@ -13676,10 +13674,10 @@
         <v>7</v>
       </c>
       <c r="C12" s="46" t="s">
+        <v>698</v>
+      </c>
+      <c r="D12" s="46" t="s">
         <v>699</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>700</v>
       </c>
       <c r="E12" s="44"/>
       <c r="F12" s="44"/>
@@ -13695,10 +13693,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="46" t="s">
+        <v>700</v>
+      </c>
+      <c r="D13" s="46" t="s">
         <v>701</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>702</v>
       </c>
       <c r="E13" s="44"/>
       <c r="F13" s="44"/>
@@ -13714,10 +13712,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="46" t="s">
+        <v>702</v>
+      </c>
+      <c r="D14" s="46" t="s">
         <v>703</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>704</v>
       </c>
       <c r="E14" s="44"/>
       <c r="F14" s="44"/>
@@ -13733,10 +13731,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="27" t="s">
+        <v>704</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>705</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>706</v>
       </c>
       <c r="N15" s="5"/>
       <c r="P15" s="5"/>
@@ -13750,10 +13748,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="27" t="s">
+        <v>706</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>707</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>708</v>
       </c>
       <c r="N16" s="5"/>
       <c r="P16" s="5"/>
@@ -13772,45 +13770,45 @@
       <c r="AA18" s="5"/>
     </row>
     <row r="19" spans="1:27" s="8" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A19" s="58" t="s">
-        <v>713</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>711</v>
-      </c>
-      <c r="C19" s="58" t="s">
+      <c r="A19" s="59" t="s">
+        <v>712</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>710</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>708</v>
+      </c>
+      <c r="D19" s="59" t="s">
         <v>709</v>
-      </c>
-      <c r="D19" s="58" t="s">
-        <v>710</v>
       </c>
       <c r="N19" s="5"/>
       <c r="P19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
     <row r="20" spans="1:27" s="8" customFormat="1">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
       <c r="N20" s="5"/>
       <c r="P20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
     <row r="21" spans="1:27" s="8" customFormat="1">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
       <c r="N21" s="5"/>
       <c r="P21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
     <row r="22" spans="1:27" s="8" customFormat="1">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
       <c r="N22" s="5"/>
       <c r="P22" s="5"/>
       <c r="AA22" s="5"/>
@@ -13827,7 +13825,7 @@
     </row>
     <row r="25" spans="1:27" ht="123.75">
       <c r="B25" s="16" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>
@@ -13898,12 +13896,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D2" s="2"/>
       <c r="N2" s="1"/>
@@ -13911,10 +13909,10 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>365</v>
       </c>
@@ -13942,8 +13940,8 @@
       <c r="B5" s="2"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
       <c r="K5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="1"/>
@@ -14029,10 +14027,10 @@
       <c r="AA11" s="5"/>
     </row>
     <row r="12" spans="1:27" s="8" customFormat="1" ht="11.25" customHeight="1">
-      <c r="A12" s="58" t="s">
-        <v>730</v>
-      </c>
-      <c r="B12" s="58" t="s">
+      <c r="A12" s="59" t="s">
+        <v>729</v>
+      </c>
+      <c r="B12" s="59" t="s">
         <v>262</v>
       </c>
       <c r="C12" s="1"/>
@@ -14042,8 +14040,8 @@
       <c r="AA12" s="5"/>
     </row>
     <row r="13" spans="1:27" s="8" customFormat="1">
-      <c r="A13" s="58"/>
-      <c r="B13" s="58"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="N13" s="5"/>
@@ -14051,8 +14049,8 @@
       <c r="AA13" s="5"/>
     </row>
     <row r="14" spans="1:27" s="8" customFormat="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="N14" s="5"/>
@@ -14060,8 +14058,8 @@
       <c r="AA14" s="5"/>
     </row>
     <row r="15" spans="1:27" s="8" customFormat="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="N15" s="5"/>
@@ -14139,12 +14137,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:27" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="H2" s="2"/>
       <c r="N2" s="1"/>
@@ -14152,12 +14150,12 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="H3" s="2"/>
       <c r="N3" s="1"/>
@@ -14180,10 +14178,10 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>334</v>
@@ -14198,10 +14196,10 @@
         <v>267</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7" spans="1:27">
@@ -14224,7 +14222,7 @@
         <v>270</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>36</v>
@@ -14250,7 +14248,7 @@
         <v>270</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>36</v>
@@ -14276,7 +14274,7 @@
         <v>270</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>36</v>
@@ -14302,7 +14300,7 @@
         <v>270</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>36</v>
@@ -14328,7 +14326,7 @@
         <v>270</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>36</v>
@@ -14354,7 +14352,7 @@
         <v>270</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>36</v>
@@ -14375,125 +14373,131 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:27" ht="11.25" customHeight="1">
-      <c r="A15" s="79" t="s">
-        <v>799</v>
-      </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="79" t="s">
-        <v>800</v>
-      </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79" t="s">
+      <c r="A15" s="89" t="s">
+        <v>797</v>
+      </c>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="89" t="s">
+        <v>798</v>
+      </c>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89" t="s">
         <v>496</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="11.25" customHeight="1">
-      <c r="A16" s="103"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A17" s="103"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
     </row>
     <row r="18" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="59" t="s">
+        <v>726</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>367</v>
+      </c>
+      <c r="C18" s="112" t="s">
+        <v>728</v>
+      </c>
+      <c r="D18" s="87" t="s">
+        <v>800</v>
+      </c>
+      <c r="E18" s="113" t="s">
+        <v>799</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>273</v>
+      </c>
+      <c r="G18" s="115" t="s">
+        <v>796</v>
+      </c>
+      <c r="H18" s="59"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="59"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="59"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="59"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="59"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="D21" s="87"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="114" t="s">
         <v>727</v>
       </c>
-      <c r="B18" s="58" t="s">
-        <v>367</v>
-      </c>
-      <c r="C18" s="104" t="s">
-        <v>729</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>802</v>
-      </c>
-      <c r="E18" s="105" t="s">
-        <v>801</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>273</v>
-      </c>
-      <c r="G18" s="102" t="s">
-        <v>798</v>
-      </c>
-      <c r="H18" s="58"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="58"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="58"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="D21" s="77"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="101" t="s">
-        <v>728</v>
-      </c>
-      <c r="D22" s="77"/>
+      <c r="D22" s="87"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="101"/>
-      <c r="D23" s="77"/>
+      <c r="A23" s="114"/>
+      <c r="D23" s="87"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="D24" s="77"/>
+      <c r="D24" s="87"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="D25" s="77"/>
+      <c r="D25" s="87"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="D26" s="77"/>
+      <c r="D26" s="87"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="D27" s="77"/>
+      <c r="D27" s="87"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="D28" s="77"/>
+      <c r="D28" s="87"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="D29" s="77"/>
+      <c r="D29" s="87"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="D30" s="77"/>
+      <c r="D30" s="87"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="D31" s="77"/>
+      <c r="D31" s="87"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="D32" s="77"/>
+      <c r="D32" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="D18:D32"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="A15:C17"/>
@@ -14502,12 +14506,6 @@
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="D18:D32"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -14545,10 +14543,10 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
         <v>193</v>
       </c>
@@ -14557,10 +14555,10 @@
       <c r="AG2" s="2"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>232</v>
       </c>
@@ -14825,28 +14823,28 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" customHeight="1">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="57" t="s">
         <v>494</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="55" t="s">
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="56" t="s">
         <v>495</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="57" t="s">
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="58" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="57"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="58"/>
     </row>
     <row r="21" spans="1:7" ht="56.25">
       <c r="A21" s="15" t="s">
@@ -14867,7 +14865,7 @@
       <c r="F21" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="G21" s="57"/>
+      <c r="G21" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -14911,10 +14909,10 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
         <v>239</v>
       </c>
@@ -14923,10 +14921,10 @@
       <c r="AG2" s="2"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>243</v>
       </c>
@@ -14980,26 +14978,26 @@
       </c>
     </row>
     <row r="13" spans="1:33">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="B13" s="58"/>
+      <c r="B13" s="59"/>
     </row>
     <row r="14" spans="1:33">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
     </row>
     <row r="15" spans="1:33">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
     </row>
     <row r="16" spans="1:33">
-      <c r="A16" s="58"/>
-      <c r="B16" s="58"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15044,10 +15042,10 @@
       <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:30" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
         <v>247</v>
       </c>
@@ -15056,10 +15054,10 @@
       <c r="AD2" s="2"/>
     </row>
     <row r="3" spans="1:30" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>242</v>
       </c>
@@ -15206,26 +15204,26 @@
       <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="B24" s="58"/>
+      <c r="B24" s="59"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="59"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="59"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="59"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="58"/>
-      <c r="B28" s="58"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15245,7 +15243,7 @@
   </sheetPr>
   <dimension ref="A1:AD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -15270,211 +15268,211 @@
       <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:30" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="S2" s="2"/>
       <c r="AD2" s="2"/>
     </row>
     <row r="3" spans="1:30" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="5" spans="1:30" ht="11.25" customHeight="1"/>
     <row r="6" spans="1:30" ht="20.25" customHeight="1">
-      <c r="A6" s="106" t="s">
+      <c r="A6" s="54" t="s">
+        <v>815</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>816</v>
+      </c>
+      <c r="C6" s="54" t="s">
         <v>817</v>
       </c>
-      <c r="B6" s="106" t="s">
-        <v>818</v>
-      </c>
-      <c r="C6" s="106" t="s">
-        <v>819</v>
-      </c>
-      <c r="E6" s="106" t="s">
+      <c r="E6" s="54" t="s">
+        <v>815</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>816</v>
+      </c>
+      <c r="G6" s="54" t="s">
         <v>817</v>
-      </c>
-      <c r="F6" s="106" t="s">
-        <v>818</v>
-      </c>
-      <c r="G6" s="106" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="2" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>419</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>822</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>822</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>832</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="2" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>835</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="2" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>836</v>
-      </c>
       <c r="F11" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="60" t="s">
         <v>837</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
-      <c r="A13" s="107" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="E13" s="60" t="s">
+        <v>838</v>
+      </c>
+      <c r="F13" s="61"/>
+      <c r="G13" s="62"/>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="65"/>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
+    </row>
+    <row r="16" spans="1:30" ht="33.75" customHeight="1">
+      <c r="A16" s="59" t="s">
         <v>839</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="E13" s="107" t="s">
+      <c r="B16" s="59" t="s">
         <v>840</v>
       </c>
-      <c r="F13" s="108"/>
-      <c r="G13" s="109"/>
-    </row>
-    <row r="14" spans="1:30">
-      <c r="A14" s="110"/>
-      <c r="B14" s="111"/>
-      <c r="C14" s="112"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="112"/>
-    </row>
-    <row r="15" spans="1:30">
-      <c r="A15" s="113"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="115"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="115"/>
-    </row>
-    <row r="16" spans="1:30" ht="33.75" customHeight="1">
-      <c r="A16" s="58" t="s">
+      <c r="C16" s="59" t="s">
         <v>841</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="E16" s="59" t="s">
+        <v>839</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>840</v>
+      </c>
+      <c r="G16" s="59" t="s">
         <v>842</v>
       </c>
-      <c r="C16" s="58" t="s">
-        <v>843</v>
-      </c>
-      <c r="E16" s="58" t="s">
-        <v>841</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>842</v>
-      </c>
-      <c r="G16" s="58" t="s">
-        <v>844</v>
-      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
+      <c r="A18" s="59"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -15519,10 +15517,10 @@
       <c r="S1" s="2"/>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
         <v>259</v>
       </c>
@@ -15532,10 +15530,10 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>260</v>
       </c>
@@ -15678,25 +15676,25 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="69" t="s">
         <v>261</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="69" t="s">
         <v>262</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="69" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -15744,10 +15742,10 @@
       <c r="AG1" s="2"/>
     </row>
     <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
         <v>265</v>
       </c>
@@ -15760,10 +15758,10 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="54"/>
+      <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
         <v>275</v>
       </c>
@@ -15812,52 +15810,52 @@
       </c>
     </row>
     <row r="10" spans="1:33" ht="11.25" customHeight="1">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="73" t="s">
         <v>496</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="60" t="s">
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="70" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:33" ht="11.25" customHeight="1">
-      <c r="A11" s="66"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="61"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="71"/>
     </row>
     <row r="12" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="62"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="72"/>
     </row>
     <row r="13" spans="1:33" ht="45" customHeight="1">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="D13" s="58" t="s">
+      <c r="D13" s="59" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:33">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
     </row>
     <row r="15" spans="1:33">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Documentação/Planilhas/Conferencia_DOM.xlsx
+++ b/Documentação/Planilhas/Conferencia_DOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="28" activeTab="32"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="36" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -45,14 +45,16 @@
     <sheet name="stg_dom_tipo_transporte" sheetId="101" r:id="rId36"/>
     <sheet name="stg_dom_transacao" sheetId="89" r:id="rId37"/>
     <sheet name="stg_dom_trk_cod_sist_fonte" sheetId="90" r:id="rId38"/>
-    <sheet name="stg_dom_wms_planta" sheetId="92" r:id="rId39"/>
+    <sheet name="stg_dom_trp_mega_rota" sheetId="103" r:id="rId39"/>
+    <sheet name="stg_dom_trp_transportadora" sheetId="104" r:id="rId40"/>
+    <sheet name="stg_dom_wms_planta" sheetId="92" r:id="rId41"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="877">
   <si>
     <t>DESCR</t>
   </si>
@@ -2613,6 +2615,102 @@
   </si>
   <si>
     <t>stg_dom_tipo_documento_fiscal</t>
+  </si>
+  <si>
+    <t>dbo.stg_dom_trp_mega_rota</t>
+  </si>
+  <si>
+    <t>ID_MEGA_ROTA</t>
+  </si>
+  <si>
+    <t>DS_MEGA_ROTA</t>
+  </si>
+  <si>
+    <t>RJ</t>
+  </si>
+  <si>
+    <t>RIO DE JANEIRO</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>tcmcs0104m000</t>
+  </si>
+  <si>
+    <t>Pegar a primeira informação da coluna Roteiro</t>
+  </si>
+  <si>
+    <t>Pegar a segunda informação da coluna Roteiro</t>
+  </si>
+  <si>
+    <t>stg_dom_trp_mega_rota</t>
+  </si>
+  <si>
+    <t>dbo.stg_dom_trp_transportadora</t>
+  </si>
+  <si>
+    <t>ID_TRANSPORTADORA</t>
+  </si>
+  <si>
+    <t>DS_TRANSPORTADORA</t>
+  </si>
+  <si>
+    <t>DS_APELIDO</t>
+  </si>
+  <si>
+    <t>ID_GRUPO_TRANSPORTADORA</t>
+  </si>
+  <si>
+    <t>34028316000294</t>
+  </si>
+  <si>
+    <t>CORREIOS</t>
+  </si>
+  <si>
+    <t>8219203000185</t>
+  </si>
+  <si>
+    <t>Direcional Transporte e Logist</t>
+  </si>
+  <si>
+    <t>DIRECIONAL TRANS</t>
+  </si>
+  <si>
+    <t>58818022000143</t>
+  </si>
+  <si>
+    <t>Transfolha Transporte e Distri</t>
+  </si>
+  <si>
+    <t>TRANSFOLHA TRANS</t>
+  </si>
+  <si>
+    <t>tcmcs0580m000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informar o DS_APELIDO na coluna "Chave de Busca" na sessão tcmcs0580m000 e pegar o código do Parceiro de negócios fornecedor </t>
+  </si>
+  <si>
+    <t>tccom4500m000 - Parceiros de Negócios</t>
+  </si>
+  <si>
+    <t>Informar o Código na primeira coluna de Parceiro de Negócios e pegar a informação da segunda coluna</t>
   </si>
 </sst>
 </file>
@@ -2716,7 +2814,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2768,6 +2866,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3036,7 +3140,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3340,6 +3444,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3349,11 +3459,8 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4148,13 +4255,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C41"/>
+  <dimension ref="B1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
+      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4394,26 +4501,32 @@
       <c r="C38" s="50"/>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="51" t="s">
+        <v>859</v>
+      </c>
+      <c r="C39" s="50"/>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" s="49" t="s">
         <v>745</v>
       </c>
-      <c r="C39" s="50" t="s">
+      <c r="C40" s="50" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="51" t="s">
+    <row r="41" spans="2:3">
+      <c r="B41" s="51" t="s">
         <v>715</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C41" s="50" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="52" t="s">
+    <row r="42" spans="2:3">
+      <c r="B42" s="52" t="s">
         <v>746</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C42" s="53" t="s">
         <v>792</v>
       </c>
     </row>
@@ -4453,9 +4566,10 @@
     <hyperlink ref="B36" location="stg_dom_tipo_transporte!A1" display="stg_dom_tipo_transporte"/>
     <hyperlink ref="B37" location="stg_dom_transacao!A1" display="stg_dom_transacao"/>
     <hyperlink ref="B38" location="stg_dom_trk_cod_sist_fonte!A1" display="stg_dom_trk_codigo_sistema_fonte"/>
-    <hyperlink ref="B40" location="stg_dom_wms_planta!A1" display="stg_dom_wms_planta"/>
+    <hyperlink ref="B41" location="stg_dom_wms_planta!A1" display="stg_dom_wms_planta"/>
     <hyperlink ref="B21" location="stg_dom_nfe_status_rascunho!A1" display="stg_dom_nfe_status_rascunho"/>
     <hyperlink ref="B7" location="stg_dom_car_comando!A1" display="stg_dom_car_comando"/>
+    <hyperlink ref="B39" location="stg_dom_trp_mega_rota!A1" display="stg_dom_trp_mega_rota"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -9445,7 +9559,7 @@
   <dimension ref="A1:AG20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -12293,7 +12407,7 @@
   </sheetPr>
   <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -12894,6 +13008,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A38:B40"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A2:B2"/>
@@ -12901,11 +13020,6 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A38:B40"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13850,8 +13964,249 @@
   </sheetPr>
   <dimension ref="A2:AA16"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" style="1" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.28515625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="15.85546875" style="1" customWidth="1"/>
+    <col min="34" max="34" width="13.28515625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.28515625" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:27" ht="21">
+      <c r="A2" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="N2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="21">
+      <c r="A3" s="55" t="s">
+        <v>493</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="N3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="X4" s="2"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="K5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="X5" s="2"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="K6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="X6" s="2"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" s="8" customFormat="1">
+      <c r="A7" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="N7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="AA7" s="5"/>
+    </row>
+    <row r="8" spans="1:27" s="8" customFormat="1">
+      <c r="A8" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="N8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="AA8" s="5"/>
+    </row>
+    <row r="9" spans="1:27" s="8" customFormat="1">
+      <c r="A9" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="N9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="AA9" s="5"/>
+    </row>
+    <row r="10" spans="1:27" s="8" customFormat="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="N10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="AA10" s="5"/>
+    </row>
+    <row r="11" spans="1:27" s="8" customFormat="1">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="N11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="AA11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" s="8" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A12" s="59" t="s">
+        <v>729</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="N12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="AA12" s="5"/>
+    </row>
+    <row r="13" spans="1:27" s="8" customFormat="1">
+      <c r="A13" s="59"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="N13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="AA13" s="5"/>
+    </row>
+    <row r="14" spans="1:27" s="8" customFormat="1">
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="N14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="AA14" s="5"/>
+    </row>
+    <row r="15" spans="1:27" s="8" customFormat="1">
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="N15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="AA15" s="5"/>
+    </row>
+    <row r="16" spans="1:27" s="8" customFormat="1">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="N16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="AA16" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A2:AA16"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -13901,7 +14256,7 @@
       </c>
       <c r="B2" s="55"/>
       <c r="C2" s="3" t="s">
-        <v>765</v>
+        <v>845</v>
       </c>
       <c r="D2" s="2"/>
       <c r="N2" s="1"/>
@@ -13914,7 +14269,7 @@
       </c>
       <c r="B3" s="55"/>
       <c r="C3" s="3" t="s">
-        <v>365</v>
+        <v>856</v>
       </c>
       <c r="D3" s="2"/>
       <c r="N3" s="1"/>
@@ -13951,10 +14306,10 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="23" t="s">
-        <v>363</v>
+        <v>846</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>364</v>
+        <v>847</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -13967,10 +14322,10 @@
     </row>
     <row r="7" spans="1:27" s="8" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>361</v>
+        <v>848</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>360</v>
+        <v>849</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -13982,10 +14337,10 @@
     </row>
     <row r="8" spans="1:27" s="8" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>359</v>
+        <v>850</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>358</v>
+        <v>851</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -13997,10 +14352,10 @@
     </row>
     <row r="9" spans="1:27" s="8" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>357</v>
+        <v>852</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>356</v>
+        <v>853</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -14011,8 +14366,12 @@
       <c r="AA9" s="5"/>
     </row>
     <row r="10" spans="1:27" s="8" customFormat="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>855</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="N10" s="5"/>
@@ -14028,10 +14387,10 @@
     </row>
     <row r="12" spans="1:27" s="8" customFormat="1" ht="11.25" customHeight="1">
       <c r="A12" s="59" t="s">
-        <v>729</v>
+        <v>857</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>262</v>
+        <v>858</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -14086,7 +14445,659 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:AG21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
+    <col min="2" max="6" width="26.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="T1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="AG1" s="2"/>
+    </row>
+    <row r="2" spans="1:33" ht="21">
+      <c r="A2" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="AG2" s="2"/>
+    </row>
+    <row r="3" spans="1:33" ht="21">
+      <c r="A3" s="55" t="s">
+        <v>505</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" ht="11.25" customHeight="1">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" customHeight="1">
+      <c r="A19" s="57" t="s">
+        <v>494</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="56" t="s">
+        <v>495</v>
+      </c>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="58" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="34.5" customHeight="1">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="58"/>
+    </row>
+    <row r="21" spans="1:7" ht="56.25">
+      <c r="A21" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G21" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D19:F20"/>
+    <mergeCell ref="A19:C20"/>
+    <mergeCell ref="G19:G21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A2:AA18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" style="1" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.28515625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="16.42578125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="15.85546875" style="1" customWidth="1"/>
+    <col min="34" max="34" width="13.28515625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.28515625" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:27" ht="21">
+      <c r="A2" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="N2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="1:27" ht="21">
+      <c r="A3" s="55" t="s">
+        <v>493</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="N3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="X4" s="2"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="K5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="X5" s="2"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="23" t="s">
+        <v>863</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>862</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>861</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>864</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="K6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="X6" s="2"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" s="8" customFormat="1">
+      <c r="A7" s="40" t="s">
+        <v>866</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="C7" s="116" t="s">
+        <v>865</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>865</v>
+      </c>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="N7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="AA7" s="5"/>
+    </row>
+    <row r="8" spans="1:27" s="8" customFormat="1">
+      <c r="A8" s="40" t="s">
+        <v>869</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>867</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="N8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="AA8" s="5"/>
+    </row>
+    <row r="9" spans="1:27" s="8" customFormat="1">
+      <c r="A9" s="40" t="s">
+        <v>872</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>870</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="N9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="AA9" s="5"/>
+    </row>
+    <row r="10" spans="1:27" s="8" customFormat="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="1"/>
+      <c r="N10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="AA10" s="5"/>
+    </row>
+    <row r="11" spans="1:27" s="8" customFormat="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="1"/>
+      <c r="N11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="AA11" s="5"/>
+    </row>
+    <row r="12" spans="1:27" s="8" customFormat="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="N12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="AA12" s="5"/>
+    </row>
+    <row r="13" spans="1:27" s="8" customFormat="1">
+      <c r="A13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="N13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="AA13" s="5"/>
+    </row>
+    <row r="14" spans="1:27" s="8" customFormat="1" ht="11.25" customHeight="1">
+      <c r="A14" s="59" t="s">
+        <v>874</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>876</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>857</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="N14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="AA14" s="5"/>
+    </row>
+    <row r="15" spans="1:27" s="8" customFormat="1">
+      <c r="A15" s="59"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="1"/>
+      <c r="N15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="AA15" s="5"/>
+    </row>
+    <row r="16" spans="1:27" s="8" customFormat="1">
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="1"/>
+      <c r="N16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="AA16" s="5"/>
+    </row>
+    <row r="17" spans="1:27" s="8" customFormat="1">
+      <c r="A17" s="59"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="1"/>
+      <c r="N17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="AA17" s="5"/>
+    </row>
+    <row r="18" spans="1:27" s="8" customFormat="1">
+      <c r="A18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="N18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="AA18" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A14:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -14376,8 +15387,8 @@
       <c r="A15" s="89" t="s">
         <v>797</v>
       </c>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="89" t="s">
         <v>798</v>
       </c>
@@ -14389,9 +15400,9 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="11.25" customHeight="1">
-      <c r="A16" s="111"/>
-      <c r="B16" s="111"/>
-      <c r="C16" s="111"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="89"/>
       <c r="E16" s="89"/>
       <c r="F16" s="89"/>
@@ -14399,9 +15410,9 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A17" s="111"/>
-      <c r="B17" s="111"/>
-      <c r="C17" s="111"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="89"/>
       <c r="E17" s="89"/>
       <c r="F17" s="89"/>
@@ -14413,19 +15424,19 @@
       <c r="B18" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="C18" s="112" t="s">
+      <c r="C18" s="114" t="s">
         <v>728</v>
       </c>
       <c r="D18" s="87" t="s">
         <v>800</v>
       </c>
-      <c r="E18" s="113" t="s">
+      <c r="E18" s="115" t="s">
         <v>799</v>
       </c>
       <c r="F18" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="G18" s="115" t="s">
+      <c r="G18" s="112" t="s">
         <v>796</v>
       </c>
       <c r="H18" s="59"/>
@@ -14433,34 +15444,34 @@
     <row r="19" spans="1:8">
       <c r="A19" s="59"/>
       <c r="B19" s="59"/>
-      <c r="C19" s="112"/>
+      <c r="C19" s="114"/>
       <c r="D19" s="87"/>
-      <c r="E19" s="113"/>
+      <c r="E19" s="115"/>
       <c r="F19" s="59"/>
-      <c r="G19" s="115"/>
+      <c r="G19" s="112"/>
       <c r="H19" s="59"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="59"/>
       <c r="B20" s="59"/>
-      <c r="C20" s="112"/>
+      <c r="C20" s="114"/>
       <c r="D20" s="87"/>
-      <c r="E20" s="113"/>
+      <c r="E20" s="115"/>
       <c r="F20" s="59"/>
-      <c r="G20" s="115"/>
+      <c r="G20" s="112"/>
       <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:8">
       <c r="D21" s="87"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="114" t="s">
+      <c r="A22" s="111" t="s">
         <v>727</v>
       </c>
       <c r="D22" s="87"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="114"/>
+      <c r="A23" s="111"/>
       <c r="D23" s="87"/>
     </row>
     <row r="24" spans="1:8">
@@ -14492,12 +15503,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="D18:D32"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A18:A20"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="A15:C17"/>
@@ -14506,374 +15511,12 @@
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="F18:F20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:AG21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" customWidth="1"/>
-    <col min="2" max="6" width="26.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33">
-      <c r="T1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="AG1" s="2"/>
-    </row>
-    <row r="2" spans="1:33" ht="21">
-      <c r="A2" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="AG2" s="2"/>
-    </row>
-    <row r="3" spans="1:33" ht="21">
-      <c r="A3" s="55" t="s">
-        <v>505</v>
-      </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" ht="11.25" customHeight="1">
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:33">
-      <c r="A6" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
-      <c r="A7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
-      <c r="A8" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
-      <c r="A9" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
-      <c r="A10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
-      <c r="A11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
-      <c r="A12" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="A13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="A14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="A15" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
-      <c r="A16" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1">
-      <c r="A19" s="57" t="s">
-        <v>494</v>
-      </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="56" t="s">
-        <v>495</v>
-      </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="58" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="34.5" customHeight="1">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="58"/>
-    </row>
-    <row r="21" spans="1:7" ht="56.25">
-      <c r="A21" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="G21" s="58"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="D18:D32"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D19:F20"/>
-    <mergeCell ref="A19:C20"/>
-    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Documentação/Planilhas/Conferencia_DOM.xlsx
+++ b/Documentação/Planilhas/Conferencia_DOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="36" activeTab="39"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" tabRatio="812" firstSheet="35" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="880">
   <si>
     <t>DESCR</t>
   </si>
@@ -2704,13 +2704,22 @@
     <t>tcmcs0580m000</t>
   </si>
   <si>
-    <t xml:space="preserve">Informar o DS_APELIDO na coluna "Chave de Busca" na sessão tcmcs0580m000 e pegar o código do Parceiro de negócios fornecedor </t>
-  </si>
-  <si>
-    <t>tccom4500m000 - Parceiros de Negócios</t>
-  </si>
-  <si>
-    <t>Informar o Código na primeira coluna de Parceiro de Negócios e pegar a informação da segunda coluna</t>
+    <t>TRANSFOLHA TRANSPORTE E DISTRI</t>
+  </si>
+  <si>
+    <t>58818022000305</t>
+  </si>
+  <si>
+    <t>Informar o DS_APELIDO na coluna "Chave de Busca" na sessão tcmcs0580m000 (Transportadoras)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informar o DS_APELIDO na coluna "Chave de Busca" na sessão tcmcs0580m000 (Transportadoras) e pegar a segunda informação da coluna "Transportadora/LSP" </t>
+  </si>
+  <si>
+    <t>Informar o DS_APELIDO na coluna "Chave de Busca" na sessão tcmcs0580m000 (Transportadoras). Fazer o detalhamento da linha apresentada e pegar o código da Entidade Fiscal (sem qualquer separador)</t>
+  </si>
+  <si>
+    <t>stg_dom_trp_transportadora</t>
   </si>
 </sst>
 </file>
@@ -2814,7 +2823,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2866,12 +2875,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3140,7 +3143,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3444,12 +3447,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3459,7 +3456,16 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3471,8 +3477,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFA7E7E"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FFFF5050"/>
     </mruColors>
@@ -4255,13 +4261,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:C42"/>
+  <dimension ref="B1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomRight" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4507,26 +4513,32 @@
       <c r="C39" s="50"/>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="51" t="s">
+        <v>879</v>
+      </c>
+      <c r="C40" s="50"/>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" s="49" t="s">
         <v>745</v>
       </c>
-      <c r="C40" s="50" t="s">
+      <c r="C41" s="50" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="51" t="s">
+    <row r="42" spans="2:3">
+      <c r="B42" s="51" t="s">
         <v>715</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C42" s="50" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="52" t="s">
+    <row r="43" spans="2:3">
+      <c r="B43" s="52" t="s">
         <v>746</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C43" s="53" t="s">
         <v>792</v>
       </c>
     </row>
@@ -4566,10 +4578,11 @@
     <hyperlink ref="B36" location="stg_dom_tipo_transporte!A1" display="stg_dom_tipo_transporte"/>
     <hyperlink ref="B37" location="stg_dom_transacao!A1" display="stg_dom_transacao"/>
     <hyperlink ref="B38" location="stg_dom_trk_cod_sist_fonte!A1" display="stg_dom_trk_codigo_sistema_fonte"/>
-    <hyperlink ref="B41" location="stg_dom_wms_planta!A1" display="stg_dom_wms_planta"/>
+    <hyperlink ref="B42" location="stg_dom_wms_planta!A1" display="stg_dom_wms_planta"/>
     <hyperlink ref="B21" location="stg_dom_nfe_status_rascunho!A1" display="stg_dom_nfe_status_rascunho"/>
     <hyperlink ref="B7" location="stg_dom_car_comando!A1" display="stg_dom_car_comando"/>
     <hyperlink ref="B39" location="stg_dom_trp_mega_rota!A1" display="stg_dom_trp_mega_rota"/>
+    <hyperlink ref="B40" location="stg_dom_trp_transportadora!A1" display="stg_dom_trp_transportadora"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -13008,11 +13021,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A38:B40"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="A2:B2"/>
@@ -13020,6 +13028,11 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A19:B21"/>
     <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A38:B40"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14205,9 +14218,7 @@
   </sheetPr>
   <dimension ref="A2:AA16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
@@ -14818,19 +14829,17 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A2:AA18"/>
+  <dimension ref="A2:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -14896,27 +14905,24 @@
       <c r="B4" s="2"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="K4" s="2"/>
-      <c r="M4" s="2"/>
+      <c r="E4" s="6"/>
+      <c r="J4" s="2"/>
+      <c r="L4" s="2"/>
       <c r="N4" s="1"/>
       <c r="P4" s="1"/>
-      <c r="X4" s="2"/>
+      <c r="W4" s="2"/>
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
       <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="K5" s="2"/>
-      <c r="M5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="L5" s="2"/>
       <c r="N5" s="1"/>
       <c r="P5" s="1"/>
-      <c r="X5" s="2"/>
+      <c r="W5" s="2"/>
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27">
@@ -14948,7 +14954,7 @@
       <c r="B7" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="5" t="s">
         <v>865</v>
       </c>
       <c r="D7" s="40" t="s">
@@ -14980,16 +14986,16 @@
       <c r="AA8" s="5"/>
     </row>
     <row r="9" spans="1:27" s="8" customFormat="1">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="116" t="s">
         <v>872</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="117" t="s">
         <v>871</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="117" t="s">
         <v>870</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="116" t="s">
         <v>870</v>
       </c>
       <c r="E9" s="44"/>
@@ -14999,10 +15005,20 @@
       <c r="AA9" s="5"/>
     </row>
     <row r="10" spans="1:27" s="8" customFormat="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="116" t="s">
+        <v>872</v>
+      </c>
+      <c r="B10" s="117" t="s">
+        <v>874</v>
+      </c>
+      <c r="C10" s="117" t="s">
+        <v>875</v>
+      </c>
+      <c r="D10" s="116" t="s">
+        <v>875</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
       <c r="N10" s="5"/>
       <c r="P10" s="5"/>
       <c r="AA10" s="5"/>
@@ -15019,9 +15035,7 @@
     <row r="12" spans="1:27" s="8" customFormat="1">
       <c r="A12" s="1"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>875</v>
-      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="1"/>
       <c r="N12" s="5"/>
       <c r="P12" s="5"/>
@@ -15036,15 +15050,17 @@
     </row>
     <row r="14" spans="1:27" s="8" customFormat="1" ht="11.25" customHeight="1">
       <c r="A14" s="59" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C14" s="59" t="s">
-        <v>857</v>
-      </c>
-      <c r="D14" s="1"/>
+        <v>878</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>878</v>
+      </c>
       <c r="N14" s="5"/>
       <c r="P14" s="5"/>
       <c r="AA14" s="5"/>
@@ -15053,7 +15069,7 @@
       <c r="A15" s="59"/>
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="59"/>
       <c r="N15" s="5"/>
       <c r="P15" s="5"/>
       <c r="AA15" s="5"/>
@@ -15062,7 +15078,7 @@
       <c r="A16" s="59"/>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="59"/>
       <c r="N16" s="5"/>
       <c r="P16" s="5"/>
       <c r="AA16" s="5"/>
@@ -15071,23 +15087,134 @@
       <c r="A17" s="59"/>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="59"/>
       <c r="N17" s="5"/>
       <c r="P17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
     <row r="18" spans="1:27" s="8" customFormat="1">
       <c r="A18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="N18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="AA18" s="5"/>
+      <c r="C18" s="1"/>
+      <c r="M18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="Z18" s="5"/>
+    </row>
+    <row r="19" spans="1:27" ht="11.25" customHeight="1">
+      <c r="M19" s="2"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="1"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="M20" s="2"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="1"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="M21" s="2"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="1"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="M22" s="2"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="1"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="M23" s="2"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="1"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="M24" s="2"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="1"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="M25" s="2"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="1"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="M26" s="2"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="1"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="M27" s="2"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="1"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="M28" s="2"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="1"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="1"/>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="M29" s="2"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="1"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="1"/>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="L30" s="2"/>
+      <c r="P30" s="1"/>
+      <c r="Y30" s="2"/>
+      <c r="AA30" s="1"/>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="M31" s="2"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="1"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="1"/>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="M32" s="2"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="1"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="D14:D17"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="C14:C17"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="A14:A17"/>
@@ -15387,8 +15514,8 @@
       <c r="A15" s="89" t="s">
         <v>797</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="111"/>
       <c r="D15" s="89" t="s">
         <v>798</v>
       </c>
@@ -15400,9 +15527,9 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:27" ht="11.25" customHeight="1">
-      <c r="A16" s="113"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
       <c r="D16" s="89"/>
       <c r="E16" s="89"/>
       <c r="F16" s="89"/>
@@ -15410,9 +15537,9 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A17" s="113"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="111"/>
       <c r="D17" s="89"/>
       <c r="E17" s="89"/>
       <c r="F17" s="89"/>
@@ -15424,19 +15551,19 @@
       <c r="B18" s="59" t="s">
         <v>367</v>
       </c>
-      <c r="C18" s="114" t="s">
+      <c r="C18" s="112" t="s">
         <v>728</v>
       </c>
       <c r="D18" s="87" t="s">
         <v>800</v>
       </c>
-      <c r="E18" s="115" t="s">
+      <c r="E18" s="113" t="s">
         <v>799</v>
       </c>
       <c r="F18" s="59" t="s">
         <v>273</v>
       </c>
-      <c r="G18" s="112" t="s">
+      <c r="G18" s="115" t="s">
         <v>796</v>
       </c>
       <c r="H18" s="59"/>
@@ -15444,34 +15571,34 @@
     <row r="19" spans="1:8">
       <c r="A19" s="59"/>
       <c r="B19" s="59"/>
-      <c r="C19" s="114"/>
+      <c r="C19" s="112"/>
       <c r="D19" s="87"/>
-      <c r="E19" s="115"/>
+      <c r="E19" s="113"/>
       <c r="F19" s="59"/>
-      <c r="G19" s="112"/>
+      <c r="G19" s="115"/>
       <c r="H19" s="59"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="59"/>
       <c r="B20" s="59"/>
-      <c r="C20" s="114"/>
+      <c r="C20" s="112"/>
       <c r="D20" s="87"/>
-      <c r="E20" s="115"/>
+      <c r="E20" s="113"/>
       <c r="F20" s="59"/>
-      <c r="G20" s="112"/>
+      <c r="G20" s="115"/>
       <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:8">
       <c r="D21" s="87"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="114" t="s">
         <v>727</v>
       </c>
       <c r="D22" s="87"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="111"/>
+      <c r="A23" s="114"/>
       <c r="D23" s="87"/>
     </row>
     <row r="24" spans="1:8">
@@ -15503,6 +15630,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="D18:D32"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="A15:C17"/>
@@ -15511,12 +15644,6 @@
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="F18:F20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="D18:D32"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A18:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
